--- a/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4167700</v>
+        <v>4323000</v>
       </c>
       <c r="E8" s="3">
-        <v>2895000</v>
+        <v>3002900</v>
       </c>
       <c r="F8" s="3">
-        <v>2623800</v>
+        <v>2721600</v>
       </c>
       <c r="G8" s="3">
-        <v>1785400</v>
+        <v>1851900</v>
       </c>
       <c r="H8" s="3">
-        <v>1298300</v>
+        <v>1346700</v>
       </c>
       <c r="I8" s="3">
-        <v>1244800</v>
+        <v>1291100</v>
       </c>
       <c r="J8" s="3">
-        <v>1104800</v>
+        <v>1146000</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3643100</v>
+        <v>3778800</v>
       </c>
       <c r="E9" s="3">
-        <v>2762700</v>
+        <v>2865700</v>
       </c>
       <c r="F9" s="3">
-        <v>2433500</v>
+        <v>2524200</v>
       </c>
       <c r="G9" s="3">
-        <v>2630400</v>
+        <v>2728500</v>
       </c>
       <c r="H9" s="3">
-        <v>1166900</v>
+        <v>1210400</v>
       </c>
       <c r="I9" s="3">
-        <v>1028500</v>
+        <v>1066800</v>
       </c>
       <c r="J9" s="3">
-        <v>975100</v>
+        <v>1011500</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>524600</v>
+        <v>544200</v>
       </c>
       <c r="E10" s="3">
-        <v>132300</v>
+        <v>137200</v>
       </c>
       <c r="F10" s="3">
-        <v>190300</v>
+        <v>197400</v>
       </c>
       <c r="G10" s="3">
-        <v>-845000</v>
+        <v>-876500</v>
       </c>
       <c r="H10" s="3">
-        <v>131400</v>
+        <v>136300</v>
       </c>
       <c r="I10" s="3">
-        <v>216200</v>
+        <v>224300</v>
       </c>
       <c r="J10" s="3">
-        <v>129700</v>
+        <v>134500</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -817,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I12" s="3">
         <v>900</v>
@@ -859,25 +859,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>39000</v>
+        <v>40500</v>
       </c>
       <c r="E14" s="3">
-        <v>205000</v>
+        <v>212600</v>
       </c>
       <c r="F14" s="3">
-        <v>325300</v>
+        <v>337500</v>
       </c>
       <c r="G14" s="3">
-        <v>-25900</v>
+        <v>-26800</v>
       </c>
       <c r="H14" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="I14" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J14" s="3">
-        <v>74100</v>
+        <v>76900</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3702900</v>
+        <v>3840900</v>
       </c>
       <c r="E17" s="3">
-        <v>2984800</v>
+        <v>3096100</v>
       </c>
       <c r="F17" s="3">
-        <v>2772100</v>
+        <v>2875400</v>
       </c>
       <c r="G17" s="3">
-        <v>1449400</v>
+        <v>1503400</v>
       </c>
       <c r="H17" s="3">
-        <v>1191400</v>
+        <v>1235800</v>
       </c>
       <c r="I17" s="3">
-        <v>1057400</v>
+        <v>1096800</v>
       </c>
       <c r="J17" s="3">
-        <v>977100</v>
+        <v>1013500</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>464800</v>
+        <v>482100</v>
       </c>
       <c r="E18" s="3">
-        <v>-89800</v>
+        <v>-93100</v>
       </c>
       <c r="F18" s="3">
-        <v>-148300</v>
+        <v>-153800</v>
       </c>
       <c r="G18" s="3">
-        <v>336000</v>
+        <v>348500</v>
       </c>
       <c r="H18" s="3">
-        <v>106900</v>
+        <v>110900</v>
       </c>
       <c r="I18" s="3">
-        <v>187300</v>
+        <v>194300</v>
       </c>
       <c r="J18" s="3">
-        <v>127700</v>
+        <v>132400</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-433200</v>
+        <v>-449400</v>
       </c>
       <c r="E20" s="3">
-        <v>128300</v>
+        <v>133100</v>
       </c>
       <c r="F20" s="3">
-        <v>-139600</v>
+        <v>-144800</v>
       </c>
       <c r="G20" s="3">
-        <v>-60900</v>
+        <v>-63200</v>
       </c>
       <c r="H20" s="3">
-        <v>-34600</v>
+        <v>-35900</v>
       </c>
       <c r="I20" s="3">
-        <v>-40700</v>
+        <v>-42200</v>
       </c>
       <c r="J20" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,19 +1017,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>446800</v>
+        <v>461100</v>
       </c>
       <c r="E21" s="3">
-        <v>419100</v>
+        <v>432600</v>
       </c>
       <c r="F21" s="3">
-        <v>40200</v>
+        <v>39900</v>
       </c>
       <c r="G21" s="3">
-        <v>507700</v>
+        <v>525300</v>
       </c>
       <c r="H21" s="3">
-        <v>281600</v>
+        <v>290900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1044,25 +1044,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>105900</v>
+        <v>109900</v>
       </c>
       <c r="E22" s="3">
-        <v>120600</v>
+        <v>125100</v>
       </c>
       <c r="F22" s="3">
-        <v>133900</v>
+        <v>138900</v>
       </c>
       <c r="G22" s="3">
-        <v>32500</v>
+        <v>33700</v>
       </c>
       <c r="H22" s="3">
-        <v>20000</v>
+        <v>20800</v>
       </c>
       <c r="I22" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="J22" s="3">
-        <v>18300</v>
+        <v>18900</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-74300</v>
+        <v>-77100</v>
       </c>
       <c r="E23" s="3">
-        <v>-82100</v>
+        <v>-85200</v>
       </c>
       <c r="F23" s="3">
-        <v>-421700</v>
+        <v>-437500</v>
       </c>
       <c r="G23" s="3">
-        <v>242600</v>
+        <v>251600</v>
       </c>
       <c r="H23" s="3">
-        <v>52300</v>
+        <v>54300</v>
       </c>
       <c r="I23" s="3">
-        <v>133400</v>
+        <v>138400</v>
       </c>
       <c r="J23" s="3">
-        <v>111700</v>
+        <v>115900</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-99000</v>
+        <v>-102700</v>
       </c>
       <c r="E24" s="3">
-        <v>61900</v>
+        <v>64200</v>
       </c>
       <c r="F24" s="3">
-        <v>-168400</v>
+        <v>-174700</v>
       </c>
       <c r="G24" s="3">
-        <v>68700</v>
+        <v>71300</v>
       </c>
       <c r="H24" s="3">
-        <v>21600</v>
+        <v>22400</v>
       </c>
       <c r="I24" s="3">
-        <v>47300</v>
+        <v>49100</v>
       </c>
       <c r="J24" s="3">
-        <v>14600</v>
+        <v>15200</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>24700</v>
+        <v>25700</v>
       </c>
       <c r="E26" s="3">
-        <v>-144100</v>
+        <v>-149400</v>
       </c>
       <c r="F26" s="3">
-        <v>-253400</v>
+        <v>-262800</v>
       </c>
       <c r="G26" s="3">
-        <v>173900</v>
+        <v>180400</v>
       </c>
       <c r="H26" s="3">
-        <v>30800</v>
+        <v>31900</v>
       </c>
       <c r="I26" s="3">
-        <v>86100</v>
+        <v>89300</v>
       </c>
       <c r="J26" s="3">
-        <v>97100</v>
+        <v>100700</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="E27" s="3">
-        <v>-142900</v>
+        <v>-148200</v>
       </c>
       <c r="F27" s="3">
-        <v>-253600</v>
+        <v>-263000</v>
       </c>
       <c r="G27" s="3">
-        <v>198500</v>
+        <v>205900</v>
       </c>
       <c r="H27" s="3">
-        <v>41000</v>
+        <v>42500</v>
       </c>
       <c r="I27" s="3">
-        <v>88700</v>
+        <v>92000</v>
       </c>
       <c r="J27" s="3">
-        <v>96700</v>
+        <v>100300</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>433200</v>
+        <v>449400</v>
       </c>
       <c r="E32" s="3">
-        <v>-128300</v>
+        <v>-133100</v>
       </c>
       <c r="F32" s="3">
-        <v>139600</v>
+        <v>144800</v>
       </c>
       <c r="G32" s="3">
-        <v>60900</v>
+        <v>63200</v>
       </c>
       <c r="H32" s="3">
-        <v>34600</v>
+        <v>35900</v>
       </c>
       <c r="I32" s="3">
-        <v>40700</v>
+        <v>42200</v>
       </c>
       <c r="J32" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="E33" s="3">
-        <v>-142900</v>
+        <v>-148200</v>
       </c>
       <c r="F33" s="3">
-        <v>-253600</v>
+        <v>-263000</v>
       </c>
       <c r="G33" s="3">
-        <v>198500</v>
+        <v>205900</v>
       </c>
       <c r="H33" s="3">
-        <v>41000</v>
+        <v>42500</v>
       </c>
       <c r="I33" s="3">
-        <v>88700</v>
+        <v>92000</v>
       </c>
       <c r="J33" s="3">
-        <v>96700</v>
+        <v>100300</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="E35" s="3">
-        <v>-142900</v>
+        <v>-148200</v>
       </c>
       <c r="F35" s="3">
-        <v>-253600</v>
+        <v>-263000</v>
       </c>
       <c r="G35" s="3">
-        <v>198500</v>
+        <v>205900</v>
       </c>
       <c r="H35" s="3">
-        <v>41000</v>
+        <v>42500</v>
       </c>
       <c r="I35" s="3">
-        <v>88700</v>
+        <v>92000</v>
       </c>
       <c r="J35" s="3">
-        <v>96700</v>
+        <v>100300</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>320300</v>
+        <v>333100</v>
       </c>
       <c r="E41" s="3">
-        <v>145000</v>
+        <v>150700</v>
       </c>
       <c r="F41" s="3">
-        <v>117200</v>
+        <v>121900</v>
       </c>
       <c r="G41" s="3">
-        <v>50800</v>
+        <v>52800</v>
       </c>
       <c r="H41" s="3">
-        <v>40900</v>
+        <v>42500</v>
       </c>
       <c r="I41" s="3">
-        <v>32100</v>
+        <v>33400</v>
       </c>
       <c r="J41" s="3">
-        <v>69900</v>
+        <v>72700</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>262200</v>
+        <v>272600</v>
       </c>
       <c r="E43" s="3">
-        <v>402200</v>
+        <v>418200</v>
       </c>
       <c r="F43" s="3">
-        <v>351800</v>
+        <v>365800</v>
       </c>
       <c r="G43" s="3">
-        <v>328400</v>
+        <v>341500</v>
       </c>
       <c r="H43" s="3">
-        <v>85700</v>
+        <v>89100</v>
       </c>
       <c r="I43" s="3">
-        <v>52700</v>
+        <v>54800</v>
       </c>
       <c r="J43" s="3">
-        <v>54200</v>
+        <v>56400</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>883800</v>
+        <v>919000</v>
       </c>
       <c r="E44" s="3">
-        <v>301900</v>
+        <v>313900</v>
       </c>
       <c r="F44" s="3">
-        <v>201000</v>
+        <v>209100</v>
       </c>
       <c r="G44" s="3">
-        <v>38600</v>
+        <v>40100</v>
       </c>
       <c r="H44" s="3">
-        <v>23100</v>
+        <v>24100</v>
       </c>
       <c r="I44" s="3">
-        <v>18700</v>
+        <v>19400</v>
       </c>
       <c r="J44" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25200</v>
+        <v>26300</v>
       </c>
       <c r="E45" s="3">
-        <v>17300</v>
+        <v>18000</v>
       </c>
       <c r="F45" s="3">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="G45" s="3">
-        <v>21400</v>
+        <v>22200</v>
       </c>
       <c r="H45" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="I45" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="J45" s="3">
-        <v>33000</v>
+        <v>34300</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1491600</v>
+        <v>1551000</v>
       </c>
       <c r="E46" s="3">
-        <v>866300</v>
+        <v>900800</v>
       </c>
       <c r="F46" s="3">
-        <v>684400</v>
+        <v>711600</v>
       </c>
       <c r="G46" s="3">
-        <v>439200</v>
+        <v>456600</v>
       </c>
       <c r="H46" s="3">
-        <v>156800</v>
+        <v>163100</v>
       </c>
       <c r="I46" s="3">
-        <v>110600</v>
+        <v>115000</v>
       </c>
       <c r="J46" s="3">
-        <v>154200</v>
+        <v>160400</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>269200</v>
+        <v>279900</v>
       </c>
       <c r="E47" s="3">
-        <v>230800</v>
+        <v>240000</v>
       </c>
       <c r="F47" s="3">
-        <v>144100</v>
+        <v>149900</v>
       </c>
       <c r="G47" s="3">
-        <v>143200</v>
+        <v>149000</v>
       </c>
       <c r="H47" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="I47" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="J47" s="3">
-        <v>15800</v>
+        <v>16400</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3297500</v>
+        <v>3428800</v>
       </c>
       <c r="E48" s="3">
-        <v>3110400</v>
+        <v>3234200</v>
       </c>
       <c r="F48" s="3">
-        <v>2932900</v>
+        <v>3049600</v>
       </c>
       <c r="G48" s="3">
-        <v>1553000</v>
+        <v>1614800</v>
       </c>
       <c r="H48" s="3">
-        <v>1261800</v>
+        <v>1312000</v>
       </c>
       <c r="I48" s="3">
-        <v>1294400</v>
+        <v>1345900</v>
       </c>
       <c r="J48" s="3">
-        <v>947300</v>
+        <v>985000</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,22 +1696,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>390800</v>
+        <v>406400</v>
       </c>
       <c r="E49" s="3">
-        <v>392800</v>
+        <v>408400</v>
       </c>
       <c r="F49" s="3">
-        <v>364600</v>
+        <v>379200</v>
       </c>
       <c r="G49" s="3">
-        <v>53400</v>
+        <v>55500</v>
       </c>
       <c r="H49" s="3">
-        <v>42000</v>
+        <v>43700</v>
       </c>
       <c r="I49" s="3">
-        <v>42000</v>
+        <v>43700</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>313000</v>
+        <v>325400</v>
       </c>
       <c r="E52" s="3">
-        <v>241200</v>
+        <v>250800</v>
       </c>
       <c r="F52" s="3">
-        <v>210900</v>
+        <v>219300</v>
       </c>
       <c r="G52" s="3">
-        <v>189800</v>
+        <v>197300</v>
       </c>
       <c r="H52" s="3">
-        <v>141200</v>
+        <v>146800</v>
       </c>
       <c r="I52" s="3">
-        <v>140800</v>
+        <v>146400</v>
       </c>
       <c r="J52" s="3">
-        <v>106200</v>
+        <v>110400</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5762100</v>
+        <v>5991500</v>
       </c>
       <c r="E54" s="3">
-        <v>4841500</v>
+        <v>5034200</v>
       </c>
       <c r="F54" s="3">
-        <v>4336900</v>
+        <v>4509500</v>
       </c>
       <c r="G54" s="3">
-        <v>2378500</v>
+        <v>2473200</v>
       </c>
       <c r="H54" s="3">
-        <v>1611400</v>
+        <v>1675600</v>
       </c>
       <c r="I54" s="3">
-        <v>1591800</v>
+        <v>1655200</v>
       </c>
       <c r="J54" s="3">
-        <v>1139900</v>
+        <v>1185300</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>365100</v>
+        <v>379600</v>
       </c>
       <c r="E57" s="3">
-        <v>293800</v>
+        <v>305500</v>
       </c>
       <c r="F57" s="3">
-        <v>234200</v>
+        <v>243600</v>
       </c>
       <c r="G57" s="3">
-        <v>176300</v>
+        <v>183300</v>
       </c>
       <c r="H57" s="3">
-        <v>78800</v>
+        <v>81900</v>
       </c>
       <c r="I57" s="3">
-        <v>83600</v>
+        <v>86900</v>
       </c>
       <c r="J57" s="3">
-        <v>83300</v>
+        <v>86600</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="E58" s="3">
-        <v>352800</v>
+        <v>366800</v>
       </c>
       <c r="F58" s="3">
-        <v>94500</v>
+        <v>98300</v>
       </c>
       <c r="G58" s="3">
-        <v>42900</v>
+        <v>44600</v>
       </c>
       <c r="H58" s="3">
-        <v>113800</v>
+        <v>118300</v>
       </c>
       <c r="I58" s="3">
-        <v>31600</v>
+        <v>32900</v>
       </c>
       <c r="J58" s="3">
-        <v>28500</v>
+        <v>29600</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>443200</v>
+        <v>460900</v>
       </c>
       <c r="E59" s="3">
-        <v>187700</v>
+        <v>195100</v>
       </c>
       <c r="F59" s="3">
-        <v>152300</v>
+        <v>158400</v>
       </c>
       <c r="G59" s="3">
-        <v>137500</v>
+        <v>143000</v>
       </c>
       <c r="H59" s="3">
-        <v>112300</v>
+        <v>116800</v>
       </c>
       <c r="I59" s="3">
-        <v>88400</v>
+        <v>91900</v>
       </c>
       <c r="J59" s="3">
-        <v>104400</v>
+        <v>108600</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>816800</v>
+        <v>849300</v>
       </c>
       <c r="E60" s="3">
-        <v>834200</v>
+        <v>867400</v>
       </c>
       <c r="F60" s="3">
-        <v>481000</v>
+        <v>500200</v>
       </c>
       <c r="G60" s="3">
-        <v>356700</v>
+        <v>370900</v>
       </c>
       <c r="H60" s="3">
-        <v>304800</v>
+        <v>317000</v>
       </c>
       <c r="I60" s="3">
-        <v>203600</v>
+        <v>211700</v>
       </c>
       <c r="J60" s="3">
-        <v>204800</v>
+        <v>212900</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1366600</v>
+        <v>1421000</v>
       </c>
       <c r="E61" s="3">
-        <v>1044200</v>
+        <v>1085800</v>
       </c>
       <c r="F61" s="3">
-        <v>1367800</v>
+        <v>1422200</v>
       </c>
       <c r="G61" s="3">
-        <v>468700</v>
+        <v>487400</v>
       </c>
       <c r="H61" s="3">
-        <v>103100</v>
+        <v>107200</v>
       </c>
       <c r="I61" s="3">
-        <v>149100</v>
+        <v>155100</v>
       </c>
       <c r="J61" s="3">
-        <v>85000</v>
+        <v>88400</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1803600</v>
+        <v>1875400</v>
       </c>
       <c r="E62" s="3">
-        <v>1553500</v>
+        <v>1615400</v>
       </c>
       <c r="F62" s="3">
-        <v>1119900</v>
+        <v>1164500</v>
       </c>
       <c r="G62" s="3">
-        <v>614200</v>
+        <v>638700</v>
       </c>
       <c r="H62" s="3">
-        <v>349200</v>
+        <v>363100</v>
       </c>
       <c r="I62" s="3">
-        <v>384800</v>
+        <v>400100</v>
       </c>
       <c r="J62" s="3">
-        <v>313300</v>
+        <v>325800</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4070600</v>
+        <v>4232700</v>
       </c>
       <c r="E66" s="3">
-        <v>3485300</v>
+        <v>3624100</v>
       </c>
       <c r="F66" s="3">
-        <v>2969800</v>
+        <v>3088100</v>
       </c>
       <c r="G66" s="3">
-        <v>1440600</v>
+        <v>1498000</v>
       </c>
       <c r="H66" s="3">
-        <v>763400</v>
+        <v>793800</v>
       </c>
       <c r="I66" s="3">
-        <v>756300</v>
+        <v>786400</v>
       </c>
       <c r="J66" s="3">
-        <v>602800</v>
+        <v>626800</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-657600</v>
+        <v>-683700</v>
       </c>
       <c r="E72" s="3">
-        <v>-677600</v>
+        <v>-704600</v>
       </c>
       <c r="F72" s="3">
-        <v>-566100</v>
+        <v>-588700</v>
       </c>
       <c r="G72" s="3">
-        <v>-293700</v>
+        <v>-305400</v>
       </c>
       <c r="H72" s="3">
-        <v>-391100</v>
+        <v>-406600</v>
       </c>
       <c r="I72" s="3">
-        <v>-403500</v>
+        <v>-419600</v>
       </c>
       <c r="J72" s="3">
-        <v>-446100</v>
+        <v>-463800</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1691500</v>
+        <v>1758900</v>
       </c>
       <c r="E76" s="3">
-        <v>1356200</v>
+        <v>1410200</v>
       </c>
       <c r="F76" s="3">
-        <v>1367000</v>
+        <v>1421400</v>
       </c>
       <c r="G76" s="3">
-        <v>937900</v>
+        <v>975200</v>
       </c>
       <c r="H76" s="3">
-        <v>848000</v>
+        <v>881800</v>
       </c>
       <c r="I76" s="3">
-        <v>835600</v>
+        <v>868800</v>
       </c>
       <c r="J76" s="3">
-        <v>537100</v>
+        <v>558500</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="E81" s="3">
-        <v>-142900</v>
+        <v>-148200</v>
       </c>
       <c r="F81" s="3">
-        <v>-253600</v>
+        <v>-263000</v>
       </c>
       <c r="G81" s="3">
-        <v>198500</v>
+        <v>205900</v>
       </c>
       <c r="H81" s="3">
-        <v>41000</v>
+        <v>42500</v>
       </c>
       <c r="I81" s="3">
-        <v>88700</v>
+        <v>92000</v>
       </c>
       <c r="J81" s="3">
-        <v>96700</v>
+        <v>100300</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,19 +2509,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>412300</v>
+        <v>427700</v>
       </c>
       <c r="E83" s="3">
-        <v>378000</v>
+        <v>392100</v>
       </c>
       <c r="F83" s="3">
-        <v>325700</v>
+        <v>337900</v>
       </c>
       <c r="G83" s="3">
-        <v>231000</v>
+        <v>239600</v>
       </c>
       <c r="H83" s="3">
-        <v>207800</v>
+        <v>215600</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>540900</v>
+        <v>561000</v>
       </c>
       <c r="E89" s="3">
-        <v>697100</v>
+        <v>723100</v>
       </c>
       <c r="F89" s="3">
-        <v>156600</v>
+        <v>162500</v>
       </c>
       <c r="G89" s="3">
-        <v>251800</v>
+        <v>261200</v>
       </c>
       <c r="H89" s="3">
-        <v>200900</v>
+        <v>208400</v>
       </c>
       <c r="I89" s="3">
-        <v>231600</v>
+        <v>240200</v>
       </c>
       <c r="J89" s="3">
-        <v>363500</v>
+        <v>377000</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-440400</v>
+        <v>-456800</v>
       </c>
       <c r="E91" s="3">
-        <v>-404700</v>
+        <v>-419700</v>
       </c>
       <c r="F91" s="3">
-        <v>-348500</v>
+        <v>-361500</v>
       </c>
       <c r="G91" s="3">
-        <v>-237200</v>
+        <v>-246100</v>
       </c>
       <c r="H91" s="3">
-        <v>-191200</v>
+        <v>-198300</v>
       </c>
       <c r="I91" s="3">
-        <v>-185800</v>
+        <v>-192700</v>
       </c>
       <c r="J91" s="3">
-        <v>-165800</v>
+        <v>-172000</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-278000</v>
+        <v>-288400</v>
       </c>
       <c r="E94" s="3">
-        <v>-442500</v>
+        <v>-459000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1608500</v>
+        <v>-1668400</v>
       </c>
       <c r="G94" s="3">
-        <v>-539700</v>
+        <v>-559800</v>
       </c>
       <c r="H94" s="3">
-        <v>-190900</v>
+        <v>-198000</v>
       </c>
       <c r="I94" s="3">
-        <v>-246200</v>
+        <v>-255400</v>
       </c>
       <c r="J94" s="3">
-        <v>-175500</v>
+        <v>-182100</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-84000</v>
+        <v>-87100</v>
       </c>
       <c r="E100" s="3">
-        <v>-234400</v>
+        <v>-243100</v>
       </c>
       <c r="F100" s="3">
-        <v>1532000</v>
+        <v>1589100</v>
       </c>
       <c r="G100" s="3">
-        <v>311200</v>
+        <v>322800</v>
       </c>
       <c r="H100" s="3">
         <v>-1200</v>
       </c>
       <c r="I100" s="3">
-        <v>-38500</v>
+        <v>-39900</v>
       </c>
       <c r="J100" s="3">
-        <v>-119300</v>
+        <v>-123800</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,16 +2967,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="E101" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="F101" s="3">
-        <v>-17600</v>
+        <v>-18300</v>
       </c>
       <c r="G101" s="3">
-        <v>-9000</v>
+        <v>-9300</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
@@ -2985,7 +2985,7 @@
         <v>8</v>
       </c>
       <c r="J101" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>175400</v>
+        <v>182000</v>
       </c>
       <c r="E102" s="3">
-        <v>27800</v>
+        <v>28900</v>
       </c>
       <c r="F102" s="3">
-        <v>62600</v>
+        <v>64900</v>
       </c>
       <c r="G102" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="H102" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="I102" s="3">
-        <v>-53100</v>
+        <v>-55100</v>
       </c>
       <c r="J102" s="3">
-        <v>68600</v>
+        <v>71200</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4323000</v>
+        <v>4781000</v>
       </c>
       <c r="E8" s="3">
-        <v>3002900</v>
+        <v>3321000</v>
       </c>
       <c r="F8" s="3">
-        <v>2721600</v>
+        <v>3010000</v>
       </c>
       <c r="G8" s="3">
-        <v>1851900</v>
+        <v>2048100</v>
       </c>
       <c r="H8" s="3">
-        <v>1346700</v>
+        <v>1489400</v>
       </c>
       <c r="I8" s="3">
-        <v>1291100</v>
+        <v>1427900</v>
       </c>
       <c r="J8" s="3">
-        <v>1146000</v>
+        <v>1267400</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3778800</v>
+        <v>4179200</v>
       </c>
       <c r="E9" s="3">
-        <v>2865700</v>
+        <v>3169300</v>
       </c>
       <c r="F9" s="3">
-        <v>2524200</v>
+        <v>2791600</v>
       </c>
       <c r="G9" s="3">
-        <v>2728500</v>
+        <v>3017500</v>
       </c>
       <c r="H9" s="3">
-        <v>1210400</v>
+        <v>1338600</v>
       </c>
       <c r="I9" s="3">
-        <v>1066800</v>
+        <v>1179900</v>
       </c>
       <c r="J9" s="3">
-        <v>1011500</v>
+        <v>1118600</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>544200</v>
+        <v>601800</v>
       </c>
       <c r="E10" s="3">
-        <v>137200</v>
+        <v>151800</v>
       </c>
       <c r="F10" s="3">
-        <v>197400</v>
+        <v>218400</v>
       </c>
       <c r="G10" s="3">
-        <v>-876500</v>
+        <v>-969400</v>
       </c>
       <c r="H10" s="3">
-        <v>136300</v>
+        <v>150800</v>
       </c>
       <c r="I10" s="3">
-        <v>224300</v>
+        <v>248100</v>
       </c>
       <c r="J10" s="3">
-        <v>134500</v>
+        <v>148700</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -817,10 +817,10 @@
         <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -859,25 +859,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>40500</v>
+        <v>44800</v>
       </c>
       <c r="E14" s="3">
-        <v>212600</v>
+        <v>235100</v>
       </c>
       <c r="F14" s="3">
-        <v>337500</v>
+        <v>373200</v>
       </c>
       <c r="G14" s="3">
-        <v>-26800</v>
+        <v>-29700</v>
       </c>
       <c r="H14" s="3">
-        <v>7700</v>
+        <v>8600</v>
       </c>
       <c r="I14" s="3">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="J14" s="3">
-        <v>76900</v>
+        <v>85000</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3840900</v>
+        <v>4247800</v>
       </c>
       <c r="E17" s="3">
-        <v>3096100</v>
+        <v>3424000</v>
       </c>
       <c r="F17" s="3">
-        <v>2875400</v>
+        <v>3180000</v>
       </c>
       <c r="G17" s="3">
-        <v>1503400</v>
+        <v>1662700</v>
       </c>
       <c r="H17" s="3">
-        <v>1235800</v>
+        <v>1366700</v>
       </c>
       <c r="I17" s="3">
-        <v>1096800</v>
+        <v>1213000</v>
       </c>
       <c r="J17" s="3">
-        <v>1013500</v>
+        <v>1120900</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>482100</v>
+        <v>533200</v>
       </c>
       <c r="E18" s="3">
-        <v>-93100</v>
+        <v>-103000</v>
       </c>
       <c r="F18" s="3">
-        <v>-153800</v>
+        <v>-170100</v>
       </c>
       <c r="G18" s="3">
-        <v>348500</v>
+        <v>385500</v>
       </c>
       <c r="H18" s="3">
-        <v>110900</v>
+        <v>122700</v>
       </c>
       <c r="I18" s="3">
-        <v>194300</v>
+        <v>214900</v>
       </c>
       <c r="J18" s="3">
-        <v>132400</v>
+        <v>146400</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-449400</v>
+        <v>-497000</v>
       </c>
       <c r="E20" s="3">
-        <v>133100</v>
+        <v>147200</v>
       </c>
       <c r="F20" s="3">
-        <v>-144800</v>
+        <v>-160100</v>
       </c>
       <c r="G20" s="3">
-        <v>-63200</v>
+        <v>-69900</v>
       </c>
       <c r="H20" s="3">
-        <v>-35900</v>
+        <v>-39700</v>
       </c>
       <c r="I20" s="3">
-        <v>-42200</v>
+        <v>-46700</v>
       </c>
       <c r="J20" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,19 +1017,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>461100</v>
+        <v>511600</v>
       </c>
       <c r="E21" s="3">
-        <v>432600</v>
+        <v>480000</v>
       </c>
       <c r="F21" s="3">
-        <v>39900</v>
+        <v>45400</v>
       </c>
       <c r="G21" s="3">
-        <v>525300</v>
+        <v>581900</v>
       </c>
       <c r="H21" s="3">
-        <v>290900</v>
+        <v>322600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1044,25 +1044,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>109900</v>
+        <v>121500</v>
       </c>
       <c r="E22" s="3">
-        <v>125100</v>
+        <v>138400</v>
       </c>
       <c r="F22" s="3">
-        <v>138900</v>
+        <v>153700</v>
       </c>
       <c r="G22" s="3">
-        <v>33700</v>
+        <v>37300</v>
       </c>
       <c r="H22" s="3">
-        <v>20800</v>
+        <v>23000</v>
       </c>
       <c r="I22" s="3">
-        <v>13700</v>
+        <v>15100</v>
       </c>
       <c r="J22" s="3">
-        <v>18900</v>
+        <v>20900</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-77100</v>
+        <v>-85200</v>
       </c>
       <c r="E23" s="3">
-        <v>-85200</v>
+        <v>-94200</v>
       </c>
       <c r="F23" s="3">
-        <v>-437500</v>
+        <v>-483800</v>
       </c>
       <c r="G23" s="3">
-        <v>251600</v>
+        <v>278300</v>
       </c>
       <c r="H23" s="3">
-        <v>54300</v>
+        <v>60000</v>
       </c>
       <c r="I23" s="3">
-        <v>138400</v>
+        <v>153100</v>
       </c>
       <c r="J23" s="3">
-        <v>115900</v>
+        <v>128100</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-102700</v>
+        <v>-113600</v>
       </c>
       <c r="E24" s="3">
-        <v>64200</v>
+        <v>71100</v>
       </c>
       <c r="F24" s="3">
-        <v>-174700</v>
+        <v>-193200</v>
       </c>
       <c r="G24" s="3">
-        <v>71300</v>
+        <v>78800</v>
       </c>
       <c r="H24" s="3">
-        <v>22400</v>
+        <v>24700</v>
       </c>
       <c r="I24" s="3">
-        <v>49100</v>
+        <v>54300</v>
       </c>
       <c r="J24" s="3">
-        <v>15200</v>
+        <v>16800</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>25700</v>
+        <v>28400</v>
       </c>
       <c r="E26" s="3">
-        <v>-149400</v>
+        <v>-165300</v>
       </c>
       <c r="F26" s="3">
-        <v>-262800</v>
+        <v>-290600</v>
       </c>
       <c r="G26" s="3">
-        <v>180400</v>
+        <v>199500</v>
       </c>
       <c r="H26" s="3">
-        <v>31900</v>
+        <v>35300</v>
       </c>
       <c r="I26" s="3">
-        <v>89300</v>
+        <v>98800</v>
       </c>
       <c r="J26" s="3">
-        <v>100700</v>
+        <v>111300</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3700</v>
+        <v>4100</v>
       </c>
       <c r="E27" s="3">
-        <v>-148200</v>
+        <v>-163900</v>
       </c>
       <c r="F27" s="3">
-        <v>-263000</v>
+        <v>-290900</v>
       </c>
       <c r="G27" s="3">
-        <v>205900</v>
+        <v>227700</v>
       </c>
       <c r="H27" s="3">
-        <v>42500</v>
+        <v>47000</v>
       </c>
       <c r="I27" s="3">
-        <v>92000</v>
+        <v>101700</v>
       </c>
       <c r="J27" s="3">
-        <v>100300</v>
+        <v>111000</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>449400</v>
+        <v>497000</v>
       </c>
       <c r="E32" s="3">
-        <v>-133100</v>
+        <v>-147200</v>
       </c>
       <c r="F32" s="3">
-        <v>144800</v>
+        <v>160100</v>
       </c>
       <c r="G32" s="3">
-        <v>63200</v>
+        <v>69900</v>
       </c>
       <c r="H32" s="3">
-        <v>35900</v>
+        <v>39700</v>
       </c>
       <c r="I32" s="3">
-        <v>42200</v>
+        <v>46700</v>
       </c>
       <c r="J32" s="3">
-        <v>-2400</v>
+        <v>-2600</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3700</v>
+        <v>4100</v>
       </c>
       <c r="E33" s="3">
-        <v>-148200</v>
+        <v>-163900</v>
       </c>
       <c r="F33" s="3">
-        <v>-263000</v>
+        <v>-290900</v>
       </c>
       <c r="G33" s="3">
-        <v>205900</v>
+        <v>227700</v>
       </c>
       <c r="H33" s="3">
-        <v>42500</v>
+        <v>47000</v>
       </c>
       <c r="I33" s="3">
-        <v>92000</v>
+        <v>101700</v>
       </c>
       <c r="J33" s="3">
-        <v>100300</v>
+        <v>111000</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3700</v>
+        <v>4100</v>
       </c>
       <c r="E35" s="3">
-        <v>-148200</v>
+        <v>-163900</v>
       </c>
       <c r="F35" s="3">
-        <v>-263000</v>
+        <v>-290900</v>
       </c>
       <c r="G35" s="3">
-        <v>205900</v>
+        <v>227700</v>
       </c>
       <c r="H35" s="3">
-        <v>42500</v>
+        <v>47000</v>
       </c>
       <c r="I35" s="3">
-        <v>92000</v>
+        <v>101700</v>
       </c>
       <c r="J35" s="3">
-        <v>100300</v>
+        <v>111000</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>333100</v>
+        <v>368400</v>
       </c>
       <c r="E41" s="3">
-        <v>150700</v>
+        <v>166700</v>
       </c>
       <c r="F41" s="3">
-        <v>121900</v>
+        <v>134800</v>
       </c>
       <c r="G41" s="3">
-        <v>52800</v>
+        <v>58400</v>
       </c>
       <c r="H41" s="3">
-        <v>42500</v>
+        <v>47000</v>
       </c>
       <c r="I41" s="3">
-        <v>33400</v>
+        <v>36900</v>
       </c>
       <c r="J41" s="3">
-        <v>72700</v>
+        <v>80400</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>272600</v>
+        <v>301500</v>
       </c>
       <c r="E43" s="3">
-        <v>418200</v>
+        <v>462500</v>
       </c>
       <c r="F43" s="3">
-        <v>365800</v>
+        <v>404500</v>
       </c>
       <c r="G43" s="3">
-        <v>341500</v>
+        <v>377700</v>
       </c>
       <c r="H43" s="3">
-        <v>89100</v>
+        <v>98600</v>
       </c>
       <c r="I43" s="3">
-        <v>54800</v>
+        <v>60600</v>
       </c>
       <c r="J43" s="3">
-        <v>56400</v>
+        <v>62400</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>919000</v>
+        <v>1016400</v>
       </c>
       <c r="E44" s="3">
-        <v>313900</v>
+        <v>347100</v>
       </c>
       <c r="F44" s="3">
-        <v>209100</v>
+        <v>231200</v>
       </c>
       <c r="G44" s="3">
-        <v>40100</v>
+        <v>44400</v>
       </c>
       <c r="H44" s="3">
-        <v>24100</v>
+        <v>26600</v>
       </c>
       <c r="I44" s="3">
-        <v>19400</v>
+        <v>21500</v>
       </c>
       <c r="J44" s="3">
-        <v>12200</v>
+        <v>13500</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26300</v>
+        <v>29000</v>
       </c>
       <c r="E45" s="3">
-        <v>18000</v>
+        <v>19900</v>
       </c>
       <c r="F45" s="3">
-        <v>14900</v>
+        <v>16500</v>
       </c>
       <c r="G45" s="3">
-        <v>22200</v>
+        <v>24600</v>
       </c>
       <c r="H45" s="3">
-        <v>7300</v>
+        <v>8100</v>
       </c>
       <c r="I45" s="3">
-        <v>7500</v>
+        <v>8300</v>
       </c>
       <c r="J45" s="3">
-        <v>34300</v>
+        <v>37900</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1551000</v>
+        <v>1715300</v>
       </c>
       <c r="E46" s="3">
-        <v>900800</v>
+        <v>996200</v>
       </c>
       <c r="F46" s="3">
-        <v>711600</v>
+        <v>787000</v>
       </c>
       <c r="G46" s="3">
-        <v>456600</v>
+        <v>505000</v>
       </c>
       <c r="H46" s="3">
-        <v>163100</v>
+        <v>180300</v>
       </c>
       <c r="I46" s="3">
-        <v>115000</v>
+        <v>127200</v>
       </c>
       <c r="J46" s="3">
-        <v>160400</v>
+        <v>177300</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>279900</v>
+        <v>309600</v>
       </c>
       <c r="E47" s="3">
-        <v>240000</v>
+        <v>265400</v>
       </c>
       <c r="F47" s="3">
-        <v>149900</v>
+        <v>165700</v>
       </c>
       <c r="G47" s="3">
-        <v>149000</v>
+        <v>164700</v>
       </c>
       <c r="H47" s="3">
-        <v>10000</v>
+        <v>11100</v>
       </c>
       <c r="I47" s="3">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="J47" s="3">
-        <v>16400</v>
+        <v>18100</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3428800</v>
+        <v>3792100</v>
       </c>
       <c r="E48" s="3">
-        <v>3234200</v>
+        <v>3576800</v>
       </c>
       <c r="F48" s="3">
-        <v>3049600</v>
+        <v>3372700</v>
       </c>
       <c r="G48" s="3">
-        <v>1614800</v>
+        <v>1785900</v>
       </c>
       <c r="H48" s="3">
-        <v>1312000</v>
+        <v>1451000</v>
       </c>
       <c r="I48" s="3">
-        <v>1345900</v>
+        <v>1488500</v>
       </c>
       <c r="J48" s="3">
-        <v>985000</v>
+        <v>1089400</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,22 +1696,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>406400</v>
+        <v>449400</v>
       </c>
       <c r="E49" s="3">
-        <v>408400</v>
+        <v>451700</v>
       </c>
       <c r="F49" s="3">
-        <v>379200</v>
+        <v>419300</v>
       </c>
       <c r="G49" s="3">
-        <v>55500</v>
+        <v>61400</v>
       </c>
       <c r="H49" s="3">
-        <v>43700</v>
+        <v>48300</v>
       </c>
       <c r="I49" s="3">
-        <v>43700</v>
+        <v>48300</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>325400</v>
+        <v>359900</v>
       </c>
       <c r="E52" s="3">
-        <v>250800</v>
+        <v>277400</v>
       </c>
       <c r="F52" s="3">
-        <v>219300</v>
+        <v>242500</v>
       </c>
       <c r="G52" s="3">
-        <v>197300</v>
+        <v>218200</v>
       </c>
       <c r="H52" s="3">
-        <v>146800</v>
+        <v>162400</v>
       </c>
       <c r="I52" s="3">
-        <v>146400</v>
+        <v>161900</v>
       </c>
       <c r="J52" s="3">
-        <v>110400</v>
+        <v>122100</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5991500</v>
+        <v>6626300</v>
       </c>
       <c r="E54" s="3">
-        <v>5034200</v>
+        <v>5567600</v>
       </c>
       <c r="F54" s="3">
-        <v>4509500</v>
+        <v>4987300</v>
       </c>
       <c r="G54" s="3">
-        <v>2473200</v>
+        <v>2735200</v>
       </c>
       <c r="H54" s="3">
-        <v>1675600</v>
+        <v>1853100</v>
       </c>
       <c r="I54" s="3">
-        <v>1655200</v>
+        <v>1830600</v>
       </c>
       <c r="J54" s="3">
-        <v>1185300</v>
+        <v>1310900</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>379600</v>
+        <v>419800</v>
       </c>
       <c r="E57" s="3">
-        <v>305500</v>
+        <v>337800</v>
       </c>
       <c r="F57" s="3">
-        <v>243600</v>
+        <v>269400</v>
       </c>
       <c r="G57" s="3">
-        <v>183300</v>
+        <v>202800</v>
       </c>
       <c r="H57" s="3">
-        <v>81900</v>
+        <v>90600</v>
       </c>
       <c r="I57" s="3">
-        <v>86900</v>
+        <v>96100</v>
       </c>
       <c r="J57" s="3">
-        <v>86600</v>
+        <v>95800</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8800</v>
+        <v>9700</v>
       </c>
       <c r="E58" s="3">
-        <v>366800</v>
+        <v>405700</v>
       </c>
       <c r="F58" s="3">
-        <v>98300</v>
+        <v>108700</v>
       </c>
       <c r="G58" s="3">
-        <v>44600</v>
+        <v>49300</v>
       </c>
       <c r="H58" s="3">
-        <v>118300</v>
+        <v>130800</v>
       </c>
       <c r="I58" s="3">
-        <v>32900</v>
+        <v>36300</v>
       </c>
       <c r="J58" s="3">
-        <v>29600</v>
+        <v>32700</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>460900</v>
+        <v>509700</v>
       </c>
       <c r="E59" s="3">
-        <v>195100</v>
+        <v>215800</v>
       </c>
       <c r="F59" s="3">
-        <v>158400</v>
+        <v>175200</v>
       </c>
       <c r="G59" s="3">
-        <v>143000</v>
+        <v>158100</v>
       </c>
       <c r="H59" s="3">
-        <v>116800</v>
+        <v>129200</v>
       </c>
       <c r="I59" s="3">
-        <v>91900</v>
+        <v>101600</v>
       </c>
       <c r="J59" s="3">
-        <v>108600</v>
+        <v>120100</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>849300</v>
+        <v>939300</v>
       </c>
       <c r="E60" s="3">
-        <v>867400</v>
+        <v>959300</v>
       </c>
       <c r="F60" s="3">
-        <v>500200</v>
+        <v>553200</v>
       </c>
       <c r="G60" s="3">
-        <v>370900</v>
+        <v>410200</v>
       </c>
       <c r="H60" s="3">
-        <v>317000</v>
+        <v>350600</v>
       </c>
       <c r="I60" s="3">
-        <v>211700</v>
+        <v>234100</v>
       </c>
       <c r="J60" s="3">
-        <v>212900</v>
+        <v>235500</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1421000</v>
+        <v>1571500</v>
       </c>
       <c r="E61" s="3">
-        <v>1085800</v>
+        <v>1200800</v>
       </c>
       <c r="F61" s="3">
-        <v>1422200</v>
+        <v>1572900</v>
       </c>
       <c r="G61" s="3">
-        <v>487400</v>
+        <v>539000</v>
       </c>
       <c r="H61" s="3">
-        <v>107200</v>
+        <v>118600</v>
       </c>
       <c r="I61" s="3">
-        <v>155100</v>
+        <v>171500</v>
       </c>
       <c r="J61" s="3">
-        <v>88400</v>
+        <v>97800</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1875400</v>
+        <v>2074100</v>
       </c>
       <c r="E62" s="3">
-        <v>1615400</v>
+        <v>1786500</v>
       </c>
       <c r="F62" s="3">
-        <v>1164500</v>
+        <v>1287800</v>
       </c>
       <c r="G62" s="3">
-        <v>638700</v>
+        <v>706300</v>
       </c>
       <c r="H62" s="3">
-        <v>363100</v>
+        <v>401600</v>
       </c>
       <c r="I62" s="3">
-        <v>400100</v>
+        <v>442500</v>
       </c>
       <c r="J62" s="3">
-        <v>325800</v>
+        <v>360300</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4232700</v>
+        <v>4681100</v>
       </c>
       <c r="E66" s="3">
-        <v>3624100</v>
+        <v>4008000</v>
       </c>
       <c r="F66" s="3">
-        <v>3088100</v>
+        <v>3415200</v>
       </c>
       <c r="G66" s="3">
-        <v>1498000</v>
+        <v>1656700</v>
       </c>
       <c r="H66" s="3">
-        <v>793800</v>
+        <v>877900</v>
       </c>
       <c r="I66" s="3">
-        <v>786400</v>
+        <v>869700</v>
       </c>
       <c r="J66" s="3">
-        <v>626800</v>
+        <v>693200</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-683700</v>
+        <v>-756200</v>
       </c>
       <c r="E72" s="3">
-        <v>-704600</v>
+        <v>-779300</v>
       </c>
       <c r="F72" s="3">
-        <v>-588700</v>
+        <v>-651000</v>
       </c>
       <c r="G72" s="3">
-        <v>-305400</v>
+        <v>-337800</v>
       </c>
       <c r="H72" s="3">
-        <v>-406600</v>
+        <v>-449700</v>
       </c>
       <c r="I72" s="3">
-        <v>-419600</v>
+        <v>-464100</v>
       </c>
       <c r="J72" s="3">
-        <v>-463800</v>
+        <v>-513000</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1758900</v>
+        <v>1945200</v>
       </c>
       <c r="E76" s="3">
-        <v>1410200</v>
+        <v>1559600</v>
       </c>
       <c r="F76" s="3">
-        <v>1421400</v>
+        <v>1572000</v>
       </c>
       <c r="G76" s="3">
+        <v>1078600</v>
+      </c>
+      <c r="H76" s="3">
         <v>975200</v>
       </c>
-      <c r="H76" s="3">
-        <v>881800</v>
-      </c>
       <c r="I76" s="3">
-        <v>868800</v>
+        <v>960900</v>
       </c>
       <c r="J76" s="3">
-        <v>558500</v>
+        <v>617700</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3700</v>
+        <v>4100</v>
       </c>
       <c r="E81" s="3">
-        <v>-148200</v>
+        <v>-163900</v>
       </c>
       <c r="F81" s="3">
-        <v>-263000</v>
+        <v>-290900</v>
       </c>
       <c r="G81" s="3">
-        <v>205900</v>
+        <v>227700</v>
       </c>
       <c r="H81" s="3">
-        <v>42500</v>
+        <v>47000</v>
       </c>
       <c r="I81" s="3">
-        <v>92000</v>
+        <v>101700</v>
       </c>
       <c r="J81" s="3">
-        <v>100300</v>
+        <v>111000</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,19 +2509,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>427700</v>
+        <v>473000</v>
       </c>
       <c r="E83" s="3">
-        <v>392100</v>
+        <v>433600</v>
       </c>
       <c r="F83" s="3">
-        <v>337900</v>
+        <v>373700</v>
       </c>
       <c r="G83" s="3">
-        <v>239600</v>
+        <v>265000</v>
       </c>
       <c r="H83" s="3">
-        <v>215600</v>
+        <v>238400</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>561000</v>
+        <v>620500</v>
       </c>
       <c r="E89" s="3">
-        <v>723100</v>
+        <v>799600</v>
       </c>
       <c r="F89" s="3">
-        <v>162500</v>
+        <v>179700</v>
       </c>
       <c r="G89" s="3">
-        <v>261200</v>
+        <v>288800</v>
       </c>
       <c r="H89" s="3">
-        <v>208400</v>
+        <v>230500</v>
       </c>
       <c r="I89" s="3">
-        <v>240200</v>
+        <v>265700</v>
       </c>
       <c r="J89" s="3">
-        <v>377000</v>
+        <v>417000</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-456800</v>
+        <v>-505200</v>
       </c>
       <c r="E91" s="3">
-        <v>-419700</v>
+        <v>-464200</v>
       </c>
       <c r="F91" s="3">
-        <v>-361500</v>
+        <v>-399800</v>
       </c>
       <c r="G91" s="3">
-        <v>-246100</v>
+        <v>-272100</v>
       </c>
       <c r="H91" s="3">
-        <v>-198300</v>
+        <v>-219300</v>
       </c>
       <c r="I91" s="3">
-        <v>-192700</v>
+        <v>-213100</v>
       </c>
       <c r="J91" s="3">
-        <v>-172000</v>
+        <v>-190200</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-288400</v>
+        <v>-318900</v>
       </c>
       <c r="E94" s="3">
-        <v>-459000</v>
+        <v>-507700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1668400</v>
+        <v>-1845100</v>
       </c>
       <c r="G94" s="3">
-        <v>-559800</v>
+        <v>-619100</v>
       </c>
       <c r="H94" s="3">
-        <v>-198000</v>
+        <v>-219000</v>
       </c>
       <c r="I94" s="3">
-        <v>-255400</v>
+        <v>-282500</v>
       </c>
       <c r="J94" s="3">
-        <v>-182100</v>
+        <v>-201400</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-87100</v>
+        <v>-96400</v>
       </c>
       <c r="E100" s="3">
-        <v>-243100</v>
+        <v>-268900</v>
       </c>
       <c r="F100" s="3">
-        <v>1589100</v>
+        <v>1757400</v>
       </c>
       <c r="G100" s="3">
-        <v>322800</v>
+        <v>357000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="I100" s="3">
-        <v>-39900</v>
+        <v>-44100</v>
       </c>
       <c r="J100" s="3">
-        <v>-123800</v>
+        <v>-136900</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,16 +2967,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3500</v>
+        <v>-3900</v>
       </c>
       <c r="E101" s="3">
-        <v>8000</v>
+        <v>8800</v>
       </c>
       <c r="F101" s="3">
-        <v>-18300</v>
+        <v>-20200</v>
       </c>
       <c r="G101" s="3">
-        <v>-9300</v>
+        <v>-10300</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
@@ -2985,7 +2985,7 @@
         <v>8</v>
       </c>
       <c r="J101" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>182000</v>
+        <v>201300</v>
       </c>
       <c r="E102" s="3">
-        <v>28900</v>
+        <v>31900</v>
       </c>
       <c r="F102" s="3">
-        <v>64900</v>
+        <v>71800</v>
       </c>
       <c r="G102" s="3">
-        <v>14800</v>
+        <v>16400</v>
       </c>
       <c r="H102" s="3">
-        <v>9200</v>
+        <v>10100</v>
       </c>
       <c r="I102" s="3">
-        <v>-55100</v>
+        <v>-60900</v>
       </c>
       <c r="J102" s="3">
-        <v>71200</v>
+        <v>78700</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>SBSW</t>
   </si>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4781000</v>
+        <v>4855400</v>
       </c>
       <c r="E8" s="3">
-        <v>3321000</v>
+        <v>3372700</v>
       </c>
       <c r="F8" s="3">
-        <v>3010000</v>
+        <v>3056800</v>
       </c>
       <c r="G8" s="3">
-        <v>2048100</v>
+        <v>2080000</v>
       </c>
       <c r="H8" s="3">
-        <v>1489400</v>
+        <v>1512500</v>
       </c>
       <c r="I8" s="3">
-        <v>1427900</v>
+        <v>1450100</v>
       </c>
       <c r="J8" s="3">
-        <v>1267400</v>
+        <v>1287100</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4179200</v>
+        <v>4244200</v>
       </c>
       <c r="E9" s="3">
-        <v>3169300</v>
+        <v>3218600</v>
       </c>
       <c r="F9" s="3">
-        <v>2791600</v>
+        <v>2835000</v>
       </c>
       <c r="G9" s="3">
-        <v>3017500</v>
+        <v>3064500</v>
       </c>
       <c r="H9" s="3">
-        <v>1338600</v>
+        <v>1359400</v>
       </c>
       <c r="I9" s="3">
-        <v>1179900</v>
+        <v>1198200</v>
       </c>
       <c r="J9" s="3">
-        <v>1118600</v>
+        <v>1136000</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>601800</v>
+        <v>611200</v>
       </c>
       <c r="E10" s="3">
-        <v>151800</v>
+        <v>154100</v>
       </c>
       <c r="F10" s="3">
-        <v>218400</v>
+        <v>221800</v>
       </c>
       <c r="G10" s="3">
-        <v>-969400</v>
+        <v>-984500</v>
       </c>
       <c r="H10" s="3">
-        <v>150800</v>
+        <v>153100</v>
       </c>
       <c r="I10" s="3">
-        <v>248100</v>
+        <v>251900</v>
       </c>
       <c r="J10" s="3">
-        <v>148700</v>
+        <v>151100</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -817,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I12" s="3">
         <v>1000</v>
@@ -859,25 +859,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>44800</v>
+        <v>45500</v>
       </c>
       <c r="E14" s="3">
-        <v>235100</v>
+        <v>238800</v>
       </c>
       <c r="F14" s="3">
-        <v>373200</v>
+        <v>379000</v>
       </c>
       <c r="G14" s="3">
-        <v>-29700</v>
+        <v>-30100</v>
       </c>
       <c r="H14" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="I14" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="J14" s="3">
-        <v>85000</v>
+        <v>86300</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4247800</v>
+        <v>4313900</v>
       </c>
       <c r="E17" s="3">
-        <v>3424000</v>
+        <v>3477300</v>
       </c>
       <c r="F17" s="3">
-        <v>3180000</v>
+        <v>3229500</v>
       </c>
       <c r="G17" s="3">
-        <v>1662700</v>
+        <v>1688500</v>
       </c>
       <c r="H17" s="3">
-        <v>1366700</v>
+        <v>1387900</v>
       </c>
       <c r="I17" s="3">
-        <v>1213000</v>
+        <v>1231900</v>
       </c>
       <c r="J17" s="3">
-        <v>1120900</v>
+        <v>1138400</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>533200</v>
+        <v>541500</v>
       </c>
       <c r="E18" s="3">
-        <v>-103000</v>
+        <v>-104600</v>
       </c>
       <c r="F18" s="3">
-        <v>-170100</v>
+        <v>-172700</v>
       </c>
       <c r="G18" s="3">
-        <v>385500</v>
+        <v>391500</v>
       </c>
       <c r="H18" s="3">
-        <v>122700</v>
+        <v>124600</v>
       </c>
       <c r="I18" s="3">
-        <v>214900</v>
+        <v>218200</v>
       </c>
       <c r="J18" s="3">
-        <v>146400</v>
+        <v>148700</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-497000</v>
+        <v>-504700</v>
       </c>
       <c r="E20" s="3">
-        <v>147200</v>
+        <v>149500</v>
       </c>
       <c r="F20" s="3">
-        <v>-160100</v>
+        <v>-162600</v>
       </c>
       <c r="G20" s="3">
-        <v>-69900</v>
+        <v>-71000</v>
       </c>
       <c r="H20" s="3">
-        <v>-39700</v>
+        <v>-40300</v>
       </c>
       <c r="I20" s="3">
-        <v>-46700</v>
+        <v>-47400</v>
       </c>
       <c r="J20" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,19 +1017,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>511600</v>
+        <v>518700</v>
       </c>
       <c r="E21" s="3">
-        <v>480000</v>
+        <v>486700</v>
       </c>
       <c r="F21" s="3">
         <v>45400</v>
       </c>
       <c r="G21" s="3">
-        <v>581900</v>
+        <v>590500</v>
       </c>
       <c r="H21" s="3">
-        <v>322600</v>
+        <v>327200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1044,25 +1044,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>121500</v>
+        <v>123400</v>
       </c>
       <c r="E22" s="3">
-        <v>138400</v>
+        <v>140500</v>
       </c>
       <c r="F22" s="3">
-        <v>153700</v>
+        <v>156000</v>
       </c>
       <c r="G22" s="3">
-        <v>37300</v>
+        <v>37900</v>
       </c>
       <c r="H22" s="3">
-        <v>23000</v>
+        <v>23300</v>
       </c>
       <c r="I22" s="3">
-        <v>15100</v>
+        <v>15400</v>
       </c>
       <c r="J22" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-85200</v>
+        <v>-86600</v>
       </c>
       <c r="E23" s="3">
-        <v>-94200</v>
+        <v>-95700</v>
       </c>
       <c r="F23" s="3">
-        <v>-483800</v>
+        <v>-491300</v>
       </c>
       <c r="G23" s="3">
-        <v>278300</v>
+        <v>282600</v>
       </c>
       <c r="H23" s="3">
-        <v>60000</v>
+        <v>60900</v>
       </c>
       <c r="I23" s="3">
-        <v>153100</v>
+        <v>155500</v>
       </c>
       <c r="J23" s="3">
-        <v>128100</v>
+        <v>130100</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-113600</v>
+        <v>-115400</v>
       </c>
       <c r="E24" s="3">
-        <v>71100</v>
+        <v>72200</v>
       </c>
       <c r="F24" s="3">
-        <v>-193200</v>
+        <v>-196200</v>
       </c>
       <c r="G24" s="3">
-        <v>78800</v>
+        <v>80000</v>
       </c>
       <c r="H24" s="3">
-        <v>24700</v>
+        <v>25100</v>
       </c>
       <c r="I24" s="3">
-        <v>54300</v>
+        <v>55100</v>
       </c>
       <c r="J24" s="3">
-        <v>16800</v>
+        <v>17100</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28400</v>
+        <v>28800</v>
       </c>
       <c r="E26" s="3">
-        <v>-165300</v>
+        <v>-167800</v>
       </c>
       <c r="F26" s="3">
-        <v>-290600</v>
+        <v>-295200</v>
       </c>
       <c r="G26" s="3">
-        <v>199500</v>
+        <v>202600</v>
       </c>
       <c r="H26" s="3">
-        <v>35300</v>
+        <v>35800</v>
       </c>
       <c r="I26" s="3">
-        <v>98800</v>
+        <v>100300</v>
       </c>
       <c r="J26" s="3">
-        <v>111300</v>
+        <v>113100</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1182,22 +1182,22 @@
         <v>4100</v>
       </c>
       <c r="E27" s="3">
-        <v>-163900</v>
+        <v>-166400</v>
       </c>
       <c r="F27" s="3">
-        <v>-290900</v>
+        <v>-295400</v>
       </c>
       <c r="G27" s="3">
-        <v>227700</v>
+        <v>231300</v>
       </c>
       <c r="H27" s="3">
-        <v>47000</v>
+        <v>47700</v>
       </c>
       <c r="I27" s="3">
-        <v>101700</v>
+        <v>103300</v>
       </c>
       <c r="J27" s="3">
-        <v>111000</v>
+        <v>112700</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>497000</v>
+        <v>504700</v>
       </c>
       <c r="E32" s="3">
-        <v>-147200</v>
+        <v>-149500</v>
       </c>
       <c r="F32" s="3">
-        <v>160100</v>
+        <v>162600</v>
       </c>
       <c r="G32" s="3">
-        <v>69900</v>
+        <v>71000</v>
       </c>
       <c r="H32" s="3">
-        <v>39700</v>
+        <v>40300</v>
       </c>
       <c r="I32" s="3">
-        <v>46700</v>
+        <v>47400</v>
       </c>
       <c r="J32" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1344,22 +1344,22 @@
         <v>4100</v>
       </c>
       <c r="E33" s="3">
-        <v>-163900</v>
+        <v>-166400</v>
       </c>
       <c r="F33" s="3">
-        <v>-290900</v>
+        <v>-295400</v>
       </c>
       <c r="G33" s="3">
-        <v>227700</v>
+        <v>231300</v>
       </c>
       <c r="H33" s="3">
-        <v>47000</v>
+        <v>47700</v>
       </c>
       <c r="I33" s="3">
-        <v>101700</v>
+        <v>103300</v>
       </c>
       <c r="J33" s="3">
-        <v>111000</v>
+        <v>112700</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1398,22 +1398,22 @@
         <v>4100</v>
       </c>
       <c r="E35" s="3">
-        <v>-163900</v>
+        <v>-166400</v>
       </c>
       <c r="F35" s="3">
-        <v>-290900</v>
+        <v>-295400</v>
       </c>
       <c r="G35" s="3">
-        <v>227700</v>
+        <v>231300</v>
       </c>
       <c r="H35" s="3">
-        <v>47000</v>
+        <v>47700</v>
       </c>
       <c r="I35" s="3">
-        <v>101700</v>
+        <v>103300</v>
       </c>
       <c r="J35" s="3">
-        <v>111000</v>
+        <v>112700</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>368400</v>
+        <v>374100</v>
       </c>
       <c r="E41" s="3">
-        <v>166700</v>
+        <v>169300</v>
       </c>
       <c r="F41" s="3">
-        <v>134800</v>
+        <v>136900</v>
       </c>
       <c r="G41" s="3">
-        <v>58400</v>
+        <v>59300</v>
       </c>
       <c r="H41" s="3">
-        <v>47000</v>
+        <v>47800</v>
       </c>
       <c r="I41" s="3">
-        <v>36900</v>
+        <v>37500</v>
       </c>
       <c r="J41" s="3">
-        <v>80400</v>
+        <v>81700</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>301500</v>
+        <v>306200</v>
       </c>
       <c r="E43" s="3">
-        <v>462500</v>
+        <v>469700</v>
       </c>
       <c r="F43" s="3">
-        <v>404500</v>
+        <v>410800</v>
       </c>
       <c r="G43" s="3">
-        <v>377700</v>
+        <v>383500</v>
       </c>
       <c r="H43" s="3">
-        <v>98600</v>
+        <v>100100</v>
       </c>
       <c r="I43" s="3">
-        <v>60600</v>
+        <v>61500</v>
       </c>
       <c r="J43" s="3">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1016400</v>
+        <v>1032200</v>
       </c>
       <c r="E44" s="3">
-        <v>347100</v>
+        <v>352500</v>
       </c>
       <c r="F44" s="3">
-        <v>231200</v>
+        <v>234800</v>
       </c>
       <c r="G44" s="3">
-        <v>44400</v>
+        <v>45100</v>
       </c>
       <c r="H44" s="3">
-        <v>26600</v>
+        <v>27000</v>
       </c>
       <c r="I44" s="3">
-        <v>21500</v>
+        <v>21800</v>
       </c>
       <c r="J44" s="3">
-        <v>13500</v>
+        <v>13700</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="E45" s="3">
-        <v>19900</v>
+        <v>20200</v>
       </c>
       <c r="F45" s="3">
-        <v>16500</v>
+        <v>16700</v>
       </c>
       <c r="G45" s="3">
-        <v>24600</v>
+        <v>24900</v>
       </c>
       <c r="H45" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="I45" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="J45" s="3">
-        <v>37900</v>
+        <v>38500</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1715300</v>
+        <v>1742000</v>
       </c>
       <c r="E46" s="3">
-        <v>996200</v>
+        <v>1011700</v>
       </c>
       <c r="F46" s="3">
-        <v>787000</v>
+        <v>799300</v>
       </c>
       <c r="G46" s="3">
-        <v>505000</v>
+        <v>512900</v>
       </c>
       <c r="H46" s="3">
-        <v>180300</v>
+        <v>183100</v>
       </c>
       <c r="I46" s="3">
-        <v>127200</v>
+        <v>129200</v>
       </c>
       <c r="J46" s="3">
-        <v>177300</v>
+        <v>180100</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>309600</v>
+        <v>314400</v>
       </c>
       <c r="E47" s="3">
-        <v>265400</v>
+        <v>269500</v>
       </c>
       <c r="F47" s="3">
-        <v>165700</v>
+        <v>168300</v>
       </c>
       <c r="G47" s="3">
-        <v>164700</v>
+        <v>167300</v>
       </c>
       <c r="H47" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="I47" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="J47" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3792100</v>
+        <v>3851100</v>
       </c>
       <c r="E48" s="3">
-        <v>3576800</v>
+        <v>3632500</v>
       </c>
       <c r="F48" s="3">
-        <v>3372700</v>
+        <v>3425200</v>
       </c>
       <c r="G48" s="3">
-        <v>1785900</v>
+        <v>1813700</v>
       </c>
       <c r="H48" s="3">
-        <v>1451000</v>
+        <v>1473600</v>
       </c>
       <c r="I48" s="3">
-        <v>1488500</v>
+        <v>1511600</v>
       </c>
       <c r="J48" s="3">
-        <v>1089400</v>
+        <v>1106300</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,22 +1696,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>449400</v>
+        <v>456400</v>
       </c>
       <c r="E49" s="3">
-        <v>451700</v>
+        <v>458700</v>
       </c>
       <c r="F49" s="3">
-        <v>419300</v>
+        <v>425800</v>
       </c>
       <c r="G49" s="3">
-        <v>61400</v>
+        <v>62300</v>
       </c>
       <c r="H49" s="3">
-        <v>48300</v>
+        <v>49000</v>
       </c>
       <c r="I49" s="3">
-        <v>48300</v>
+        <v>49000</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>359900</v>
+        <v>365500</v>
       </c>
       <c r="E52" s="3">
-        <v>277400</v>
+        <v>281700</v>
       </c>
       <c r="F52" s="3">
-        <v>242500</v>
+        <v>246300</v>
       </c>
       <c r="G52" s="3">
-        <v>218200</v>
+        <v>221600</v>
       </c>
       <c r="H52" s="3">
-        <v>162400</v>
+        <v>164900</v>
       </c>
       <c r="I52" s="3">
-        <v>161900</v>
+        <v>164400</v>
       </c>
       <c r="J52" s="3">
-        <v>122100</v>
+        <v>124000</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6626300</v>
+        <v>6729400</v>
       </c>
       <c r="E54" s="3">
-        <v>5567600</v>
+        <v>5654200</v>
       </c>
       <c r="F54" s="3">
-        <v>4987300</v>
+        <v>5064900</v>
       </c>
       <c r="G54" s="3">
-        <v>2735200</v>
+        <v>2777800</v>
       </c>
       <c r="H54" s="3">
-        <v>1853100</v>
+        <v>1881900</v>
       </c>
       <c r="I54" s="3">
-        <v>1830600</v>
+        <v>1859000</v>
       </c>
       <c r="J54" s="3">
-        <v>1310900</v>
+        <v>1331300</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>419800</v>
+        <v>426400</v>
       </c>
       <c r="E57" s="3">
-        <v>337800</v>
+        <v>343100</v>
       </c>
       <c r="F57" s="3">
-        <v>269400</v>
+        <v>273600</v>
       </c>
       <c r="G57" s="3">
-        <v>202800</v>
+        <v>205900</v>
       </c>
       <c r="H57" s="3">
-        <v>90600</v>
+        <v>92000</v>
       </c>
       <c r="I57" s="3">
-        <v>96100</v>
+        <v>97600</v>
       </c>
       <c r="J57" s="3">
-        <v>95800</v>
+        <v>97200</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="E58" s="3">
-        <v>405700</v>
+        <v>412000</v>
       </c>
       <c r="F58" s="3">
-        <v>108700</v>
+        <v>110400</v>
       </c>
       <c r="G58" s="3">
-        <v>49300</v>
+        <v>50100</v>
       </c>
       <c r="H58" s="3">
-        <v>130800</v>
+        <v>132800</v>
       </c>
       <c r="I58" s="3">
-        <v>36300</v>
+        <v>36900</v>
       </c>
       <c r="J58" s="3">
-        <v>32700</v>
+        <v>33300</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>509700</v>
+        <v>517700</v>
       </c>
       <c r="E59" s="3">
-        <v>215800</v>
+        <v>219200</v>
       </c>
       <c r="F59" s="3">
-        <v>175200</v>
+        <v>177900</v>
       </c>
       <c r="G59" s="3">
-        <v>158100</v>
+        <v>160600</v>
       </c>
       <c r="H59" s="3">
-        <v>129200</v>
+        <v>131200</v>
       </c>
       <c r="I59" s="3">
-        <v>101600</v>
+        <v>103200</v>
       </c>
       <c r="J59" s="3">
-        <v>120100</v>
+        <v>122000</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>939300</v>
+        <v>953900</v>
       </c>
       <c r="E60" s="3">
-        <v>959300</v>
+        <v>974200</v>
       </c>
       <c r="F60" s="3">
-        <v>553200</v>
+        <v>561800</v>
       </c>
       <c r="G60" s="3">
-        <v>410200</v>
+        <v>416600</v>
       </c>
       <c r="H60" s="3">
-        <v>350600</v>
+        <v>356000</v>
       </c>
       <c r="I60" s="3">
-        <v>234100</v>
+        <v>237700</v>
       </c>
       <c r="J60" s="3">
-        <v>235500</v>
+        <v>239100</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1571500</v>
+        <v>1596000</v>
       </c>
       <c r="E61" s="3">
-        <v>1200800</v>
+        <v>1219500</v>
       </c>
       <c r="F61" s="3">
-        <v>1572900</v>
+        <v>1597400</v>
       </c>
       <c r="G61" s="3">
-        <v>539000</v>
+        <v>547400</v>
       </c>
       <c r="H61" s="3">
-        <v>118600</v>
+        <v>120400</v>
       </c>
       <c r="I61" s="3">
-        <v>171500</v>
+        <v>174200</v>
       </c>
       <c r="J61" s="3">
-        <v>97800</v>
+        <v>99300</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2074100</v>
+        <v>2106300</v>
       </c>
       <c r="E62" s="3">
-        <v>1786500</v>
+        <v>1814300</v>
       </c>
       <c r="F62" s="3">
-        <v>1287800</v>
+        <v>1307900</v>
       </c>
       <c r="G62" s="3">
-        <v>706300</v>
+        <v>717300</v>
       </c>
       <c r="H62" s="3">
-        <v>401600</v>
+        <v>407800</v>
       </c>
       <c r="I62" s="3">
-        <v>442500</v>
+        <v>449400</v>
       </c>
       <c r="J62" s="3">
-        <v>360300</v>
+        <v>365900</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4681100</v>
+        <v>4753900</v>
       </c>
       <c r="E66" s="3">
-        <v>4008000</v>
+        <v>4070300</v>
       </c>
       <c r="F66" s="3">
-        <v>3415200</v>
+        <v>3468400</v>
       </c>
       <c r="G66" s="3">
-        <v>1656700</v>
+        <v>1682500</v>
       </c>
       <c r="H66" s="3">
-        <v>877900</v>
+        <v>891600</v>
       </c>
       <c r="I66" s="3">
-        <v>869700</v>
+        <v>883200</v>
       </c>
       <c r="J66" s="3">
-        <v>693200</v>
+        <v>704000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-756200</v>
+        <v>-767900</v>
       </c>
       <c r="E72" s="3">
-        <v>-779300</v>
+        <v>-791400</v>
       </c>
       <c r="F72" s="3">
-        <v>-651000</v>
+        <v>-661100</v>
       </c>
       <c r="G72" s="3">
-        <v>-337800</v>
+        <v>-343000</v>
       </c>
       <c r="H72" s="3">
-        <v>-449700</v>
+        <v>-456700</v>
       </c>
       <c r="I72" s="3">
-        <v>-464100</v>
+        <v>-471300</v>
       </c>
       <c r="J72" s="3">
-        <v>-513000</v>
+        <v>-521000</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1945200</v>
+        <v>1975500</v>
       </c>
       <c r="E76" s="3">
-        <v>1559600</v>
+        <v>1583800</v>
       </c>
       <c r="F76" s="3">
-        <v>1572000</v>
+        <v>1596500</v>
       </c>
       <c r="G76" s="3">
-        <v>1078600</v>
+        <v>1095300</v>
       </c>
       <c r="H76" s="3">
-        <v>975200</v>
+        <v>990400</v>
       </c>
       <c r="I76" s="3">
-        <v>960900</v>
+        <v>975800</v>
       </c>
       <c r="J76" s="3">
-        <v>617700</v>
+        <v>627300</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2472,22 +2472,22 @@
         <v>4100</v>
       </c>
       <c r="E81" s="3">
-        <v>-163900</v>
+        <v>-166400</v>
       </c>
       <c r="F81" s="3">
-        <v>-290900</v>
+        <v>-295400</v>
       </c>
       <c r="G81" s="3">
-        <v>227700</v>
+        <v>231300</v>
       </c>
       <c r="H81" s="3">
-        <v>47000</v>
+        <v>47700</v>
       </c>
       <c r="I81" s="3">
-        <v>101700</v>
+        <v>103300</v>
       </c>
       <c r="J81" s="3">
-        <v>111000</v>
+        <v>112700</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,19 +2509,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>473000</v>
+        <v>480300</v>
       </c>
       <c r="E83" s="3">
-        <v>433600</v>
+        <v>440300</v>
       </c>
       <c r="F83" s="3">
-        <v>373700</v>
+        <v>379500</v>
       </c>
       <c r="G83" s="3">
-        <v>265000</v>
+        <v>269100</v>
       </c>
       <c r="H83" s="3">
-        <v>238400</v>
+        <v>242100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>620500</v>
+        <v>630100</v>
       </c>
       <c r="E89" s="3">
-        <v>799600</v>
+        <v>812100</v>
       </c>
       <c r="F89" s="3">
-        <v>179700</v>
+        <v>182500</v>
       </c>
       <c r="G89" s="3">
-        <v>288800</v>
+        <v>293300</v>
       </c>
       <c r="H89" s="3">
-        <v>230500</v>
+        <v>234000</v>
       </c>
       <c r="I89" s="3">
-        <v>265700</v>
+        <v>269800</v>
       </c>
       <c r="J89" s="3">
-        <v>417000</v>
+        <v>423500</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-505200</v>
+        <v>-513100</v>
       </c>
       <c r="E91" s="3">
-        <v>-464200</v>
+        <v>-471400</v>
       </c>
       <c r="F91" s="3">
-        <v>-399800</v>
+        <v>-406100</v>
       </c>
       <c r="G91" s="3">
-        <v>-272100</v>
+        <v>-276400</v>
       </c>
       <c r="H91" s="3">
-        <v>-219300</v>
+        <v>-222700</v>
       </c>
       <c r="I91" s="3">
-        <v>-213100</v>
+        <v>-216400</v>
       </c>
       <c r="J91" s="3">
-        <v>-190200</v>
+        <v>-193200</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-318900</v>
+        <v>-323900</v>
       </c>
       <c r="E94" s="3">
-        <v>-507700</v>
+        <v>-515600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1845100</v>
+        <v>-1873900</v>
       </c>
       <c r="G94" s="3">
-        <v>-619100</v>
+        <v>-628800</v>
       </c>
       <c r="H94" s="3">
-        <v>-219000</v>
+        <v>-222400</v>
       </c>
       <c r="I94" s="3">
-        <v>-282500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-201400</v>
+        <v>-286900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-96400</v>
+        <v>-97900</v>
       </c>
       <c r="E100" s="3">
-        <v>-268900</v>
+        <v>-273100</v>
       </c>
       <c r="F100" s="3">
-        <v>1757400</v>
+        <v>1784800</v>
       </c>
       <c r="G100" s="3">
-        <v>357000</v>
+        <v>362600</v>
       </c>
       <c r="H100" s="3">
         <v>-1400</v>
       </c>
       <c r="I100" s="3">
-        <v>-44100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-136900</v>
+        <v>-44800</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2970,13 +2970,13 @@
         <v>-3900</v>
       </c>
       <c r="E101" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="F101" s="3">
-        <v>-20200</v>
+        <v>-20500</v>
       </c>
       <c r="G101" s="3">
-        <v>-10300</v>
+        <v>-10500</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
@@ -2984,8 +2984,8 @@
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="3">
-        <v>-1400</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>201300</v>
+        <v>204400</v>
       </c>
       <c r="E102" s="3">
-        <v>31900</v>
+        <v>32400</v>
       </c>
       <c r="F102" s="3">
-        <v>71800</v>
+        <v>72900</v>
       </c>
       <c r="G102" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="H102" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="I102" s="3">
-        <v>-60900</v>
+        <v>-61900</v>
       </c>
       <c r="J102" s="3">
-        <v>78700</v>
+        <v>79900</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>SBSW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4855400</v>
+        <v>9195200</v>
       </c>
       <c r="E8" s="3">
-        <v>3372700</v>
+        <v>5263800</v>
       </c>
       <c r="F8" s="3">
-        <v>3056800</v>
+        <v>3656400</v>
       </c>
       <c r="G8" s="3">
-        <v>2080000</v>
+        <v>3313900</v>
       </c>
       <c r="H8" s="3">
-        <v>1512500</v>
+        <v>2255000</v>
       </c>
       <c r="I8" s="3">
-        <v>1450100</v>
+        <v>1639700</v>
       </c>
       <c r="J8" s="3">
+        <v>1572100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1287100</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4244200</v>
+        <v>6145000</v>
       </c>
       <c r="E9" s="3">
-        <v>3218600</v>
+        <v>4601200</v>
       </c>
       <c r="F9" s="3">
-        <v>2835000</v>
+        <v>3489300</v>
       </c>
       <c r="G9" s="3">
-        <v>3064500</v>
+        <v>3073500</v>
       </c>
       <c r="H9" s="3">
-        <v>1359400</v>
+        <v>3322200</v>
       </c>
       <c r="I9" s="3">
-        <v>1198200</v>
+        <v>1473700</v>
       </c>
       <c r="J9" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1136000</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>611200</v>
+        <v>3050200</v>
       </c>
       <c r="E10" s="3">
-        <v>154100</v>
+        <v>662600</v>
       </c>
       <c r="F10" s="3">
-        <v>221800</v>
+        <v>167100</v>
       </c>
       <c r="G10" s="3">
-        <v>-984500</v>
+        <v>240400</v>
       </c>
       <c r="H10" s="3">
-        <v>153100</v>
+        <v>-1067300</v>
       </c>
       <c r="I10" s="3">
-        <v>251900</v>
+        <v>166000</v>
       </c>
       <c r="J10" s="3">
+        <v>273100</v>
+      </c>
+      <c r="K10" s="3">
         <v>151100</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -816,18 +829,21 @@
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3">
-        <v>1600</v>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J12" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,36 +868,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>45500</v>
+        <v>148500</v>
       </c>
       <c r="E14" s="3">
-        <v>238800</v>
+        <v>49300</v>
       </c>
       <c r="F14" s="3">
-        <v>379000</v>
+        <v>258900</v>
       </c>
       <c r="G14" s="3">
-        <v>-30100</v>
+        <v>410900</v>
       </c>
       <c r="H14" s="3">
-        <v>8700</v>
+        <v>-32700</v>
       </c>
       <c r="I14" s="3">
-        <v>4900</v>
+        <v>9400</v>
       </c>
       <c r="J14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K14" s="3">
         <v>86300</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4313900</v>
+        <v>6330400</v>
       </c>
       <c r="E17" s="3">
-        <v>3477300</v>
+        <v>4676700</v>
       </c>
       <c r="F17" s="3">
-        <v>3229500</v>
+        <v>3769800</v>
       </c>
       <c r="G17" s="3">
-        <v>1688500</v>
+        <v>3501100</v>
       </c>
       <c r="H17" s="3">
-        <v>1387900</v>
+        <v>1830600</v>
       </c>
       <c r="I17" s="3">
-        <v>1231900</v>
+        <v>1504700</v>
       </c>
       <c r="J17" s="3">
+        <v>1335500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1138400</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>541500</v>
+        <v>2864800</v>
       </c>
       <c r="E18" s="3">
-        <v>-104600</v>
+        <v>587100</v>
       </c>
       <c r="F18" s="3">
-        <v>-172700</v>
+        <v>-113400</v>
       </c>
       <c r="G18" s="3">
-        <v>391500</v>
+        <v>-187200</v>
       </c>
       <c r="H18" s="3">
-        <v>124600</v>
+        <v>424400</v>
       </c>
       <c r="I18" s="3">
-        <v>218200</v>
+        <v>135100</v>
       </c>
       <c r="J18" s="3">
+        <v>236600</v>
+      </c>
+      <c r="K18" s="3">
         <v>148700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-504700</v>
+        <v>-179900</v>
       </c>
       <c r="E20" s="3">
-        <v>149500</v>
+        <v>-547200</v>
       </c>
       <c r="F20" s="3">
-        <v>-162600</v>
+        <v>162100</v>
       </c>
       <c r="G20" s="3">
-        <v>-71000</v>
+        <v>-176300</v>
       </c>
       <c r="H20" s="3">
-        <v>-40300</v>
+        <v>-76900</v>
       </c>
       <c r="I20" s="3">
-        <v>-47400</v>
+        <v>-43700</v>
       </c>
       <c r="J20" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>518700</v>
+        <v>3230500</v>
       </c>
       <c r="E21" s="3">
-        <v>486700</v>
+        <v>558300</v>
       </c>
       <c r="F21" s="3">
-        <v>45400</v>
+        <v>523900</v>
       </c>
       <c r="G21" s="3">
-        <v>590500</v>
+        <v>46100</v>
       </c>
       <c r="H21" s="3">
-        <v>327200</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+        <v>637900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>352700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>123400</v>
+        <v>123900</v>
       </c>
       <c r="E22" s="3">
-        <v>140500</v>
+        <v>133800</v>
       </c>
       <c r="F22" s="3">
-        <v>156000</v>
+        <v>152400</v>
       </c>
       <c r="G22" s="3">
-        <v>37900</v>
+        <v>169200</v>
       </c>
       <c r="H22" s="3">
-        <v>23300</v>
+        <v>41100</v>
       </c>
       <c r="I22" s="3">
-        <v>15400</v>
+        <v>25300</v>
       </c>
       <c r="J22" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K22" s="3">
         <v>21300</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-86600</v>
+        <v>2560900</v>
       </c>
       <c r="E23" s="3">
-        <v>-95700</v>
+        <v>-93800</v>
       </c>
       <c r="F23" s="3">
-        <v>-491300</v>
+        <v>-103700</v>
       </c>
       <c r="G23" s="3">
-        <v>282600</v>
+        <v>-532700</v>
       </c>
       <c r="H23" s="3">
-        <v>60900</v>
+        <v>306400</v>
       </c>
       <c r="I23" s="3">
-        <v>155500</v>
+        <v>66100</v>
       </c>
       <c r="J23" s="3">
+        <v>168500</v>
+      </c>
+      <c r="K23" s="3">
         <v>130100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-115400</v>
+        <v>350700</v>
       </c>
       <c r="E24" s="3">
-        <v>72200</v>
+        <v>-125100</v>
       </c>
       <c r="F24" s="3">
-        <v>-196200</v>
+        <v>78200</v>
       </c>
       <c r="G24" s="3">
-        <v>80000</v>
+        <v>-212700</v>
       </c>
       <c r="H24" s="3">
-        <v>25100</v>
+        <v>86800</v>
       </c>
       <c r="I24" s="3">
-        <v>55100</v>
+        <v>27200</v>
       </c>
       <c r="J24" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K24" s="3">
         <v>17100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28800</v>
+        <v>2210300</v>
       </c>
       <c r="E26" s="3">
-        <v>-167800</v>
+        <v>31200</v>
       </c>
       <c r="F26" s="3">
-        <v>-295200</v>
+        <v>-181900</v>
       </c>
       <c r="G26" s="3">
-        <v>202600</v>
+        <v>-320000</v>
       </c>
       <c r="H26" s="3">
-        <v>35800</v>
+        <v>219600</v>
       </c>
       <c r="I26" s="3">
-        <v>100300</v>
+        <v>38800</v>
       </c>
       <c r="J26" s="3">
+        <v>108800</v>
+      </c>
+      <c r="K26" s="3">
         <v>113100</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4100</v>
+        <v>2115700</v>
       </c>
       <c r="E27" s="3">
-        <v>-166400</v>
+        <v>4500</v>
       </c>
       <c r="F27" s="3">
-        <v>-295400</v>
+        <v>-180400</v>
       </c>
       <c r="G27" s="3">
-        <v>231300</v>
+        <v>-320300</v>
       </c>
       <c r="H27" s="3">
-        <v>47700</v>
+        <v>250700</v>
       </c>
       <c r="I27" s="3">
-        <v>103300</v>
+        <v>51700</v>
       </c>
       <c r="J27" s="3">
+        <v>112000</v>
+      </c>
+      <c r="K27" s="3">
         <v>112700</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>504700</v>
+        <v>179900</v>
       </c>
       <c r="E32" s="3">
-        <v>-149500</v>
+        <v>547200</v>
       </c>
       <c r="F32" s="3">
-        <v>162600</v>
+        <v>-162100</v>
       </c>
       <c r="G32" s="3">
-        <v>71000</v>
+        <v>176300</v>
       </c>
       <c r="H32" s="3">
-        <v>40300</v>
+        <v>76900</v>
       </c>
       <c r="I32" s="3">
-        <v>47400</v>
+        <v>43700</v>
       </c>
       <c r="J32" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4100</v>
+        <v>2115700</v>
       </c>
       <c r="E33" s="3">
-        <v>-166400</v>
+        <v>4500</v>
       </c>
       <c r="F33" s="3">
-        <v>-295400</v>
+        <v>-180400</v>
       </c>
       <c r="G33" s="3">
-        <v>231300</v>
+        <v>-320300</v>
       </c>
       <c r="H33" s="3">
-        <v>47700</v>
+        <v>250700</v>
       </c>
       <c r="I33" s="3">
-        <v>103300</v>
+        <v>51700</v>
       </c>
       <c r="J33" s="3">
+        <v>112000</v>
+      </c>
+      <c r="K33" s="3">
         <v>112700</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4100</v>
+        <v>2115700</v>
       </c>
       <c r="E35" s="3">
-        <v>-166400</v>
+        <v>4500</v>
       </c>
       <c r="F35" s="3">
-        <v>-295400</v>
+        <v>-180400</v>
       </c>
       <c r="G35" s="3">
-        <v>231300</v>
+        <v>-320300</v>
       </c>
       <c r="H35" s="3">
-        <v>47700</v>
+        <v>250700</v>
       </c>
       <c r="I35" s="3">
-        <v>103300</v>
+        <v>51700</v>
       </c>
       <c r="J35" s="3">
+        <v>112000</v>
+      </c>
+      <c r="K35" s="3">
         <v>112700</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1559,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>374100</v>
+        <v>1460900</v>
       </c>
       <c r="E41" s="3">
-        <v>169300</v>
+        <v>405600</v>
       </c>
       <c r="F41" s="3">
-        <v>136900</v>
+        <v>183500</v>
       </c>
       <c r="G41" s="3">
-        <v>59300</v>
+        <v>148400</v>
       </c>
       <c r="H41" s="3">
-        <v>47800</v>
+        <v>64300</v>
       </c>
       <c r="I41" s="3">
-        <v>37500</v>
+        <v>51800</v>
       </c>
       <c r="J41" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K41" s="3">
         <v>81700</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,198 +1616,222 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>306200</v>
+        <v>482300</v>
       </c>
       <c r="E43" s="3">
-        <v>469700</v>
+        <v>331900</v>
       </c>
       <c r="F43" s="3">
-        <v>410800</v>
+        <v>509200</v>
       </c>
       <c r="G43" s="3">
-        <v>383500</v>
+        <v>445400</v>
       </c>
       <c r="H43" s="3">
-        <v>100100</v>
+        <v>415800</v>
       </c>
       <c r="I43" s="3">
-        <v>61500</v>
+        <v>108500</v>
       </c>
       <c r="J43" s="3">
+        <v>66700</v>
+      </c>
+      <c r="K43" s="3">
         <v>63300</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1032200</v>
+        <v>1801100</v>
       </c>
       <c r="E44" s="3">
-        <v>352500</v>
+        <v>1119000</v>
       </c>
       <c r="F44" s="3">
-        <v>234800</v>
+        <v>382200</v>
       </c>
       <c r="G44" s="3">
-        <v>45100</v>
+        <v>254500</v>
       </c>
       <c r="H44" s="3">
-        <v>27000</v>
+        <v>48900</v>
       </c>
       <c r="I44" s="3">
-        <v>21800</v>
+        <v>29300</v>
       </c>
       <c r="J44" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K44" s="3">
         <v>13700</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29500</v>
+        <v>26600</v>
       </c>
       <c r="E45" s="3">
-        <v>20200</v>
+        <v>32000</v>
       </c>
       <c r="F45" s="3">
-        <v>16700</v>
+        <v>21900</v>
       </c>
       <c r="G45" s="3">
-        <v>24900</v>
+        <v>18100</v>
       </c>
       <c r="H45" s="3">
-        <v>8200</v>
+        <v>27000</v>
       </c>
       <c r="I45" s="3">
-        <v>8400</v>
+        <v>8900</v>
       </c>
       <c r="J45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K45" s="3">
         <v>38500</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1742000</v>
+        <v>3770900</v>
       </c>
       <c r="E46" s="3">
-        <v>1011700</v>
+        <v>1888500</v>
       </c>
       <c r="F46" s="3">
-        <v>799300</v>
+        <v>1096800</v>
       </c>
       <c r="G46" s="3">
-        <v>512900</v>
+        <v>866500</v>
       </c>
       <c r="H46" s="3">
-        <v>183100</v>
+        <v>556000</v>
       </c>
       <c r="I46" s="3">
-        <v>129200</v>
+        <v>198500</v>
       </c>
       <c r="J46" s="3">
+        <v>140100</v>
+      </c>
+      <c r="K46" s="3">
         <v>180100</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>314400</v>
+        <v>465000</v>
       </c>
       <c r="E47" s="3">
-        <v>269500</v>
+        <v>340900</v>
       </c>
       <c r="F47" s="3">
-        <v>168300</v>
+        <v>292200</v>
       </c>
       <c r="G47" s="3">
-        <v>167300</v>
+        <v>182500</v>
       </c>
       <c r="H47" s="3">
-        <v>11200</v>
+        <v>181400</v>
       </c>
       <c r="I47" s="3">
-        <v>4700</v>
+        <v>12200</v>
       </c>
       <c r="J47" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K47" s="3">
         <v>18400</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3851100</v>
+        <v>4395400</v>
       </c>
       <c r="E48" s="3">
-        <v>3632500</v>
+        <v>4175000</v>
       </c>
       <c r="F48" s="3">
-        <v>3425200</v>
+        <v>3938000</v>
       </c>
       <c r="G48" s="3">
-        <v>1813700</v>
+        <v>3713300</v>
       </c>
       <c r="H48" s="3">
-        <v>1473600</v>
+        <v>1966200</v>
       </c>
       <c r="I48" s="3">
-        <v>1511600</v>
+        <v>1597500</v>
       </c>
       <c r="J48" s="3">
+        <v>1638800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1106300</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>456400</v>
+        <v>517200</v>
       </c>
       <c r="E49" s="3">
-        <v>458700</v>
+        <v>494800</v>
       </c>
       <c r="F49" s="3">
-        <v>425800</v>
+        <v>497300</v>
       </c>
       <c r="G49" s="3">
-        <v>62300</v>
+        <v>461700</v>
       </c>
       <c r="H49" s="3">
-        <v>49000</v>
+        <v>67600</v>
       </c>
       <c r="I49" s="3">
-        <v>49000</v>
+        <v>53200</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+        <v>53200</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>365500</v>
+        <v>531100</v>
       </c>
       <c r="E52" s="3">
-        <v>281700</v>
+        <v>396300</v>
       </c>
       <c r="F52" s="3">
-        <v>246300</v>
+        <v>305400</v>
       </c>
       <c r="G52" s="3">
-        <v>221600</v>
+        <v>267000</v>
       </c>
       <c r="H52" s="3">
-        <v>164900</v>
+        <v>240300</v>
       </c>
       <c r="I52" s="3">
-        <v>164400</v>
+        <v>178800</v>
       </c>
       <c r="J52" s="3">
+        <v>178300</v>
+      </c>
+      <c r="K52" s="3">
         <v>124000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6729400</v>
+        <v>9679600</v>
       </c>
       <c r="E54" s="3">
-        <v>5654200</v>
+        <v>7295400</v>
       </c>
       <c r="F54" s="3">
-        <v>5064900</v>
+        <v>6129700</v>
       </c>
       <c r="G54" s="3">
-        <v>2777800</v>
+        <v>5490900</v>
       </c>
       <c r="H54" s="3">
-        <v>1881900</v>
+        <v>3011400</v>
       </c>
       <c r="I54" s="3">
-        <v>1859000</v>
+        <v>2040200</v>
       </c>
       <c r="J54" s="3">
+        <v>2015400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1331300</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>426400</v>
+        <v>612900</v>
       </c>
       <c r="E57" s="3">
-        <v>343100</v>
+        <v>462200</v>
       </c>
       <c r="F57" s="3">
-        <v>273600</v>
+        <v>371900</v>
       </c>
       <c r="G57" s="3">
-        <v>205900</v>
+        <v>296600</v>
       </c>
       <c r="H57" s="3">
-        <v>92000</v>
+        <v>223200</v>
       </c>
       <c r="I57" s="3">
-        <v>97600</v>
+        <v>99800</v>
       </c>
       <c r="J57" s="3">
+        <v>105900</v>
+      </c>
+      <c r="K57" s="3">
         <v>97200</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9900</v>
+        <v>71400</v>
       </c>
       <c r="E58" s="3">
-        <v>412000</v>
+        <v>10700</v>
       </c>
       <c r="F58" s="3">
-        <v>110400</v>
+        <v>446700</v>
       </c>
       <c r="G58" s="3">
-        <v>50100</v>
+        <v>119600</v>
       </c>
       <c r="H58" s="3">
-        <v>132800</v>
+        <v>54300</v>
       </c>
       <c r="I58" s="3">
-        <v>36900</v>
+        <v>144000</v>
       </c>
       <c r="J58" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K58" s="3">
         <v>33300</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>517700</v>
+        <v>577900</v>
       </c>
       <c r="E59" s="3">
-        <v>219200</v>
+        <v>561200</v>
       </c>
       <c r="F59" s="3">
-        <v>177900</v>
+        <v>237600</v>
       </c>
       <c r="G59" s="3">
-        <v>160600</v>
+        <v>192800</v>
       </c>
       <c r="H59" s="3">
-        <v>131200</v>
+        <v>174100</v>
       </c>
       <c r="I59" s="3">
-        <v>103200</v>
+        <v>142200</v>
       </c>
       <c r="J59" s="3">
+        <v>111900</v>
+      </c>
+      <c r="K59" s="3">
         <v>122000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>953900</v>
+        <v>1262200</v>
       </c>
       <c r="E60" s="3">
-        <v>974200</v>
+        <v>1034100</v>
       </c>
       <c r="F60" s="3">
-        <v>561800</v>
+        <v>1056200</v>
       </c>
       <c r="G60" s="3">
-        <v>416600</v>
+        <v>609000</v>
       </c>
       <c r="H60" s="3">
-        <v>356000</v>
+        <v>451600</v>
       </c>
       <c r="I60" s="3">
-        <v>237700</v>
+        <v>386000</v>
       </c>
       <c r="J60" s="3">
+        <v>257700</v>
+      </c>
+      <c r="K60" s="3">
         <v>239100</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1596000</v>
+        <v>1279000</v>
       </c>
       <c r="E61" s="3">
-        <v>1219500</v>
+        <v>1730200</v>
       </c>
       <c r="F61" s="3">
-        <v>1597400</v>
+        <v>1322100</v>
       </c>
       <c r="G61" s="3">
-        <v>547400</v>
+        <v>1731700</v>
       </c>
       <c r="H61" s="3">
-        <v>120400</v>
+        <v>593400</v>
       </c>
       <c r="I61" s="3">
-        <v>174200</v>
+        <v>130500</v>
       </c>
       <c r="J61" s="3">
+        <v>188800</v>
+      </c>
+      <c r="K61" s="3">
         <v>99300</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2106300</v>
+        <v>2034000</v>
       </c>
       <c r="E62" s="3">
-        <v>1814300</v>
+        <v>2283500</v>
       </c>
       <c r="F62" s="3">
-        <v>1307900</v>
+        <v>1966900</v>
       </c>
       <c r="G62" s="3">
-        <v>717300</v>
+        <v>1417900</v>
       </c>
       <c r="H62" s="3">
-        <v>407800</v>
+        <v>777700</v>
       </c>
       <c r="I62" s="3">
-        <v>449400</v>
+        <v>442100</v>
       </c>
       <c r="J62" s="3">
+        <v>487200</v>
+      </c>
+      <c r="K62" s="3">
         <v>365900</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4753900</v>
+        <v>4736700</v>
       </c>
       <c r="E66" s="3">
-        <v>4070300</v>
+        <v>5153700</v>
       </c>
       <c r="F66" s="3">
-        <v>3468400</v>
+        <v>4412700</v>
       </c>
       <c r="G66" s="3">
-        <v>1682500</v>
+        <v>3760100</v>
       </c>
       <c r="H66" s="3">
-        <v>891600</v>
+        <v>1824000</v>
       </c>
       <c r="I66" s="3">
-        <v>883200</v>
+        <v>966500</v>
       </c>
       <c r="J66" s="3">
+        <v>957500</v>
+      </c>
+      <c r="K66" s="3">
         <v>704000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-767900</v>
+        <v>2873700</v>
       </c>
       <c r="E72" s="3">
-        <v>-791400</v>
+        <v>-832500</v>
       </c>
       <c r="F72" s="3">
-        <v>-661100</v>
+        <v>-858000</v>
       </c>
       <c r="G72" s="3">
-        <v>-343000</v>
+        <v>-716700</v>
       </c>
       <c r="H72" s="3">
-        <v>-456700</v>
+        <v>-371900</v>
       </c>
       <c r="I72" s="3">
-        <v>-471300</v>
+        <v>-495100</v>
       </c>
       <c r="J72" s="3">
+        <v>-510900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-521000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1975500</v>
+        <v>4942900</v>
       </c>
       <c r="E76" s="3">
-        <v>1583800</v>
+        <v>2141600</v>
       </c>
       <c r="F76" s="3">
-        <v>1596500</v>
+        <v>1717000</v>
       </c>
       <c r="G76" s="3">
-        <v>1095300</v>
+        <v>1730800</v>
       </c>
       <c r="H76" s="3">
-        <v>990400</v>
+        <v>1187500</v>
       </c>
       <c r="I76" s="3">
-        <v>975800</v>
+        <v>1073700</v>
       </c>
       <c r="J76" s="3">
+        <v>1057900</v>
+      </c>
+      <c r="K76" s="3">
         <v>627300</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4100</v>
+        <v>2115700</v>
       </c>
       <c r="E81" s="3">
-        <v>-166400</v>
+        <v>4500</v>
       </c>
       <c r="F81" s="3">
-        <v>-295400</v>
+        <v>-180400</v>
       </c>
       <c r="G81" s="3">
-        <v>231300</v>
+        <v>-320300</v>
       </c>
       <c r="H81" s="3">
-        <v>47700</v>
+        <v>250700</v>
       </c>
       <c r="I81" s="3">
-        <v>103300</v>
+        <v>51700</v>
       </c>
       <c r="J81" s="3">
+        <v>112000</v>
+      </c>
+      <c r="K81" s="3">
         <v>112700</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>480300</v>
+        <v>548000</v>
       </c>
       <c r="E83" s="3">
-        <v>440300</v>
+        <v>520700</v>
       </c>
       <c r="F83" s="3">
-        <v>379500</v>
+        <v>477400</v>
       </c>
       <c r="G83" s="3">
-        <v>269100</v>
+        <v>411400</v>
       </c>
       <c r="H83" s="3">
-        <v>242100</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
+        <v>291700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>262500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>630100</v>
+        <v>1959600</v>
       </c>
       <c r="E89" s="3">
-        <v>812100</v>
+        <v>683100</v>
       </c>
       <c r="F89" s="3">
-        <v>182500</v>
+        <v>880400</v>
       </c>
       <c r="G89" s="3">
-        <v>293300</v>
+        <v>197800</v>
       </c>
       <c r="H89" s="3">
-        <v>234000</v>
+        <v>318000</v>
       </c>
       <c r="I89" s="3">
-        <v>269800</v>
+        <v>253700</v>
       </c>
       <c r="J89" s="3">
+        <v>292500</v>
+      </c>
+      <c r="K89" s="3">
         <v>423500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-513100</v>
+        <v>-694100</v>
       </c>
       <c r="E91" s="3">
-        <v>-471400</v>
+        <v>-556200</v>
       </c>
       <c r="F91" s="3">
-        <v>-406100</v>
+        <v>-511100</v>
       </c>
       <c r="G91" s="3">
-        <v>-276400</v>
+        <v>-440200</v>
       </c>
       <c r="H91" s="3">
-        <v>-222700</v>
+        <v>-299600</v>
       </c>
       <c r="I91" s="3">
-        <v>-216400</v>
+        <v>-241400</v>
       </c>
       <c r="J91" s="3">
+        <v>-234600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-193200</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-323900</v>
+        <v>-717200</v>
       </c>
       <c r="E94" s="3">
-        <v>-515600</v>
+        <v>-351100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1873900</v>
+        <v>-558900</v>
       </c>
       <c r="G94" s="3">
-        <v>-628800</v>
+        <v>-2031500</v>
       </c>
       <c r="H94" s="3">
-        <v>-222400</v>
+        <v>-681700</v>
       </c>
       <c r="I94" s="3">
-        <v>-286900</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-241100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-311000</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +3058,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2852,9 +3085,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,53 +3175,59 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-97900</v>
+        <v>-162000</v>
       </c>
       <c r="E100" s="3">
-        <v>-273100</v>
+        <v>-106100</v>
       </c>
       <c r="F100" s="3">
-        <v>1784800</v>
+        <v>-296000</v>
       </c>
       <c r="G100" s="3">
-        <v>362600</v>
+        <v>1934900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1400</v>
+        <v>393100</v>
       </c>
       <c r="I100" s="3">
-        <v>-44800</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-1500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3900</v>
+        <v>-25100</v>
       </c>
       <c r="E101" s="3">
-        <v>8900</v>
+        <v>-4300</v>
       </c>
       <c r="F101" s="3">
-        <v>-20500</v>
+        <v>9700</v>
       </c>
       <c r="G101" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
+        <v>-22300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-11300</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
@@ -2987,34 +3235,40 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>204400</v>
+        <v>1055300</v>
       </c>
       <c r="E102" s="3">
-        <v>32400</v>
+        <v>221600</v>
       </c>
       <c r="F102" s="3">
-        <v>72900</v>
+        <v>35100</v>
       </c>
       <c r="G102" s="3">
-        <v>16700</v>
+        <v>79000</v>
       </c>
       <c r="H102" s="3">
-        <v>10300</v>
+        <v>18100</v>
       </c>
       <c r="I102" s="3">
-        <v>-61900</v>
+        <v>11200</v>
       </c>
       <c r="J102" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="K102" s="3">
         <v>79900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9195200</v>
+        <v>8379900</v>
       </c>
       <c r="E8" s="3">
-        <v>5263800</v>
+        <v>4797000</v>
       </c>
       <c r="F8" s="3">
-        <v>3656400</v>
+        <v>3332200</v>
       </c>
       <c r="G8" s="3">
-        <v>3313900</v>
+        <v>3020100</v>
       </c>
       <c r="H8" s="3">
-        <v>2255000</v>
+        <v>2055000</v>
       </c>
       <c r="I8" s="3">
-        <v>1639700</v>
+        <v>1494400</v>
       </c>
       <c r="J8" s="3">
-        <v>1572100</v>
+        <v>1432700</v>
       </c>
       <c r="K8" s="3">
         <v>1287100</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6145000</v>
+        <v>5600100</v>
       </c>
       <c r="E9" s="3">
-        <v>4601200</v>
+        <v>4193200</v>
       </c>
       <c r="F9" s="3">
-        <v>3489300</v>
+        <v>3179900</v>
       </c>
       <c r="G9" s="3">
-        <v>3073500</v>
+        <v>2801000</v>
       </c>
       <c r="H9" s="3">
-        <v>3322200</v>
+        <v>3027600</v>
       </c>
       <c r="I9" s="3">
-        <v>1473700</v>
+        <v>1343100</v>
       </c>
       <c r="J9" s="3">
-        <v>1299000</v>
+        <v>1183800</v>
       </c>
       <c r="K9" s="3">
         <v>1136000</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3050200</v>
+        <v>2779800</v>
       </c>
       <c r="E10" s="3">
-        <v>662600</v>
+        <v>603900</v>
       </c>
       <c r="F10" s="3">
-        <v>167100</v>
+        <v>152300</v>
       </c>
       <c r="G10" s="3">
-        <v>240400</v>
+        <v>219100</v>
       </c>
       <c r="H10" s="3">
-        <v>-1067300</v>
+        <v>-972600</v>
       </c>
       <c r="I10" s="3">
-        <v>166000</v>
+        <v>151300</v>
       </c>
       <c r="J10" s="3">
-        <v>273100</v>
+        <v>248900</v>
       </c>
       <c r="K10" s="3">
         <v>151100</v>
@@ -833,10 +833,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>148500</v>
+        <v>135300</v>
       </c>
       <c r="E14" s="3">
-        <v>49300</v>
+        <v>44900</v>
       </c>
       <c r="F14" s="3">
-        <v>258900</v>
+        <v>235900</v>
       </c>
       <c r="G14" s="3">
-        <v>410900</v>
+        <v>374500</v>
       </c>
       <c r="H14" s="3">
-        <v>-32700</v>
+        <v>-29800</v>
       </c>
       <c r="I14" s="3">
-        <v>9400</v>
+        <v>8600</v>
       </c>
       <c r="J14" s="3">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="K14" s="3">
         <v>86300</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6330400</v>
+        <v>5769100</v>
       </c>
       <c r="E17" s="3">
-        <v>4676700</v>
+        <v>4262000</v>
       </c>
       <c r="F17" s="3">
-        <v>3769800</v>
+        <v>3435500</v>
       </c>
       <c r="G17" s="3">
-        <v>3501100</v>
+        <v>3190700</v>
       </c>
       <c r="H17" s="3">
-        <v>1830600</v>
+        <v>1668200</v>
       </c>
       <c r="I17" s="3">
-        <v>1504700</v>
+        <v>1371300</v>
       </c>
       <c r="J17" s="3">
-        <v>1335500</v>
+        <v>1217100</v>
       </c>
       <c r="K17" s="3">
         <v>1138400</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2864800</v>
+        <v>2610700</v>
       </c>
       <c r="E18" s="3">
-        <v>587100</v>
+        <v>535000</v>
       </c>
       <c r="F18" s="3">
-        <v>-113400</v>
+        <v>-103400</v>
       </c>
       <c r="G18" s="3">
-        <v>-187200</v>
+        <v>-170600</v>
       </c>
       <c r="H18" s="3">
-        <v>424400</v>
+        <v>386800</v>
       </c>
       <c r="I18" s="3">
-        <v>135100</v>
+        <v>123100</v>
       </c>
       <c r="J18" s="3">
-        <v>236600</v>
+        <v>215600</v>
       </c>
       <c r="K18" s="3">
         <v>148700</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-179900</v>
+        <v>-163900</v>
       </c>
       <c r="E20" s="3">
-        <v>-547200</v>
+        <v>-498600</v>
       </c>
       <c r="F20" s="3">
-        <v>162100</v>
+        <v>147700</v>
       </c>
       <c r="G20" s="3">
-        <v>-176300</v>
+        <v>-160600</v>
       </c>
       <c r="H20" s="3">
-        <v>-76900</v>
+        <v>-70100</v>
       </c>
       <c r="I20" s="3">
-        <v>-43700</v>
+        <v>-39800</v>
       </c>
       <c r="J20" s="3">
-        <v>-51400</v>
+        <v>-46800</v>
       </c>
       <c r="K20" s="3">
         <v>2700</v>
@@ -1053,22 +1053,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3230500</v>
+        <v>2955000</v>
       </c>
       <c r="E21" s="3">
-        <v>558300</v>
+        <v>519300</v>
       </c>
       <c r="F21" s="3">
-        <v>523900</v>
+        <v>487100</v>
       </c>
       <c r="G21" s="3">
-        <v>46100</v>
+        <v>50300</v>
       </c>
       <c r="H21" s="3">
-        <v>637900</v>
+        <v>587200</v>
       </c>
       <c r="I21" s="3">
-        <v>352700</v>
+        <v>326700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>123900</v>
+        <v>112900</v>
       </c>
       <c r="E22" s="3">
-        <v>133800</v>
+        <v>121900</v>
       </c>
       <c r="F22" s="3">
-        <v>152400</v>
+        <v>138800</v>
       </c>
       <c r="G22" s="3">
-        <v>169200</v>
+        <v>154200</v>
       </c>
       <c r="H22" s="3">
-        <v>41100</v>
+        <v>37400</v>
       </c>
       <c r="I22" s="3">
-        <v>25300</v>
+        <v>23000</v>
       </c>
       <c r="J22" s="3">
-        <v>16700</v>
+        <v>15200</v>
       </c>
       <c r="K22" s="3">
         <v>21300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2560900</v>
+        <v>2333900</v>
       </c>
       <c r="E23" s="3">
-        <v>-93800</v>
+        <v>-85500</v>
       </c>
       <c r="F23" s="3">
-        <v>-103700</v>
+        <v>-94500</v>
       </c>
       <c r="G23" s="3">
-        <v>-532700</v>
+        <v>-485400</v>
       </c>
       <c r="H23" s="3">
-        <v>306400</v>
+        <v>279200</v>
       </c>
       <c r="I23" s="3">
-        <v>66100</v>
+        <v>60200</v>
       </c>
       <c r="J23" s="3">
-        <v>168500</v>
+        <v>153600</v>
       </c>
       <c r="K23" s="3">
         <v>130100</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>350700</v>
+        <v>319600</v>
       </c>
       <c r="E24" s="3">
-        <v>-125100</v>
+        <v>-114000</v>
       </c>
       <c r="F24" s="3">
-        <v>78200</v>
+        <v>71300</v>
       </c>
       <c r="G24" s="3">
-        <v>-212700</v>
+        <v>-193800</v>
       </c>
       <c r="H24" s="3">
-        <v>86800</v>
+        <v>79100</v>
       </c>
       <c r="I24" s="3">
-        <v>27200</v>
+        <v>24800</v>
       </c>
       <c r="J24" s="3">
-        <v>59800</v>
+        <v>54500</v>
       </c>
       <c r="K24" s="3">
         <v>17100</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2210300</v>
+        <v>2014300</v>
       </c>
       <c r="E26" s="3">
-        <v>31200</v>
+        <v>28500</v>
       </c>
       <c r="F26" s="3">
-        <v>-181900</v>
+        <v>-165800</v>
       </c>
       <c r="G26" s="3">
-        <v>-320000</v>
+        <v>-291600</v>
       </c>
       <c r="H26" s="3">
-        <v>219600</v>
+        <v>200100</v>
       </c>
       <c r="I26" s="3">
-        <v>38800</v>
+        <v>35400</v>
       </c>
       <c r="J26" s="3">
-        <v>108800</v>
+        <v>99100</v>
       </c>
       <c r="K26" s="3">
         <v>113100</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2115700</v>
+        <v>1928100</v>
       </c>
       <c r="E27" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="F27" s="3">
-        <v>-180400</v>
+        <v>-164400</v>
       </c>
       <c r="G27" s="3">
-        <v>-320300</v>
+        <v>-291900</v>
       </c>
       <c r="H27" s="3">
-        <v>250700</v>
+        <v>228500</v>
       </c>
       <c r="I27" s="3">
-        <v>51700</v>
+        <v>47200</v>
       </c>
       <c r="J27" s="3">
-        <v>112000</v>
+        <v>102100</v>
       </c>
       <c r="K27" s="3">
         <v>112700</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>179900</v>
+        <v>163900</v>
       </c>
       <c r="E32" s="3">
-        <v>547200</v>
+        <v>498600</v>
       </c>
       <c r="F32" s="3">
-        <v>-162100</v>
+        <v>-147700</v>
       </c>
       <c r="G32" s="3">
-        <v>176300</v>
+        <v>160600</v>
       </c>
       <c r="H32" s="3">
-        <v>76900</v>
+        <v>70100</v>
       </c>
       <c r="I32" s="3">
-        <v>43700</v>
+        <v>39800</v>
       </c>
       <c r="J32" s="3">
-        <v>51400</v>
+        <v>46800</v>
       </c>
       <c r="K32" s="3">
         <v>-2700</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2115700</v>
+        <v>1928100</v>
       </c>
       <c r="E33" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="F33" s="3">
-        <v>-180400</v>
+        <v>-164400</v>
       </c>
       <c r="G33" s="3">
-        <v>-320300</v>
+        <v>-291900</v>
       </c>
       <c r="H33" s="3">
-        <v>250700</v>
+        <v>228500</v>
       </c>
       <c r="I33" s="3">
-        <v>51700</v>
+        <v>47200</v>
       </c>
       <c r="J33" s="3">
-        <v>112000</v>
+        <v>102100</v>
       </c>
       <c r="K33" s="3">
         <v>112700</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2115700</v>
+        <v>1928100</v>
       </c>
       <c r="E35" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="F35" s="3">
-        <v>-180400</v>
+        <v>-164400</v>
       </c>
       <c r="G35" s="3">
-        <v>-320300</v>
+        <v>-291900</v>
       </c>
       <c r="H35" s="3">
-        <v>250700</v>
+        <v>228500</v>
       </c>
       <c r="I35" s="3">
-        <v>51700</v>
+        <v>47200</v>
       </c>
       <c r="J35" s="3">
-        <v>112000</v>
+        <v>102100</v>
       </c>
       <c r="K35" s="3">
         <v>112700</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1460900</v>
+        <v>1331400</v>
       </c>
       <c r="E41" s="3">
-        <v>405600</v>
+        <v>369600</v>
       </c>
       <c r="F41" s="3">
-        <v>183500</v>
+        <v>167300</v>
       </c>
       <c r="G41" s="3">
-        <v>148400</v>
+        <v>135300</v>
       </c>
       <c r="H41" s="3">
-        <v>64300</v>
+        <v>58600</v>
       </c>
       <c r="I41" s="3">
-        <v>51800</v>
+        <v>47200</v>
       </c>
       <c r="J41" s="3">
-        <v>40600</v>
+        <v>37000</v>
       </c>
       <c r="K41" s="3">
         <v>81700</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>482300</v>
+        <v>439500</v>
       </c>
       <c r="E43" s="3">
-        <v>331900</v>
+        <v>302500</v>
       </c>
       <c r="F43" s="3">
-        <v>509200</v>
+        <v>464000</v>
       </c>
       <c r="G43" s="3">
-        <v>445400</v>
+        <v>405900</v>
       </c>
       <c r="H43" s="3">
-        <v>415800</v>
+        <v>378900</v>
       </c>
       <c r="I43" s="3">
-        <v>108500</v>
+        <v>98900</v>
       </c>
       <c r="J43" s="3">
-        <v>66700</v>
+        <v>60800</v>
       </c>
       <c r="K43" s="3">
         <v>63300</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1801100</v>
+        <v>1641400</v>
       </c>
       <c r="E44" s="3">
-        <v>1119000</v>
+        <v>1019800</v>
       </c>
       <c r="F44" s="3">
-        <v>382200</v>
+        <v>348300</v>
       </c>
       <c r="G44" s="3">
-        <v>254500</v>
+        <v>232000</v>
       </c>
       <c r="H44" s="3">
-        <v>48900</v>
+        <v>44500</v>
       </c>
       <c r="I44" s="3">
-        <v>29300</v>
+        <v>26700</v>
       </c>
       <c r="J44" s="3">
-        <v>23700</v>
+        <v>21600</v>
       </c>
       <c r="K44" s="3">
         <v>13700</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26600</v>
+        <v>24300</v>
       </c>
       <c r="E45" s="3">
-        <v>32000</v>
+        <v>29100</v>
       </c>
       <c r="F45" s="3">
-        <v>21900</v>
+        <v>20000</v>
       </c>
       <c r="G45" s="3">
-        <v>18100</v>
+        <v>16500</v>
       </c>
       <c r="H45" s="3">
-        <v>27000</v>
+        <v>24600</v>
       </c>
       <c r="I45" s="3">
-        <v>8900</v>
+        <v>8100</v>
       </c>
       <c r="J45" s="3">
-        <v>9100</v>
+        <v>8300</v>
       </c>
       <c r="K45" s="3">
         <v>38500</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3770900</v>
+        <v>3436500</v>
       </c>
       <c r="E46" s="3">
-        <v>1888500</v>
+        <v>1721000</v>
       </c>
       <c r="F46" s="3">
-        <v>1096800</v>
+        <v>999500</v>
       </c>
       <c r="G46" s="3">
-        <v>866500</v>
+        <v>789700</v>
       </c>
       <c r="H46" s="3">
-        <v>556000</v>
+        <v>506700</v>
       </c>
       <c r="I46" s="3">
-        <v>198500</v>
+        <v>180900</v>
       </c>
       <c r="J46" s="3">
-        <v>140100</v>
+        <v>127600</v>
       </c>
       <c r="K46" s="3">
         <v>180100</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>465000</v>
+        <v>423800</v>
       </c>
       <c r="E47" s="3">
-        <v>340900</v>
+        <v>310600</v>
       </c>
       <c r="F47" s="3">
-        <v>292200</v>
+        <v>266300</v>
       </c>
       <c r="G47" s="3">
-        <v>182500</v>
+        <v>166300</v>
       </c>
       <c r="H47" s="3">
-        <v>181400</v>
+        <v>165300</v>
       </c>
       <c r="I47" s="3">
-        <v>12200</v>
+        <v>11100</v>
       </c>
       <c r="J47" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="K47" s="3">
         <v>18400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4395400</v>
+        <v>4005700</v>
       </c>
       <c r="E48" s="3">
-        <v>4175000</v>
+        <v>3804800</v>
       </c>
       <c r="F48" s="3">
-        <v>3938000</v>
+        <v>3588800</v>
       </c>
       <c r="G48" s="3">
-        <v>3713300</v>
+        <v>3384000</v>
       </c>
       <c r="H48" s="3">
-        <v>1966200</v>
+        <v>1791900</v>
       </c>
       <c r="I48" s="3">
-        <v>1597500</v>
+        <v>1455900</v>
       </c>
       <c r="J48" s="3">
-        <v>1638800</v>
+        <v>1493500</v>
       </c>
       <c r="K48" s="3">
         <v>1106300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>517200</v>
+        <v>471300</v>
       </c>
       <c r="E49" s="3">
-        <v>494800</v>
+        <v>450900</v>
       </c>
       <c r="F49" s="3">
-        <v>497300</v>
+        <v>453200</v>
       </c>
       <c r="G49" s="3">
-        <v>461700</v>
+        <v>420700</v>
       </c>
       <c r="H49" s="3">
-        <v>67600</v>
+        <v>61600</v>
       </c>
       <c r="I49" s="3">
-        <v>53200</v>
+        <v>48500</v>
       </c>
       <c r="J49" s="3">
-        <v>53200</v>
+        <v>48500</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>531100</v>
+        <v>484000</v>
       </c>
       <c r="E52" s="3">
-        <v>396300</v>
+        <v>361100</v>
       </c>
       <c r="F52" s="3">
-        <v>305400</v>
+        <v>278400</v>
       </c>
       <c r="G52" s="3">
-        <v>267000</v>
+        <v>243300</v>
       </c>
       <c r="H52" s="3">
-        <v>240300</v>
+        <v>219000</v>
       </c>
       <c r="I52" s="3">
-        <v>178800</v>
+        <v>162900</v>
       </c>
       <c r="J52" s="3">
-        <v>178300</v>
+        <v>162500</v>
       </c>
       <c r="K52" s="3">
         <v>124000</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9679600</v>
+        <v>8821300</v>
       </c>
       <c r="E54" s="3">
-        <v>7295400</v>
+        <v>6648500</v>
       </c>
       <c r="F54" s="3">
-        <v>6129700</v>
+        <v>5586200</v>
       </c>
       <c r="G54" s="3">
-        <v>5490900</v>
+        <v>5004000</v>
       </c>
       <c r="H54" s="3">
-        <v>3011400</v>
+        <v>2744400</v>
       </c>
       <c r="I54" s="3">
-        <v>2040200</v>
+        <v>1859300</v>
       </c>
       <c r="J54" s="3">
-        <v>2015400</v>
+        <v>1836700</v>
       </c>
       <c r="K54" s="3">
         <v>1331300</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>612900</v>
+        <v>558600</v>
       </c>
       <c r="E57" s="3">
-        <v>462200</v>
+        <v>421200</v>
       </c>
       <c r="F57" s="3">
-        <v>371900</v>
+        <v>338900</v>
       </c>
       <c r="G57" s="3">
-        <v>296600</v>
+        <v>270300</v>
       </c>
       <c r="H57" s="3">
-        <v>223200</v>
+        <v>203400</v>
       </c>
       <c r="I57" s="3">
-        <v>99800</v>
+        <v>90900</v>
       </c>
       <c r="J57" s="3">
-        <v>105900</v>
+        <v>96500</v>
       </c>
       <c r="K57" s="3">
         <v>97200</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>71400</v>
+        <v>65100</v>
       </c>
       <c r="E58" s="3">
-        <v>10700</v>
+        <v>9800</v>
       </c>
       <c r="F58" s="3">
-        <v>446700</v>
+        <v>407100</v>
       </c>
       <c r="G58" s="3">
-        <v>119600</v>
+        <v>109000</v>
       </c>
       <c r="H58" s="3">
-        <v>54300</v>
+        <v>49500</v>
       </c>
       <c r="I58" s="3">
-        <v>144000</v>
+        <v>131300</v>
       </c>
       <c r="J58" s="3">
-        <v>40000</v>
+        <v>36500</v>
       </c>
       <c r="K58" s="3">
         <v>33300</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>577900</v>
+        <v>526700</v>
       </c>
       <c r="E59" s="3">
-        <v>561200</v>
+        <v>511400</v>
       </c>
       <c r="F59" s="3">
-        <v>237600</v>
+        <v>216500</v>
       </c>
       <c r="G59" s="3">
-        <v>192800</v>
+        <v>175700</v>
       </c>
       <c r="H59" s="3">
-        <v>174100</v>
+        <v>158600</v>
       </c>
       <c r="I59" s="3">
-        <v>142200</v>
+        <v>129600</v>
       </c>
       <c r="J59" s="3">
-        <v>111900</v>
+        <v>102000</v>
       </c>
       <c r="K59" s="3">
         <v>122000</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1262200</v>
+        <v>1150300</v>
       </c>
       <c r="E60" s="3">
-        <v>1034100</v>
+        <v>942400</v>
       </c>
       <c r="F60" s="3">
-        <v>1056200</v>
+        <v>962500</v>
       </c>
       <c r="G60" s="3">
-        <v>609000</v>
+        <v>555000</v>
       </c>
       <c r="H60" s="3">
-        <v>451600</v>
+        <v>411600</v>
       </c>
       <c r="I60" s="3">
-        <v>386000</v>
+        <v>351700</v>
       </c>
       <c r="J60" s="3">
-        <v>257700</v>
+        <v>234900</v>
       </c>
       <c r="K60" s="3">
         <v>239100</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1279000</v>
+        <v>1165600</v>
       </c>
       <c r="E61" s="3">
-        <v>1730200</v>
+        <v>1576800</v>
       </c>
       <c r="F61" s="3">
-        <v>1322100</v>
+        <v>1204900</v>
       </c>
       <c r="G61" s="3">
-        <v>1731700</v>
+        <v>1578200</v>
       </c>
       <c r="H61" s="3">
-        <v>593400</v>
+        <v>540800</v>
       </c>
       <c r="I61" s="3">
-        <v>130500</v>
+        <v>118900</v>
       </c>
       <c r="J61" s="3">
-        <v>188800</v>
+        <v>172100</v>
       </c>
       <c r="K61" s="3">
         <v>99300</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2034000</v>
+        <v>1853700</v>
       </c>
       <c r="E62" s="3">
-        <v>2283500</v>
+        <v>2081000</v>
       </c>
       <c r="F62" s="3">
-        <v>1966900</v>
+        <v>1792500</v>
       </c>
       <c r="G62" s="3">
-        <v>1417900</v>
+        <v>1292200</v>
       </c>
       <c r="H62" s="3">
-        <v>777700</v>
+        <v>708700</v>
       </c>
       <c r="I62" s="3">
-        <v>442100</v>
+        <v>402900</v>
       </c>
       <c r="J62" s="3">
-        <v>487200</v>
+        <v>444000</v>
       </c>
       <c r="K62" s="3">
         <v>365900</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4736700</v>
+        <v>4316700</v>
       </c>
       <c r="E66" s="3">
-        <v>5153700</v>
+        <v>4696800</v>
       </c>
       <c r="F66" s="3">
-        <v>4412700</v>
+        <v>4021400</v>
       </c>
       <c r="G66" s="3">
-        <v>3760100</v>
+        <v>3426700</v>
       </c>
       <c r="H66" s="3">
-        <v>1824000</v>
+        <v>1662300</v>
       </c>
       <c r="I66" s="3">
-        <v>966500</v>
+        <v>880800</v>
       </c>
       <c r="J66" s="3">
-        <v>957500</v>
+        <v>872600</v>
       </c>
       <c r="K66" s="3">
         <v>704000</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2873700</v>
+        <v>2618900</v>
       </c>
       <c r="E72" s="3">
-        <v>-832500</v>
+        <v>-758700</v>
       </c>
       <c r="F72" s="3">
-        <v>-858000</v>
+        <v>-781900</v>
       </c>
       <c r="G72" s="3">
-        <v>-716700</v>
+        <v>-653200</v>
       </c>
       <c r="H72" s="3">
-        <v>-371900</v>
+        <v>-338900</v>
       </c>
       <c r="I72" s="3">
-        <v>-495100</v>
+        <v>-451200</v>
       </c>
       <c r="J72" s="3">
-        <v>-510900</v>
+        <v>-465600</v>
       </c>
       <c r="K72" s="3">
         <v>-521000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4942900</v>
+        <v>4504600</v>
       </c>
       <c r="E76" s="3">
-        <v>2141600</v>
+        <v>1951700</v>
       </c>
       <c r="F76" s="3">
-        <v>1717000</v>
+        <v>1564800</v>
       </c>
       <c r="G76" s="3">
-        <v>1730800</v>
+        <v>1577300</v>
       </c>
       <c r="H76" s="3">
-        <v>1187500</v>
+        <v>1082200</v>
       </c>
       <c r="I76" s="3">
-        <v>1073700</v>
+        <v>978500</v>
       </c>
       <c r="J76" s="3">
-        <v>1057900</v>
+        <v>964100</v>
       </c>
       <c r="K76" s="3">
         <v>627300</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2115700</v>
+        <v>1928100</v>
       </c>
       <c r="E81" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="F81" s="3">
-        <v>-180400</v>
+        <v>-164400</v>
       </c>
       <c r="G81" s="3">
-        <v>-320300</v>
+        <v>-291900</v>
       </c>
       <c r="H81" s="3">
-        <v>250700</v>
+        <v>228500</v>
       </c>
       <c r="I81" s="3">
-        <v>51700</v>
+        <v>47200</v>
       </c>
       <c r="J81" s="3">
-        <v>112000</v>
+        <v>102100</v>
       </c>
       <c r="K81" s="3">
         <v>112700</v>
@@ -2707,22 +2707,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>548000</v>
+        <v>499400</v>
       </c>
       <c r="E83" s="3">
-        <v>520700</v>
+        <v>474500</v>
       </c>
       <c r="F83" s="3">
-        <v>477400</v>
+        <v>435100</v>
       </c>
       <c r="G83" s="3">
-        <v>411400</v>
+        <v>374900</v>
       </c>
       <c r="H83" s="3">
-        <v>291700</v>
+        <v>265900</v>
       </c>
       <c r="I83" s="3">
-        <v>262500</v>
+        <v>239200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1959600</v>
+        <v>1785900</v>
       </c>
       <c r="E89" s="3">
-        <v>683100</v>
+        <v>622500</v>
       </c>
       <c r="F89" s="3">
-        <v>880400</v>
+        <v>802300</v>
       </c>
       <c r="G89" s="3">
-        <v>197800</v>
+        <v>180300</v>
       </c>
       <c r="H89" s="3">
-        <v>318000</v>
+        <v>289800</v>
       </c>
       <c r="I89" s="3">
-        <v>253700</v>
+        <v>231200</v>
       </c>
       <c r="J89" s="3">
-        <v>292500</v>
+        <v>266600</v>
       </c>
       <c r="K89" s="3">
         <v>423500</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-694100</v>
+        <v>-632500</v>
       </c>
       <c r="E91" s="3">
-        <v>-556200</v>
+        <v>-506900</v>
       </c>
       <c r="F91" s="3">
-        <v>-511100</v>
+        <v>-465800</v>
       </c>
       <c r="G91" s="3">
-        <v>-440200</v>
+        <v>-401200</v>
       </c>
       <c r="H91" s="3">
-        <v>-299600</v>
+        <v>-273100</v>
       </c>
       <c r="I91" s="3">
-        <v>-241400</v>
+        <v>-220000</v>
       </c>
       <c r="J91" s="3">
-        <v>-234600</v>
+        <v>-213800</v>
       </c>
       <c r="K91" s="3">
         <v>-193200</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-717200</v>
+        <v>-653600</v>
       </c>
       <c r="E94" s="3">
-        <v>-351100</v>
+        <v>-320000</v>
       </c>
       <c r="F94" s="3">
-        <v>-558900</v>
+        <v>-509400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2031500</v>
+        <v>-1851300</v>
       </c>
       <c r="H94" s="3">
-        <v>-681700</v>
+        <v>-621200</v>
       </c>
       <c r="I94" s="3">
-        <v>-241100</v>
+        <v>-219700</v>
       </c>
       <c r="J94" s="3">
-        <v>-311000</v>
+        <v>-283400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-162000</v>
+        <v>-147600</v>
       </c>
       <c r="E100" s="3">
-        <v>-106100</v>
+        <v>-96700</v>
       </c>
       <c r="F100" s="3">
-        <v>-296000</v>
+        <v>-269800</v>
       </c>
       <c r="G100" s="3">
-        <v>1934900</v>
+        <v>1763300</v>
       </c>
       <c r="H100" s="3">
-        <v>393100</v>
+        <v>358200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="J100" s="3">
-        <v>-48600</v>
+        <v>-44300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3215,19 +3215,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-25100</v>
+        <v>-22900</v>
       </c>
       <c r="E101" s="3">
-        <v>-4300</v>
+        <v>-3900</v>
       </c>
       <c r="F101" s="3">
-        <v>9700</v>
+        <v>8800</v>
       </c>
       <c r="G101" s="3">
-        <v>-22300</v>
+        <v>-20300</v>
       </c>
       <c r="H101" s="3">
-        <v>-11300</v>
+        <v>-10300</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1055300</v>
+        <v>961800</v>
       </c>
       <c r="E102" s="3">
-        <v>221600</v>
+        <v>201900</v>
       </c>
       <c r="F102" s="3">
-        <v>35100</v>
+        <v>32000</v>
       </c>
       <c r="G102" s="3">
-        <v>79000</v>
+        <v>72000</v>
       </c>
       <c r="H102" s="3">
-        <v>18100</v>
+        <v>16500</v>
       </c>
       <c r="I102" s="3">
-        <v>11200</v>
+        <v>10200</v>
       </c>
       <c r="J102" s="3">
-        <v>-67100</v>
+        <v>-61100</v>
       </c>
       <c r="K102" s="3">
         <v>79900</v>

--- a/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8379900</v>
+        <v>7892000</v>
       </c>
       <c r="E8" s="3">
-        <v>4797000</v>
+        <v>4517700</v>
       </c>
       <c r="F8" s="3">
-        <v>3332200</v>
+        <v>3138200</v>
       </c>
       <c r="G8" s="3">
-        <v>3020100</v>
+        <v>2844200</v>
       </c>
       <c r="H8" s="3">
-        <v>2055000</v>
+        <v>1935400</v>
       </c>
       <c r="I8" s="3">
-        <v>1494400</v>
+        <v>1407300</v>
       </c>
       <c r="J8" s="3">
-        <v>1432700</v>
+        <v>1349300</v>
       </c>
       <c r="K8" s="3">
         <v>1287100</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5600100</v>
+        <v>5274000</v>
       </c>
       <c r="E9" s="3">
-        <v>4193200</v>
+        <v>3949000</v>
       </c>
       <c r="F9" s="3">
-        <v>3179900</v>
+        <v>2994800</v>
       </c>
       <c r="G9" s="3">
-        <v>2801000</v>
+        <v>2637900</v>
       </c>
       <c r="H9" s="3">
-        <v>3027600</v>
+        <v>2851400</v>
       </c>
       <c r="I9" s="3">
-        <v>1343100</v>
+        <v>1264900</v>
       </c>
       <c r="J9" s="3">
-        <v>1183800</v>
+        <v>1114900</v>
       </c>
       <c r="K9" s="3">
         <v>1136000</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2779800</v>
+        <v>2617900</v>
       </c>
       <c r="E10" s="3">
-        <v>603900</v>
+        <v>568700</v>
       </c>
       <c r="F10" s="3">
-        <v>152300</v>
+        <v>143400</v>
       </c>
       <c r="G10" s="3">
-        <v>219100</v>
+        <v>206300</v>
       </c>
       <c r="H10" s="3">
-        <v>-972600</v>
+        <v>-916000</v>
       </c>
       <c r="I10" s="3">
-        <v>151300</v>
+        <v>142500</v>
       </c>
       <c r="J10" s="3">
-        <v>248900</v>
+        <v>234400</v>
       </c>
       <c r="K10" s="3">
         <v>151100</v>
@@ -833,10 +833,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>135300</v>
+        <v>127400</v>
       </c>
       <c r="E14" s="3">
-        <v>44900</v>
+        <v>42300</v>
       </c>
       <c r="F14" s="3">
-        <v>235900</v>
+        <v>222200</v>
       </c>
       <c r="G14" s="3">
-        <v>374500</v>
+        <v>352700</v>
       </c>
       <c r="H14" s="3">
-        <v>-29800</v>
+        <v>-28100</v>
       </c>
       <c r="I14" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="J14" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="K14" s="3">
         <v>86300</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5769100</v>
+        <v>5433200</v>
       </c>
       <c r="E17" s="3">
-        <v>4262000</v>
+        <v>4013900</v>
       </c>
       <c r="F17" s="3">
-        <v>3435500</v>
+        <v>3235500</v>
       </c>
       <c r="G17" s="3">
-        <v>3190700</v>
+        <v>3004900</v>
       </c>
       <c r="H17" s="3">
-        <v>1668200</v>
+        <v>1571100</v>
       </c>
       <c r="I17" s="3">
-        <v>1371300</v>
+        <v>1291400</v>
       </c>
       <c r="J17" s="3">
-        <v>1217100</v>
+        <v>1146200</v>
       </c>
       <c r="K17" s="3">
         <v>1138400</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2610700</v>
+        <v>2458700</v>
       </c>
       <c r="E18" s="3">
-        <v>535000</v>
+        <v>503900</v>
       </c>
       <c r="F18" s="3">
-        <v>-103400</v>
+        <v>-97300</v>
       </c>
       <c r="G18" s="3">
-        <v>-170600</v>
+        <v>-160700</v>
       </c>
       <c r="H18" s="3">
-        <v>386800</v>
+        <v>364200</v>
       </c>
       <c r="I18" s="3">
-        <v>123100</v>
+        <v>115900</v>
       </c>
       <c r="J18" s="3">
-        <v>215600</v>
+        <v>203100</v>
       </c>
       <c r="K18" s="3">
         <v>148700</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-163900</v>
+        <v>-154400</v>
       </c>
       <c r="E20" s="3">
-        <v>-498600</v>
+        <v>-469600</v>
       </c>
       <c r="F20" s="3">
-        <v>147700</v>
+        <v>139100</v>
       </c>
       <c r="G20" s="3">
-        <v>-160600</v>
+        <v>-151300</v>
       </c>
       <c r="H20" s="3">
-        <v>-70100</v>
+        <v>-66000</v>
       </c>
       <c r="I20" s="3">
-        <v>-39800</v>
+        <v>-37500</v>
       </c>
       <c r="J20" s="3">
-        <v>-46800</v>
+        <v>-44100</v>
       </c>
       <c r="K20" s="3">
         <v>2700</v>
@@ -1053,22 +1053,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2955000</v>
+        <v>2770100</v>
       </c>
       <c r="E21" s="3">
-        <v>519300</v>
+        <v>476800</v>
       </c>
       <c r="F21" s="3">
-        <v>487100</v>
+        <v>447400</v>
       </c>
       <c r="G21" s="3">
-        <v>50300</v>
+        <v>37600</v>
       </c>
       <c r="H21" s="3">
-        <v>587200</v>
+        <v>546100</v>
       </c>
       <c r="I21" s="3">
-        <v>326700</v>
+        <v>301500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>112900</v>
+        <v>106400</v>
       </c>
       <c r="E22" s="3">
-        <v>121900</v>
+        <v>114800</v>
       </c>
       <c r="F22" s="3">
-        <v>138800</v>
+        <v>130800</v>
       </c>
       <c r="G22" s="3">
-        <v>154200</v>
+        <v>145200</v>
       </c>
       <c r="H22" s="3">
-        <v>37400</v>
+        <v>35200</v>
       </c>
       <c r="I22" s="3">
-        <v>23000</v>
+        <v>21700</v>
       </c>
       <c r="J22" s="3">
-        <v>15200</v>
+        <v>14300</v>
       </c>
       <c r="K22" s="3">
         <v>21300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2333900</v>
+        <v>2198000</v>
       </c>
       <c r="E23" s="3">
-        <v>-85500</v>
+        <v>-80500</v>
       </c>
       <c r="F23" s="3">
-        <v>-94500</v>
+        <v>-89000</v>
       </c>
       <c r="G23" s="3">
-        <v>-485400</v>
+        <v>-457200</v>
       </c>
       <c r="H23" s="3">
-        <v>279200</v>
+        <v>263000</v>
       </c>
       <c r="I23" s="3">
-        <v>60200</v>
+        <v>56700</v>
       </c>
       <c r="J23" s="3">
-        <v>153600</v>
+        <v>144700</v>
       </c>
       <c r="K23" s="3">
         <v>130100</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>319600</v>
+        <v>301000</v>
       </c>
       <c r="E24" s="3">
-        <v>-114000</v>
+        <v>-107400</v>
       </c>
       <c r="F24" s="3">
-        <v>71300</v>
+        <v>67100</v>
       </c>
       <c r="G24" s="3">
-        <v>-193800</v>
+        <v>-182500</v>
       </c>
       <c r="H24" s="3">
-        <v>79100</v>
+        <v>74500</v>
       </c>
       <c r="I24" s="3">
-        <v>24800</v>
+        <v>23400</v>
       </c>
       <c r="J24" s="3">
-        <v>54500</v>
+        <v>51300</v>
       </c>
       <c r="K24" s="3">
         <v>17100</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2014300</v>
+        <v>1897000</v>
       </c>
       <c r="E26" s="3">
-        <v>28500</v>
+        <v>26800</v>
       </c>
       <c r="F26" s="3">
-        <v>-165800</v>
+        <v>-156200</v>
       </c>
       <c r="G26" s="3">
-        <v>-291600</v>
+        <v>-274600</v>
       </c>
       <c r="H26" s="3">
-        <v>200100</v>
+        <v>188500</v>
       </c>
       <c r="I26" s="3">
-        <v>35400</v>
+        <v>33300</v>
       </c>
       <c r="J26" s="3">
-        <v>99100</v>
+        <v>93400</v>
       </c>
       <c r="K26" s="3">
         <v>113100</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1928100</v>
+        <v>1815900</v>
       </c>
       <c r="E27" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="F27" s="3">
-        <v>-164400</v>
+        <v>-154900</v>
       </c>
       <c r="G27" s="3">
-        <v>-291900</v>
+        <v>-274900</v>
       </c>
       <c r="H27" s="3">
-        <v>228500</v>
+        <v>215200</v>
       </c>
       <c r="I27" s="3">
-        <v>47200</v>
+        <v>44400</v>
       </c>
       <c r="J27" s="3">
-        <v>102100</v>
+        <v>96100</v>
       </c>
       <c r="K27" s="3">
         <v>112700</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>163900</v>
+        <v>154400</v>
       </c>
       <c r="E32" s="3">
-        <v>498600</v>
+        <v>469600</v>
       </c>
       <c r="F32" s="3">
-        <v>-147700</v>
+        <v>-139100</v>
       </c>
       <c r="G32" s="3">
-        <v>160600</v>
+        <v>151300</v>
       </c>
       <c r="H32" s="3">
-        <v>70100</v>
+        <v>66000</v>
       </c>
       <c r="I32" s="3">
-        <v>39800</v>
+        <v>37500</v>
       </c>
       <c r="J32" s="3">
-        <v>46800</v>
+        <v>44100</v>
       </c>
       <c r="K32" s="3">
         <v>-2700</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1928100</v>
+        <v>1815900</v>
       </c>
       <c r="E33" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="F33" s="3">
-        <v>-164400</v>
+        <v>-154900</v>
       </c>
       <c r="G33" s="3">
-        <v>-291900</v>
+        <v>-274900</v>
       </c>
       <c r="H33" s="3">
-        <v>228500</v>
+        <v>215200</v>
       </c>
       <c r="I33" s="3">
-        <v>47200</v>
+        <v>44400</v>
       </c>
       <c r="J33" s="3">
-        <v>102100</v>
+        <v>96100</v>
       </c>
       <c r="K33" s="3">
         <v>112700</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1928100</v>
+        <v>1815900</v>
       </c>
       <c r="E35" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="F35" s="3">
-        <v>-164400</v>
+        <v>-154900</v>
       </c>
       <c r="G35" s="3">
-        <v>-291900</v>
+        <v>-274900</v>
       </c>
       <c r="H35" s="3">
-        <v>228500</v>
+        <v>215200</v>
       </c>
       <c r="I35" s="3">
-        <v>47200</v>
+        <v>44400</v>
       </c>
       <c r="J35" s="3">
-        <v>102100</v>
+        <v>96100</v>
       </c>
       <c r="K35" s="3">
         <v>112700</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1331400</v>
+        <v>1253900</v>
       </c>
       <c r="E41" s="3">
-        <v>369600</v>
+        <v>348100</v>
       </c>
       <c r="F41" s="3">
-        <v>167300</v>
+        <v>157500</v>
       </c>
       <c r="G41" s="3">
-        <v>135300</v>
+        <v>127400</v>
       </c>
       <c r="H41" s="3">
-        <v>58600</v>
+        <v>55200</v>
       </c>
       <c r="I41" s="3">
-        <v>47200</v>
+        <v>44400</v>
       </c>
       <c r="J41" s="3">
-        <v>37000</v>
+        <v>34900</v>
       </c>
       <c r="K41" s="3">
         <v>81700</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>439500</v>
+        <v>413900</v>
       </c>
       <c r="E43" s="3">
-        <v>302500</v>
+        <v>284900</v>
       </c>
       <c r="F43" s="3">
-        <v>464000</v>
+        <v>437000</v>
       </c>
       <c r="G43" s="3">
-        <v>405900</v>
+        <v>382300</v>
       </c>
       <c r="H43" s="3">
-        <v>378900</v>
+        <v>356900</v>
       </c>
       <c r="I43" s="3">
-        <v>98900</v>
+        <v>93200</v>
       </c>
       <c r="J43" s="3">
-        <v>60800</v>
+        <v>57200</v>
       </c>
       <c r="K43" s="3">
         <v>63300</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1641400</v>
+        <v>1545800</v>
       </c>
       <c r="E44" s="3">
-        <v>1019800</v>
+        <v>960400</v>
       </c>
       <c r="F44" s="3">
-        <v>348300</v>
+        <v>328000</v>
       </c>
       <c r="G44" s="3">
-        <v>232000</v>
+        <v>218500</v>
       </c>
       <c r="H44" s="3">
-        <v>44500</v>
+        <v>41900</v>
       </c>
       <c r="I44" s="3">
-        <v>26700</v>
+        <v>25100</v>
       </c>
       <c r="J44" s="3">
-        <v>21600</v>
+        <v>20300</v>
       </c>
       <c r="K44" s="3">
         <v>13700</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24300</v>
+        <v>22800</v>
       </c>
       <c r="E45" s="3">
-        <v>29100</v>
+        <v>27400</v>
       </c>
       <c r="F45" s="3">
-        <v>20000</v>
+        <v>18800</v>
       </c>
       <c r="G45" s="3">
-        <v>16500</v>
+        <v>15600</v>
       </c>
       <c r="H45" s="3">
-        <v>24600</v>
+        <v>23200</v>
       </c>
       <c r="I45" s="3">
-        <v>8100</v>
+        <v>7700</v>
       </c>
       <c r="J45" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="K45" s="3">
         <v>38500</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3436500</v>
+        <v>3236400</v>
       </c>
       <c r="E46" s="3">
-        <v>1721000</v>
+        <v>1620800</v>
       </c>
       <c r="F46" s="3">
-        <v>999500</v>
+        <v>941300</v>
       </c>
       <c r="G46" s="3">
-        <v>789700</v>
+        <v>743700</v>
       </c>
       <c r="H46" s="3">
-        <v>506700</v>
+        <v>477200</v>
       </c>
       <c r="I46" s="3">
-        <v>180900</v>
+        <v>170400</v>
       </c>
       <c r="J46" s="3">
-        <v>127600</v>
+        <v>120200</v>
       </c>
       <c r="K46" s="3">
         <v>180100</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>423800</v>
+        <v>399100</v>
       </c>
       <c r="E47" s="3">
-        <v>310600</v>
+        <v>292500</v>
       </c>
       <c r="F47" s="3">
-        <v>266300</v>
+        <v>250800</v>
       </c>
       <c r="G47" s="3">
-        <v>166300</v>
+        <v>156600</v>
       </c>
       <c r="H47" s="3">
-        <v>165300</v>
+        <v>155700</v>
       </c>
       <c r="I47" s="3">
-        <v>11100</v>
+        <v>10500</v>
       </c>
       <c r="J47" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="K47" s="3">
         <v>18400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4005700</v>
+        <v>3772500</v>
       </c>
       <c r="E48" s="3">
-        <v>3804800</v>
+        <v>3583300</v>
       </c>
       <c r="F48" s="3">
-        <v>3588800</v>
+        <v>3379900</v>
       </c>
       <c r="G48" s="3">
-        <v>3384000</v>
+        <v>3187000</v>
       </c>
       <c r="H48" s="3">
-        <v>1791900</v>
+        <v>1687600</v>
       </c>
       <c r="I48" s="3">
-        <v>1455900</v>
+        <v>1371100</v>
       </c>
       <c r="J48" s="3">
-        <v>1493500</v>
+        <v>1406500</v>
       </c>
       <c r="K48" s="3">
         <v>1106300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>471300</v>
+        <v>443900</v>
       </c>
       <c r="E49" s="3">
-        <v>450900</v>
+        <v>424700</v>
       </c>
       <c r="F49" s="3">
-        <v>453200</v>
+        <v>426800</v>
       </c>
       <c r="G49" s="3">
-        <v>420700</v>
+        <v>396200</v>
       </c>
       <c r="H49" s="3">
-        <v>61600</v>
+        <v>58000</v>
       </c>
       <c r="I49" s="3">
-        <v>48500</v>
+        <v>45600</v>
       </c>
       <c r="J49" s="3">
-        <v>48500</v>
+        <v>45600</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>484000</v>
+        <v>455800</v>
       </c>
       <c r="E52" s="3">
-        <v>361100</v>
+        <v>340100</v>
       </c>
       <c r="F52" s="3">
-        <v>278400</v>
+        <v>262100</v>
       </c>
       <c r="G52" s="3">
-        <v>243300</v>
+        <v>229100</v>
       </c>
       <c r="H52" s="3">
-        <v>219000</v>
+        <v>206200</v>
       </c>
       <c r="I52" s="3">
-        <v>162900</v>
+        <v>153500</v>
       </c>
       <c r="J52" s="3">
-        <v>162500</v>
+        <v>153000</v>
       </c>
       <c r="K52" s="3">
         <v>124000</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8821300</v>
+        <v>8307700</v>
       </c>
       <c r="E54" s="3">
-        <v>6648500</v>
+        <v>6261400</v>
       </c>
       <c r="F54" s="3">
-        <v>5586200</v>
+        <v>5261000</v>
       </c>
       <c r="G54" s="3">
-        <v>5004000</v>
+        <v>4712600</v>
       </c>
       <c r="H54" s="3">
-        <v>2744400</v>
+        <v>2584600</v>
       </c>
       <c r="I54" s="3">
-        <v>1859300</v>
+        <v>1751100</v>
       </c>
       <c r="J54" s="3">
-        <v>1836700</v>
+        <v>1729800</v>
       </c>
       <c r="K54" s="3">
         <v>1331300</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>558600</v>
+        <v>526000</v>
       </c>
       <c r="E57" s="3">
-        <v>421200</v>
+        <v>396700</v>
       </c>
       <c r="F57" s="3">
-        <v>338900</v>
+        <v>319200</v>
       </c>
       <c r="G57" s="3">
-        <v>270300</v>
+        <v>254500</v>
       </c>
       <c r="H57" s="3">
-        <v>203400</v>
+        <v>191600</v>
       </c>
       <c r="I57" s="3">
-        <v>90900</v>
+        <v>85600</v>
       </c>
       <c r="J57" s="3">
-        <v>96500</v>
+        <v>90800</v>
       </c>
       <c r="K57" s="3">
         <v>97200</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>65100</v>
+        <v>61300</v>
       </c>
       <c r="E58" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="F58" s="3">
-        <v>407100</v>
+        <v>383400</v>
       </c>
       <c r="G58" s="3">
-        <v>109000</v>
+        <v>102700</v>
       </c>
       <c r="H58" s="3">
-        <v>49500</v>
+        <v>46600</v>
       </c>
       <c r="I58" s="3">
-        <v>131300</v>
+        <v>123600</v>
       </c>
       <c r="J58" s="3">
-        <v>36500</v>
+        <v>34300</v>
       </c>
       <c r="K58" s="3">
         <v>33300</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>526700</v>
+        <v>496000</v>
       </c>
       <c r="E59" s="3">
-        <v>511400</v>
+        <v>481700</v>
       </c>
       <c r="F59" s="3">
-        <v>216500</v>
+        <v>203900</v>
       </c>
       <c r="G59" s="3">
-        <v>175700</v>
+        <v>165500</v>
       </c>
       <c r="H59" s="3">
-        <v>158600</v>
+        <v>149400</v>
       </c>
       <c r="I59" s="3">
-        <v>129600</v>
+        <v>122000</v>
       </c>
       <c r="J59" s="3">
-        <v>102000</v>
+        <v>96000</v>
       </c>
       <c r="K59" s="3">
         <v>122000</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1150300</v>
+        <v>1083300</v>
       </c>
       <c r="E60" s="3">
-        <v>942400</v>
+        <v>887500</v>
       </c>
       <c r="F60" s="3">
-        <v>962500</v>
+        <v>906500</v>
       </c>
       <c r="G60" s="3">
-        <v>555000</v>
+        <v>522700</v>
       </c>
       <c r="H60" s="3">
-        <v>411600</v>
+        <v>387600</v>
       </c>
       <c r="I60" s="3">
-        <v>351700</v>
+        <v>331300</v>
       </c>
       <c r="J60" s="3">
-        <v>234900</v>
+        <v>221200</v>
       </c>
       <c r="K60" s="3">
         <v>239100</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1165600</v>
+        <v>1097800</v>
       </c>
       <c r="E61" s="3">
-        <v>1576800</v>
+        <v>1485000</v>
       </c>
       <c r="F61" s="3">
-        <v>1204900</v>
+        <v>1134700</v>
       </c>
       <c r="G61" s="3">
-        <v>1578200</v>
+        <v>1486300</v>
       </c>
       <c r="H61" s="3">
-        <v>540800</v>
+        <v>509300</v>
       </c>
       <c r="I61" s="3">
-        <v>118900</v>
+        <v>112000</v>
       </c>
       <c r="J61" s="3">
-        <v>172100</v>
+        <v>162000</v>
       </c>
       <c r="K61" s="3">
         <v>99300</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1853700</v>
+        <v>1745700</v>
       </c>
       <c r="E62" s="3">
-        <v>2081000</v>
+        <v>1959900</v>
       </c>
       <c r="F62" s="3">
-        <v>1792500</v>
+        <v>1688100</v>
       </c>
       <c r="G62" s="3">
-        <v>1292200</v>
+        <v>1216900</v>
       </c>
       <c r="H62" s="3">
-        <v>708700</v>
+        <v>667500</v>
       </c>
       <c r="I62" s="3">
-        <v>402900</v>
+        <v>379500</v>
       </c>
       <c r="J62" s="3">
-        <v>444000</v>
+        <v>418100</v>
       </c>
       <c r="K62" s="3">
         <v>365900</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4316700</v>
+        <v>4065300</v>
       </c>
       <c r="E66" s="3">
-        <v>4696800</v>
+        <v>4423300</v>
       </c>
       <c r="F66" s="3">
-        <v>4021400</v>
+        <v>3787300</v>
       </c>
       <c r="G66" s="3">
-        <v>3426700</v>
+        <v>3227200</v>
       </c>
       <c r="H66" s="3">
-        <v>1662300</v>
+        <v>1565500</v>
       </c>
       <c r="I66" s="3">
-        <v>880800</v>
+        <v>829600</v>
       </c>
       <c r="J66" s="3">
-        <v>872600</v>
+        <v>821800</v>
       </c>
       <c r="K66" s="3">
         <v>704000</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2618900</v>
+        <v>2466400</v>
       </c>
       <c r="E72" s="3">
-        <v>-758700</v>
+        <v>-714500</v>
       </c>
       <c r="F72" s="3">
-        <v>-781900</v>
+        <v>-736400</v>
       </c>
       <c r="G72" s="3">
-        <v>-653200</v>
+        <v>-615200</v>
       </c>
       <c r="H72" s="3">
-        <v>-338900</v>
+        <v>-319200</v>
       </c>
       <c r="I72" s="3">
-        <v>-451200</v>
+        <v>-425000</v>
       </c>
       <c r="J72" s="3">
-        <v>-465600</v>
+        <v>-438500</v>
       </c>
       <c r="K72" s="3">
         <v>-521000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4504600</v>
+        <v>4242400</v>
       </c>
       <c r="E76" s="3">
-        <v>1951700</v>
+        <v>1838100</v>
       </c>
       <c r="F76" s="3">
-        <v>1564800</v>
+        <v>1473700</v>
       </c>
       <c r="G76" s="3">
-        <v>1577300</v>
+        <v>1485500</v>
       </c>
       <c r="H76" s="3">
-        <v>1082200</v>
+        <v>1019200</v>
       </c>
       <c r="I76" s="3">
-        <v>978500</v>
+        <v>921500</v>
       </c>
       <c r="J76" s="3">
-        <v>964100</v>
+        <v>908000</v>
       </c>
       <c r="K76" s="3">
         <v>627300</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1928100</v>
+        <v>1815900</v>
       </c>
       <c r="E81" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="F81" s="3">
-        <v>-164400</v>
+        <v>-154900</v>
       </c>
       <c r="G81" s="3">
-        <v>-291900</v>
+        <v>-274900</v>
       </c>
       <c r="H81" s="3">
-        <v>228500</v>
+        <v>215200</v>
       </c>
       <c r="I81" s="3">
-        <v>47200</v>
+        <v>44400</v>
       </c>
       <c r="J81" s="3">
-        <v>102100</v>
+        <v>96100</v>
       </c>
       <c r="K81" s="3">
         <v>112700</v>
@@ -2707,22 +2707,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>499400</v>
+        <v>470300</v>
       </c>
       <c r="E83" s="3">
-        <v>474500</v>
+        <v>446900</v>
       </c>
       <c r="F83" s="3">
-        <v>435100</v>
+        <v>409700</v>
       </c>
       <c r="G83" s="3">
-        <v>374900</v>
+        <v>353100</v>
       </c>
       <c r="H83" s="3">
-        <v>265900</v>
+        <v>250400</v>
       </c>
       <c r="I83" s="3">
-        <v>239200</v>
+        <v>225300</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1785900</v>
+        <v>1681900</v>
       </c>
       <c r="E89" s="3">
-        <v>622500</v>
+        <v>586300</v>
       </c>
       <c r="F89" s="3">
-        <v>802300</v>
+        <v>755600</v>
       </c>
       <c r="G89" s="3">
-        <v>180300</v>
+        <v>169800</v>
       </c>
       <c r="H89" s="3">
-        <v>289800</v>
+        <v>272900</v>
       </c>
       <c r="I89" s="3">
-        <v>231200</v>
+        <v>217800</v>
       </c>
       <c r="J89" s="3">
-        <v>266600</v>
+        <v>251100</v>
       </c>
       <c r="K89" s="3">
         <v>423500</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-632500</v>
+        <v>-595700</v>
       </c>
       <c r="E91" s="3">
-        <v>-506900</v>
+        <v>-477400</v>
       </c>
       <c r="F91" s="3">
-        <v>-465800</v>
+        <v>-438600</v>
       </c>
       <c r="G91" s="3">
-        <v>-401200</v>
+        <v>-377800</v>
       </c>
       <c r="H91" s="3">
-        <v>-273100</v>
+        <v>-257200</v>
       </c>
       <c r="I91" s="3">
-        <v>-220000</v>
+        <v>-207200</v>
       </c>
       <c r="J91" s="3">
-        <v>-213800</v>
+        <v>-201400</v>
       </c>
       <c r="K91" s="3">
         <v>-193200</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-653600</v>
+        <v>-615600</v>
       </c>
       <c r="E94" s="3">
-        <v>-320000</v>
+        <v>-301400</v>
       </c>
       <c r="F94" s="3">
-        <v>-509400</v>
+        <v>-479700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1851300</v>
+        <v>-1743500</v>
       </c>
       <c r="H94" s="3">
-        <v>-621200</v>
+        <v>-585000</v>
       </c>
       <c r="I94" s="3">
-        <v>-219700</v>
+        <v>-206900</v>
       </c>
       <c r="J94" s="3">
-        <v>-283400</v>
+        <v>-266900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-147600</v>
+        <v>-139000</v>
       </c>
       <c r="E100" s="3">
-        <v>-96700</v>
+        <v>-91100</v>
       </c>
       <c r="F100" s="3">
-        <v>-269800</v>
+        <v>-254100</v>
       </c>
       <c r="G100" s="3">
-        <v>1763300</v>
+        <v>1660700</v>
       </c>
       <c r="H100" s="3">
-        <v>358200</v>
+        <v>337400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="J100" s="3">
-        <v>-44300</v>
+        <v>-41700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3215,19 +3215,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22900</v>
+        <v>-21600</v>
       </c>
       <c r="E101" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="F101" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="G101" s="3">
-        <v>-20300</v>
+        <v>-19100</v>
       </c>
       <c r="H101" s="3">
-        <v>-10300</v>
+        <v>-9700</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>961800</v>
+        <v>905800</v>
       </c>
       <c r="E102" s="3">
-        <v>201900</v>
+        <v>190200</v>
       </c>
       <c r="F102" s="3">
-        <v>32000</v>
+        <v>30200</v>
       </c>
       <c r="G102" s="3">
-        <v>72000</v>
+        <v>67800</v>
       </c>
       <c r="H102" s="3">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="I102" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="J102" s="3">
-        <v>-61100</v>
+        <v>-57600</v>
       </c>
       <c r="K102" s="3">
         <v>79900</v>

--- a/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>SBSW</t>
   </si>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7892000</v>
+        <v>8457600</v>
       </c>
       <c r="E8" s="3">
-        <v>4517700</v>
+        <v>4841500</v>
       </c>
       <c r="F8" s="3">
-        <v>3138200</v>
+        <v>3363100</v>
       </c>
       <c r="G8" s="3">
-        <v>2844200</v>
+        <v>3048100</v>
       </c>
       <c r="H8" s="3">
-        <v>1935400</v>
+        <v>2074100</v>
       </c>
       <c r="I8" s="3">
-        <v>1407300</v>
+        <v>1508200</v>
       </c>
       <c r="J8" s="3">
-        <v>1349300</v>
+        <v>1446000</v>
       </c>
       <c r="K8" s="3">
         <v>1287100</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5274000</v>
+        <v>5652000</v>
       </c>
       <c r="E9" s="3">
-        <v>3949000</v>
+        <v>4232100</v>
       </c>
       <c r="F9" s="3">
-        <v>2994800</v>
+        <v>3209400</v>
       </c>
       <c r="G9" s="3">
-        <v>2637900</v>
+        <v>2826900</v>
       </c>
       <c r="H9" s="3">
-        <v>2851400</v>
+        <v>3055700</v>
       </c>
       <c r="I9" s="3">
-        <v>1264900</v>
+        <v>1355500</v>
       </c>
       <c r="J9" s="3">
-        <v>1114900</v>
+        <v>1194800</v>
       </c>
       <c r="K9" s="3">
         <v>1136000</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2617900</v>
+        <v>2805500</v>
       </c>
       <c r="E10" s="3">
-        <v>568700</v>
+        <v>609500</v>
       </c>
       <c r="F10" s="3">
-        <v>143400</v>
+        <v>153700</v>
       </c>
       <c r="G10" s="3">
-        <v>206300</v>
+        <v>221100</v>
       </c>
       <c r="H10" s="3">
-        <v>-916000</v>
+        <v>-981600</v>
       </c>
       <c r="I10" s="3">
-        <v>142500</v>
+        <v>152700</v>
       </c>
       <c r="J10" s="3">
-        <v>234400</v>
+        <v>251200</v>
       </c>
       <c r="K10" s="3">
         <v>151100</v>
@@ -833,10 +833,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>127400</v>
+        <v>136600</v>
       </c>
       <c r="E14" s="3">
-        <v>42300</v>
+        <v>45400</v>
       </c>
       <c r="F14" s="3">
-        <v>222200</v>
+        <v>238100</v>
       </c>
       <c r="G14" s="3">
-        <v>352700</v>
+        <v>378000</v>
       </c>
       <c r="H14" s="3">
-        <v>-28100</v>
+        <v>-30100</v>
       </c>
       <c r="I14" s="3">
-        <v>8100</v>
+        <v>8700</v>
       </c>
       <c r="J14" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="K14" s="3">
         <v>86300</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5433200</v>
+        <v>5822600</v>
       </c>
       <c r="E17" s="3">
-        <v>4013900</v>
+        <v>4301500</v>
       </c>
       <c r="F17" s="3">
-        <v>3235500</v>
+        <v>3467400</v>
       </c>
       <c r="G17" s="3">
-        <v>3004900</v>
+        <v>3220300</v>
       </c>
       <c r="H17" s="3">
-        <v>1571100</v>
+        <v>1683700</v>
       </c>
       <c r="I17" s="3">
-        <v>1291400</v>
+        <v>1384000</v>
       </c>
       <c r="J17" s="3">
-        <v>1146200</v>
+        <v>1228400</v>
       </c>
       <c r="K17" s="3">
         <v>1138400</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2458700</v>
+        <v>2635000</v>
       </c>
       <c r="E18" s="3">
-        <v>503900</v>
+        <v>540000</v>
       </c>
       <c r="F18" s="3">
-        <v>-97300</v>
+        <v>-104300</v>
       </c>
       <c r="G18" s="3">
-        <v>-160700</v>
+        <v>-172200</v>
       </c>
       <c r="H18" s="3">
-        <v>364200</v>
+        <v>390400</v>
       </c>
       <c r="I18" s="3">
-        <v>115900</v>
+        <v>124200</v>
       </c>
       <c r="J18" s="3">
-        <v>203100</v>
+        <v>217600</v>
       </c>
       <c r="K18" s="3">
         <v>148700</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-154400</v>
+        <v>-165500</v>
       </c>
       <c r="E20" s="3">
-        <v>-469600</v>
+        <v>-503300</v>
       </c>
       <c r="F20" s="3">
-        <v>139100</v>
+        <v>149100</v>
       </c>
       <c r="G20" s="3">
-        <v>-151300</v>
+        <v>-162100</v>
       </c>
       <c r="H20" s="3">
-        <v>-66000</v>
+        <v>-70800</v>
       </c>
       <c r="I20" s="3">
-        <v>-37500</v>
+        <v>-40200</v>
       </c>
       <c r="J20" s="3">
-        <v>-44100</v>
+        <v>-47300</v>
       </c>
       <c r="K20" s="3">
         <v>2700</v>
@@ -1053,22 +1053,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2770100</v>
+        <v>2975600</v>
       </c>
       <c r="E21" s="3">
-        <v>476800</v>
+        <v>517600</v>
       </c>
       <c r="F21" s="3">
-        <v>447400</v>
+        <v>485600</v>
       </c>
       <c r="G21" s="3">
-        <v>37600</v>
+        <v>45600</v>
       </c>
       <c r="H21" s="3">
-        <v>546100</v>
+        <v>589000</v>
       </c>
       <c r="I21" s="3">
-        <v>301500</v>
+        <v>326400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>106400</v>
+        <v>114000</v>
       </c>
       <c r="E22" s="3">
-        <v>114800</v>
+        <v>123000</v>
       </c>
       <c r="F22" s="3">
-        <v>130800</v>
+        <v>140100</v>
       </c>
       <c r="G22" s="3">
-        <v>145200</v>
+        <v>155600</v>
       </c>
       <c r="H22" s="3">
-        <v>35200</v>
+        <v>37800</v>
       </c>
       <c r="I22" s="3">
-        <v>21700</v>
+        <v>23200</v>
       </c>
       <c r="J22" s="3">
-        <v>14300</v>
+        <v>15300</v>
       </c>
       <c r="K22" s="3">
         <v>21300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2198000</v>
+        <v>2355500</v>
       </c>
       <c r="E23" s="3">
-        <v>-80500</v>
+        <v>-86300</v>
       </c>
       <c r="F23" s="3">
-        <v>-89000</v>
+        <v>-95400</v>
       </c>
       <c r="G23" s="3">
-        <v>-457200</v>
+        <v>-489900</v>
       </c>
       <c r="H23" s="3">
-        <v>263000</v>
+        <v>281800</v>
       </c>
       <c r="I23" s="3">
-        <v>56700</v>
+        <v>60800</v>
       </c>
       <c r="J23" s="3">
-        <v>144700</v>
+        <v>155000</v>
       </c>
       <c r="K23" s="3">
         <v>130100</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>301000</v>
+        <v>322500</v>
       </c>
       <c r="E24" s="3">
-        <v>-107400</v>
+        <v>-115100</v>
       </c>
       <c r="F24" s="3">
-        <v>67100</v>
+        <v>72000</v>
       </c>
       <c r="G24" s="3">
-        <v>-182500</v>
+        <v>-195600</v>
       </c>
       <c r="H24" s="3">
-        <v>74500</v>
+        <v>79800</v>
       </c>
       <c r="I24" s="3">
-        <v>23400</v>
+        <v>25000</v>
       </c>
       <c r="J24" s="3">
-        <v>51300</v>
+        <v>55000</v>
       </c>
       <c r="K24" s="3">
         <v>17100</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1897000</v>
+        <v>2033000</v>
       </c>
       <c r="E26" s="3">
-        <v>26800</v>
+        <v>28700</v>
       </c>
       <c r="F26" s="3">
-        <v>-156200</v>
+        <v>-167300</v>
       </c>
       <c r="G26" s="3">
-        <v>-274600</v>
+        <v>-294300</v>
       </c>
       <c r="H26" s="3">
-        <v>188500</v>
+        <v>202000</v>
       </c>
       <c r="I26" s="3">
-        <v>33300</v>
+        <v>35700</v>
       </c>
       <c r="J26" s="3">
-        <v>93400</v>
+        <v>100000</v>
       </c>
       <c r="K26" s="3">
         <v>113100</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1815900</v>
+        <v>1946000</v>
       </c>
       <c r="E27" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="F27" s="3">
-        <v>-154900</v>
+        <v>-165900</v>
       </c>
       <c r="G27" s="3">
-        <v>-274900</v>
+        <v>-294600</v>
       </c>
       <c r="H27" s="3">
-        <v>215200</v>
+        <v>230600</v>
       </c>
       <c r="I27" s="3">
-        <v>44400</v>
+        <v>47600</v>
       </c>
       <c r="J27" s="3">
-        <v>96100</v>
+        <v>103000</v>
       </c>
       <c r="K27" s="3">
         <v>112700</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>154400</v>
+        <v>165500</v>
       </c>
       <c r="E32" s="3">
-        <v>469600</v>
+        <v>503300</v>
       </c>
       <c r="F32" s="3">
-        <v>-139100</v>
+        <v>-149100</v>
       </c>
       <c r="G32" s="3">
-        <v>151300</v>
+        <v>162100</v>
       </c>
       <c r="H32" s="3">
-        <v>66000</v>
+        <v>70800</v>
       </c>
       <c r="I32" s="3">
-        <v>37500</v>
+        <v>40200</v>
       </c>
       <c r="J32" s="3">
-        <v>44100</v>
+        <v>47300</v>
       </c>
       <c r="K32" s="3">
         <v>-2700</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1815900</v>
+        <v>1946000</v>
       </c>
       <c r="E33" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="F33" s="3">
-        <v>-154900</v>
+        <v>-165900</v>
       </c>
       <c r="G33" s="3">
-        <v>-274900</v>
+        <v>-294600</v>
       </c>
       <c r="H33" s="3">
-        <v>215200</v>
+        <v>230600</v>
       </c>
       <c r="I33" s="3">
-        <v>44400</v>
+        <v>47600</v>
       </c>
       <c r="J33" s="3">
-        <v>96100</v>
+        <v>103000</v>
       </c>
       <c r="K33" s="3">
         <v>112700</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1815900</v>
+        <v>1946000</v>
       </c>
       <c r="E35" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="F35" s="3">
-        <v>-154900</v>
+        <v>-165900</v>
       </c>
       <c r="G35" s="3">
-        <v>-274900</v>
+        <v>-294600</v>
       </c>
       <c r="H35" s="3">
-        <v>215200</v>
+        <v>230600</v>
       </c>
       <c r="I35" s="3">
-        <v>44400</v>
+        <v>47600</v>
       </c>
       <c r="J35" s="3">
-        <v>96100</v>
+        <v>103000</v>
       </c>
       <c r="K35" s="3">
         <v>112700</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1253900</v>
+        <v>2011100</v>
       </c>
       <c r="E41" s="3">
-        <v>348100</v>
+        <v>1343700</v>
       </c>
       <c r="F41" s="3">
-        <v>157500</v>
+        <v>373000</v>
       </c>
       <c r="G41" s="3">
-        <v>127400</v>
+        <v>168800</v>
       </c>
       <c r="H41" s="3">
-        <v>55200</v>
+        <v>136500</v>
       </c>
       <c r="I41" s="3">
-        <v>44400</v>
+        <v>59200</v>
       </c>
       <c r="J41" s="3">
-        <v>34900</v>
+        <v>47600</v>
       </c>
       <c r="K41" s="3">
         <v>81700</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>413900</v>
+        <v>609400</v>
       </c>
       <c r="E43" s="3">
-        <v>284900</v>
+        <v>443600</v>
       </c>
       <c r="F43" s="3">
-        <v>437000</v>
+        <v>305300</v>
       </c>
       <c r="G43" s="3">
-        <v>382300</v>
+        <v>468300</v>
       </c>
       <c r="H43" s="3">
-        <v>356900</v>
+        <v>409700</v>
       </c>
       <c r="I43" s="3">
-        <v>93200</v>
+        <v>382400</v>
       </c>
       <c r="J43" s="3">
-        <v>57200</v>
+        <v>99800</v>
       </c>
       <c r="K43" s="3">
         <v>63300</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1545800</v>
+        <v>1665100</v>
       </c>
       <c r="E44" s="3">
-        <v>960400</v>
+        <v>1656600</v>
       </c>
       <c r="F44" s="3">
-        <v>328000</v>
+        <v>1029300</v>
       </c>
       <c r="G44" s="3">
-        <v>218500</v>
+        <v>351500</v>
       </c>
       <c r="H44" s="3">
-        <v>41900</v>
+        <v>234100</v>
       </c>
       <c r="I44" s="3">
-        <v>25100</v>
+        <v>44900</v>
       </c>
       <c r="J44" s="3">
-        <v>20300</v>
+        <v>26900</v>
       </c>
       <c r="K44" s="3">
         <v>13700</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22800</v>
+        <v>18600</v>
       </c>
       <c r="E45" s="3">
-        <v>27400</v>
+        <v>24500</v>
       </c>
       <c r="F45" s="3">
-        <v>18800</v>
+        <v>29400</v>
       </c>
       <c r="G45" s="3">
-        <v>15600</v>
+        <v>20100</v>
       </c>
       <c r="H45" s="3">
-        <v>23200</v>
+        <v>16700</v>
       </c>
       <c r="I45" s="3">
-        <v>7700</v>
+        <v>24900</v>
       </c>
       <c r="J45" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="K45" s="3">
         <v>38500</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3236400</v>
+        <v>4304100</v>
       </c>
       <c r="E46" s="3">
-        <v>1620800</v>
+        <v>3468400</v>
       </c>
       <c r="F46" s="3">
-        <v>941300</v>
+        <v>1737000</v>
       </c>
       <c r="G46" s="3">
-        <v>743700</v>
+        <v>1008800</v>
       </c>
       <c r="H46" s="3">
-        <v>477200</v>
+        <v>797000</v>
       </c>
       <c r="I46" s="3">
-        <v>170400</v>
+        <v>511400</v>
       </c>
       <c r="J46" s="3">
-        <v>120200</v>
+        <v>182600</v>
       </c>
       <c r="K46" s="3">
         <v>180100</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>399100</v>
+        <v>547400</v>
       </c>
       <c r="E47" s="3">
-        <v>292500</v>
+        <v>427700</v>
       </c>
       <c r="F47" s="3">
-        <v>250800</v>
+        <v>313500</v>
       </c>
       <c r="G47" s="3">
-        <v>156600</v>
+        <v>268800</v>
       </c>
       <c r="H47" s="3">
-        <v>155700</v>
+        <v>167800</v>
       </c>
       <c r="I47" s="3">
-        <v>10500</v>
+        <v>166800</v>
       </c>
       <c r="J47" s="3">
-        <v>4400</v>
+        <v>11200</v>
       </c>
       <c r="K47" s="3">
         <v>18400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3772500</v>
+        <v>4163700</v>
       </c>
       <c r="E48" s="3">
-        <v>3583300</v>
+        <v>4042900</v>
       </c>
       <c r="F48" s="3">
-        <v>3379900</v>
+        <v>3840100</v>
       </c>
       <c r="G48" s="3">
-        <v>3187000</v>
+        <v>3622100</v>
       </c>
       <c r="H48" s="3">
-        <v>1687600</v>
+        <v>3415400</v>
       </c>
       <c r="I48" s="3">
-        <v>1371100</v>
+        <v>1808500</v>
       </c>
       <c r="J48" s="3">
-        <v>1406500</v>
+        <v>1469400</v>
       </c>
       <c r="K48" s="3">
         <v>1106300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>443900</v>
+        <v>513000</v>
       </c>
       <c r="E49" s="3">
-        <v>424700</v>
+        <v>475700</v>
       </c>
       <c r="F49" s="3">
-        <v>426800</v>
+        <v>455100</v>
       </c>
       <c r="G49" s="3">
-        <v>396200</v>
+        <v>457400</v>
       </c>
       <c r="H49" s="3">
-        <v>58000</v>
+        <v>424600</v>
       </c>
       <c r="I49" s="3">
-        <v>45600</v>
+        <v>62100</v>
       </c>
       <c r="J49" s="3">
-        <v>45600</v>
+        <v>48900</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>455800</v>
+        <v>629000</v>
       </c>
       <c r="E52" s="3">
-        <v>340100</v>
+        <v>488500</v>
       </c>
       <c r="F52" s="3">
-        <v>262100</v>
+        <v>364500</v>
       </c>
       <c r="G52" s="3">
-        <v>229100</v>
+        <v>280900</v>
       </c>
       <c r="H52" s="3">
-        <v>206200</v>
+        <v>245600</v>
       </c>
       <c r="I52" s="3">
-        <v>153500</v>
+        <v>221000</v>
       </c>
       <c r="J52" s="3">
-        <v>153000</v>
+        <v>164500</v>
       </c>
       <c r="K52" s="3">
         <v>124000</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8307700</v>
+        <v>10157300</v>
       </c>
       <c r="E54" s="3">
-        <v>6261400</v>
+        <v>8903100</v>
       </c>
       <c r="F54" s="3">
-        <v>5261000</v>
+        <v>6710200</v>
       </c>
       <c r="G54" s="3">
-        <v>4712600</v>
+        <v>5638000</v>
       </c>
       <c r="H54" s="3">
-        <v>2584600</v>
+        <v>5050400</v>
       </c>
       <c r="I54" s="3">
-        <v>1751100</v>
+        <v>2769900</v>
       </c>
       <c r="J54" s="3">
-        <v>1729800</v>
+        <v>1876600</v>
       </c>
       <c r="K54" s="3">
         <v>1331300</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>526000</v>
+        <v>1006600</v>
       </c>
       <c r="E57" s="3">
-        <v>396700</v>
+        <v>563700</v>
       </c>
       <c r="F57" s="3">
-        <v>319200</v>
+        <v>425100</v>
       </c>
       <c r="G57" s="3">
-        <v>254500</v>
+        <v>342100</v>
       </c>
       <c r="H57" s="3">
-        <v>191600</v>
+        <v>272800</v>
       </c>
       <c r="I57" s="3">
-        <v>85600</v>
+        <v>205300</v>
       </c>
       <c r="J57" s="3">
-        <v>90800</v>
+        <v>91800</v>
       </c>
       <c r="K57" s="3">
         <v>97200</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>61300</v>
+        <v>14000</v>
       </c>
       <c r="E58" s="3">
-        <v>9200</v>
+        <v>65700</v>
       </c>
       <c r="F58" s="3">
-        <v>383400</v>
+        <v>9800</v>
       </c>
       <c r="G58" s="3">
-        <v>102700</v>
+        <v>410800</v>
       </c>
       <c r="H58" s="3">
-        <v>46600</v>
+        <v>110000</v>
       </c>
       <c r="I58" s="3">
-        <v>123600</v>
+        <v>49900</v>
       </c>
       <c r="J58" s="3">
-        <v>34300</v>
+        <v>132500</v>
       </c>
       <c r="K58" s="3">
         <v>33300</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>496000</v>
+        <v>343100</v>
       </c>
       <c r="E59" s="3">
-        <v>481700</v>
+        <v>531600</v>
       </c>
       <c r="F59" s="3">
-        <v>203900</v>
+        <v>516200</v>
       </c>
       <c r="G59" s="3">
-        <v>165500</v>
+        <v>218500</v>
       </c>
       <c r="H59" s="3">
-        <v>149400</v>
+        <v>177400</v>
       </c>
       <c r="I59" s="3">
-        <v>122000</v>
+        <v>160100</v>
       </c>
       <c r="J59" s="3">
-        <v>96000</v>
+        <v>130800</v>
       </c>
       <c r="K59" s="3">
         <v>122000</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1083300</v>
+        <v>1363700</v>
       </c>
       <c r="E60" s="3">
-        <v>887500</v>
+        <v>1161000</v>
       </c>
       <c r="F60" s="3">
-        <v>906500</v>
+        <v>951200</v>
       </c>
       <c r="G60" s="3">
-        <v>522700</v>
+        <v>971500</v>
       </c>
       <c r="H60" s="3">
-        <v>387600</v>
+        <v>560200</v>
       </c>
       <c r="I60" s="3">
-        <v>331300</v>
+        <v>415400</v>
       </c>
       <c r="J60" s="3">
-        <v>221200</v>
+        <v>355000</v>
       </c>
       <c r="K60" s="3">
         <v>239100</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1097800</v>
+        <v>1352200</v>
       </c>
       <c r="E61" s="3">
-        <v>1485000</v>
+        <v>1176400</v>
       </c>
       <c r="F61" s="3">
-        <v>1134700</v>
+        <v>1591400</v>
       </c>
       <c r="G61" s="3">
-        <v>1486300</v>
+        <v>1216000</v>
       </c>
       <c r="H61" s="3">
-        <v>509300</v>
+        <v>1592800</v>
       </c>
       <c r="I61" s="3">
-        <v>112000</v>
+        <v>545800</v>
       </c>
       <c r="J61" s="3">
-        <v>162000</v>
+        <v>120100</v>
       </c>
       <c r="K61" s="3">
         <v>99300</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1745700</v>
+        <v>2040800</v>
       </c>
       <c r="E62" s="3">
-        <v>1959900</v>
+        <v>1870900</v>
       </c>
       <c r="F62" s="3">
-        <v>1688100</v>
+        <v>2100300</v>
       </c>
       <c r="G62" s="3">
-        <v>1216900</v>
+        <v>1809100</v>
       </c>
       <c r="H62" s="3">
-        <v>667500</v>
+        <v>1304200</v>
       </c>
       <c r="I62" s="3">
-        <v>379500</v>
+        <v>715300</v>
       </c>
       <c r="J62" s="3">
-        <v>418100</v>
+        <v>406700</v>
       </c>
       <c r="K62" s="3">
         <v>365900</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4065300</v>
+        <v>4850300</v>
       </c>
       <c r="E66" s="3">
-        <v>4423300</v>
+        <v>4356700</v>
       </c>
       <c r="F66" s="3">
-        <v>3787300</v>
+        <v>4740300</v>
       </c>
       <c r="G66" s="3">
-        <v>3227200</v>
+        <v>4058700</v>
       </c>
       <c r="H66" s="3">
-        <v>1565500</v>
+        <v>3458500</v>
       </c>
       <c r="I66" s="3">
-        <v>829600</v>
+        <v>1677700</v>
       </c>
       <c r="J66" s="3">
-        <v>821800</v>
+        <v>889000</v>
       </c>
       <c r="K66" s="3">
         <v>704000</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2466400</v>
+        <v>3869900</v>
       </c>
       <c r="E72" s="3">
-        <v>-714500</v>
+        <v>2643200</v>
       </c>
       <c r="F72" s="3">
-        <v>-736400</v>
+        <v>-765700</v>
       </c>
       <c r="G72" s="3">
-        <v>-615200</v>
+        <v>-789100</v>
       </c>
       <c r="H72" s="3">
-        <v>-319200</v>
+        <v>-659300</v>
       </c>
       <c r="I72" s="3">
-        <v>-425000</v>
+        <v>-342000</v>
       </c>
       <c r="J72" s="3">
-        <v>-438500</v>
+        <v>-455400</v>
       </c>
       <c r="K72" s="3">
         <v>-521000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4242400</v>
+        <v>5307000</v>
       </c>
       <c r="E76" s="3">
-        <v>1838100</v>
+        <v>4546400</v>
       </c>
       <c r="F76" s="3">
-        <v>1473700</v>
+        <v>1969800</v>
       </c>
       <c r="G76" s="3">
-        <v>1485500</v>
+        <v>1579300</v>
       </c>
       <c r="H76" s="3">
-        <v>1019200</v>
+        <v>1591900</v>
       </c>
       <c r="I76" s="3">
-        <v>921500</v>
+        <v>1092200</v>
       </c>
       <c r="J76" s="3">
-        <v>908000</v>
+        <v>987600</v>
       </c>
       <c r="K76" s="3">
         <v>627300</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1815900</v>
+        <v>1946000</v>
       </c>
       <c r="E81" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="F81" s="3">
-        <v>-154900</v>
+        <v>-165900</v>
       </c>
       <c r="G81" s="3">
-        <v>-274900</v>
+        <v>-294600</v>
       </c>
       <c r="H81" s="3">
-        <v>215200</v>
+        <v>230600</v>
       </c>
       <c r="I81" s="3">
-        <v>44400</v>
+        <v>47600</v>
       </c>
       <c r="J81" s="3">
-        <v>96100</v>
+        <v>103000</v>
       </c>
       <c r="K81" s="3">
         <v>112700</v>
@@ -2707,22 +2707,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>470300</v>
+        <v>504100</v>
       </c>
       <c r="E83" s="3">
-        <v>446900</v>
+        <v>478900</v>
       </c>
       <c r="F83" s="3">
-        <v>409700</v>
+        <v>439100</v>
       </c>
       <c r="G83" s="3">
-        <v>353100</v>
+        <v>378400</v>
       </c>
       <c r="H83" s="3">
-        <v>250400</v>
+        <v>268300</v>
       </c>
       <c r="I83" s="3">
-        <v>225300</v>
+        <v>241400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1681900</v>
+        <v>1802400</v>
       </c>
       <c r="E89" s="3">
-        <v>586300</v>
+        <v>628300</v>
       </c>
       <c r="F89" s="3">
-        <v>755600</v>
+        <v>809800</v>
       </c>
       <c r="G89" s="3">
-        <v>169800</v>
+        <v>182000</v>
       </c>
       <c r="H89" s="3">
-        <v>272900</v>
+        <v>292500</v>
       </c>
       <c r="I89" s="3">
-        <v>217800</v>
+        <v>233400</v>
       </c>
       <c r="J89" s="3">
-        <v>251100</v>
+        <v>269100</v>
       </c>
       <c r="K89" s="3">
         <v>423500</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-595700</v>
+        <v>-638400</v>
       </c>
       <c r="E91" s="3">
-        <v>-477400</v>
+        <v>-511600</v>
       </c>
       <c r="F91" s="3">
-        <v>-438600</v>
+        <v>-470100</v>
       </c>
       <c r="G91" s="3">
-        <v>-377800</v>
+        <v>-404900</v>
       </c>
       <c r="H91" s="3">
-        <v>-257200</v>
+        <v>-275600</v>
       </c>
       <c r="I91" s="3">
-        <v>-207200</v>
+        <v>-222100</v>
       </c>
       <c r="J91" s="3">
-        <v>-201400</v>
+        <v>-215800</v>
       </c>
       <c r="K91" s="3">
         <v>-193200</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-615600</v>
+        <v>-659700</v>
       </c>
       <c r="E94" s="3">
-        <v>-301400</v>
+        <v>-323000</v>
       </c>
       <c r="F94" s="3">
-        <v>-479700</v>
+        <v>-514100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1743500</v>
+        <v>-1868500</v>
       </c>
       <c r="H94" s="3">
-        <v>-585000</v>
+        <v>-627000</v>
       </c>
       <c r="I94" s="3">
-        <v>-206900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-266900</v>
+        <v>-221700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-139000</v>
+        <v>-149000</v>
       </c>
       <c r="E100" s="3">
-        <v>-91100</v>
+        <v>-97600</v>
       </c>
       <c r="F100" s="3">
-        <v>-254100</v>
+        <v>-272300</v>
       </c>
       <c r="G100" s="3">
-        <v>1660700</v>
+        <v>1779700</v>
       </c>
       <c r="H100" s="3">
-        <v>337400</v>
+        <v>361500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-41700</v>
+        <v>-1400</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3215,19 +3215,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-21600</v>
+        <v>-23100</v>
       </c>
       <c r="E101" s="3">
-        <v>-3700</v>
+        <v>-3900</v>
       </c>
       <c r="F101" s="3">
-        <v>8300</v>
+        <v>8900</v>
       </c>
       <c r="G101" s="3">
-        <v>-19100</v>
+        <v>-20500</v>
       </c>
       <c r="H101" s="3">
-        <v>-9700</v>
+        <v>-10400</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>905800</v>
+        <v>970700</v>
       </c>
       <c r="E102" s="3">
-        <v>190200</v>
+        <v>203800</v>
       </c>
       <c r="F102" s="3">
-        <v>30200</v>
+        <v>32300</v>
       </c>
       <c r="G102" s="3">
-        <v>67800</v>
+        <v>72700</v>
       </c>
       <c r="H102" s="3">
-        <v>15500</v>
+        <v>16600</v>
       </c>
       <c r="I102" s="3">
-        <v>9600</v>
+        <v>10300</v>
       </c>
       <c r="J102" s="3">
-        <v>-57600</v>
+        <v>-61700</v>
       </c>
       <c r="K102" s="3">
         <v>79900</v>

--- a/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>SBSW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8457600</v>
+        <v>10695000</v>
       </c>
       <c r="E8" s="3">
-        <v>4841500</v>
+        <v>7912300</v>
       </c>
       <c r="F8" s="3">
-        <v>3363100</v>
+        <v>4529400</v>
       </c>
       <c r="G8" s="3">
-        <v>3048100</v>
+        <v>3146300</v>
       </c>
       <c r="H8" s="3">
-        <v>2074100</v>
+        <v>2851600</v>
       </c>
       <c r="I8" s="3">
-        <v>1508200</v>
+        <v>1940400</v>
       </c>
       <c r="J8" s="3">
+        <v>1411000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1446000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1287100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5652000</v>
+        <v>6957600</v>
       </c>
       <c r="E9" s="3">
-        <v>4232100</v>
+        <v>5287700</v>
       </c>
       <c r="F9" s="3">
-        <v>3209400</v>
+        <v>3959200</v>
       </c>
       <c r="G9" s="3">
-        <v>2826900</v>
+        <v>3002500</v>
       </c>
       <c r="H9" s="3">
-        <v>3055700</v>
+        <v>2644700</v>
       </c>
       <c r="I9" s="3">
-        <v>1355500</v>
+        <v>2858700</v>
       </c>
       <c r="J9" s="3">
+        <v>1268100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1194800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1136000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2805500</v>
+        <v>3737400</v>
       </c>
       <c r="E10" s="3">
-        <v>609500</v>
+        <v>2624700</v>
       </c>
       <c r="F10" s="3">
-        <v>153700</v>
+        <v>570200</v>
       </c>
       <c r="G10" s="3">
-        <v>221100</v>
+        <v>143800</v>
       </c>
       <c r="H10" s="3">
-        <v>-981600</v>
+        <v>206900</v>
       </c>
       <c r="I10" s="3">
-        <v>152700</v>
+        <v>-918400</v>
       </c>
       <c r="J10" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K10" s="3">
         <v>251200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>151100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -832,18 +845,21 @@
       <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
-        <v>1600</v>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>136600</v>
+        <v>335300</v>
       </c>
       <c r="E14" s="3">
-        <v>45400</v>
+        <v>127800</v>
       </c>
       <c r="F14" s="3">
-        <v>238100</v>
+        <v>42400</v>
       </c>
       <c r="G14" s="3">
-        <v>378000</v>
+        <v>222800</v>
       </c>
       <c r="H14" s="3">
-        <v>-30100</v>
+        <v>353600</v>
       </c>
       <c r="I14" s="3">
-        <v>8700</v>
+        <v>-28100</v>
       </c>
       <c r="J14" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K14" s="3">
         <v>4800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>86300</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5822600</v>
+        <v>7316600</v>
       </c>
       <c r="E17" s="3">
-        <v>4301500</v>
+        <v>5447300</v>
       </c>
       <c r="F17" s="3">
-        <v>3467400</v>
+        <v>4024200</v>
       </c>
       <c r="G17" s="3">
-        <v>3220300</v>
+        <v>3243900</v>
       </c>
       <c r="H17" s="3">
-        <v>1683700</v>
+        <v>3012700</v>
       </c>
       <c r="I17" s="3">
-        <v>1384000</v>
+        <v>1575200</v>
       </c>
       <c r="J17" s="3">
+        <v>1294800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1228400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1138400</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2635000</v>
+        <v>3378300</v>
       </c>
       <c r="E18" s="3">
-        <v>540000</v>
+        <v>2465100</v>
       </c>
       <c r="F18" s="3">
-        <v>-104300</v>
+        <v>505200</v>
       </c>
       <c r="G18" s="3">
-        <v>-172200</v>
+        <v>-97600</v>
       </c>
       <c r="H18" s="3">
-        <v>390400</v>
+        <v>-161100</v>
       </c>
       <c r="I18" s="3">
-        <v>124200</v>
+        <v>365200</v>
       </c>
       <c r="J18" s="3">
+        <v>116200</v>
+      </c>
+      <c r="K18" s="3">
         <v>217600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>148700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-165500</v>
+        <v>-354300</v>
       </c>
       <c r="E20" s="3">
-        <v>-503300</v>
+        <v>-154800</v>
       </c>
       <c r="F20" s="3">
-        <v>149100</v>
+        <v>-470800</v>
       </c>
       <c r="G20" s="3">
-        <v>-162100</v>
+        <v>139400</v>
       </c>
       <c r="H20" s="3">
-        <v>-70800</v>
+        <v>-151700</v>
       </c>
       <c r="I20" s="3">
-        <v>-40200</v>
+        <v>-66200</v>
       </c>
       <c r="J20" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-47300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2975600</v>
+        <v>3539600</v>
       </c>
       <c r="E21" s="3">
-        <v>517600</v>
+        <v>2782300</v>
       </c>
       <c r="F21" s="3">
-        <v>485600</v>
+        <v>482800</v>
       </c>
       <c r="G21" s="3">
-        <v>45600</v>
+        <v>453000</v>
       </c>
       <c r="H21" s="3">
-        <v>589000</v>
+        <v>41600</v>
       </c>
       <c r="I21" s="3">
-        <v>326400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>550300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>304700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>114000</v>
+        <v>70300</v>
       </c>
       <c r="E22" s="3">
-        <v>123000</v>
+        <v>106600</v>
       </c>
       <c r="F22" s="3">
-        <v>140100</v>
+        <v>115100</v>
       </c>
       <c r="G22" s="3">
-        <v>155600</v>
+        <v>131100</v>
       </c>
       <c r="H22" s="3">
-        <v>37800</v>
+        <v>145600</v>
       </c>
       <c r="I22" s="3">
-        <v>23200</v>
+        <v>35300</v>
       </c>
       <c r="J22" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K22" s="3">
         <v>15300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2355500</v>
+        <v>2953800</v>
       </c>
       <c r="E23" s="3">
-        <v>-86300</v>
+        <v>2203700</v>
       </c>
       <c r="F23" s="3">
-        <v>-95400</v>
+        <v>-80800</v>
       </c>
       <c r="G23" s="3">
-        <v>-489900</v>
+        <v>-89200</v>
       </c>
       <c r="H23" s="3">
-        <v>281800</v>
+        <v>-458400</v>
       </c>
       <c r="I23" s="3">
-        <v>60800</v>
+        <v>263600</v>
       </c>
       <c r="J23" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K23" s="3">
         <v>155000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>130100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>322500</v>
+        <v>854700</v>
       </c>
       <c r="E24" s="3">
-        <v>-115100</v>
+        <v>301700</v>
       </c>
       <c r="F24" s="3">
-        <v>72000</v>
+        <v>-107600</v>
       </c>
       <c r="G24" s="3">
-        <v>-195600</v>
+        <v>67300</v>
       </c>
       <c r="H24" s="3">
-        <v>79800</v>
+        <v>-183000</v>
       </c>
       <c r="I24" s="3">
-        <v>25000</v>
+        <v>74700</v>
       </c>
       <c r="J24" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K24" s="3">
         <v>55000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2033000</v>
+        <v>2099100</v>
       </c>
       <c r="E26" s="3">
-        <v>28700</v>
+        <v>1901900</v>
       </c>
       <c r="F26" s="3">
-        <v>-167300</v>
+        <v>26900</v>
       </c>
       <c r="G26" s="3">
-        <v>-294300</v>
+        <v>-156600</v>
       </c>
       <c r="H26" s="3">
-        <v>202000</v>
+        <v>-275300</v>
       </c>
       <c r="I26" s="3">
-        <v>35700</v>
+        <v>189000</v>
       </c>
       <c r="J26" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K26" s="3">
         <v>100000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>113100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1946000</v>
+        <v>2053000</v>
       </c>
       <c r="E27" s="3">
-        <v>4100</v>
+        <v>1820600</v>
       </c>
       <c r="F27" s="3">
-        <v>-165900</v>
+        <v>3900</v>
       </c>
       <c r="G27" s="3">
-        <v>-294600</v>
+        <v>-155300</v>
       </c>
       <c r="H27" s="3">
-        <v>230600</v>
+        <v>-275600</v>
       </c>
       <c r="I27" s="3">
-        <v>47600</v>
+        <v>215700</v>
       </c>
       <c r="J27" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K27" s="3">
         <v>103000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>112700</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>165500</v>
+        <v>354300</v>
       </c>
       <c r="E32" s="3">
-        <v>503300</v>
+        <v>154800</v>
       </c>
       <c r="F32" s="3">
-        <v>-149100</v>
+        <v>470800</v>
       </c>
       <c r="G32" s="3">
-        <v>162100</v>
+        <v>-139400</v>
       </c>
       <c r="H32" s="3">
-        <v>70800</v>
+        <v>151700</v>
       </c>
       <c r="I32" s="3">
-        <v>40200</v>
+        <v>66200</v>
       </c>
       <c r="J32" s="3">
+        <v>37600</v>
+      </c>
+      <c r="K32" s="3">
         <v>47300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1946000</v>
+        <v>2053000</v>
       </c>
       <c r="E33" s="3">
-        <v>4100</v>
+        <v>1820600</v>
       </c>
       <c r="F33" s="3">
-        <v>-165900</v>
+        <v>3900</v>
       </c>
       <c r="G33" s="3">
-        <v>-294600</v>
+        <v>-155300</v>
       </c>
       <c r="H33" s="3">
-        <v>230600</v>
+        <v>-275600</v>
       </c>
       <c r="I33" s="3">
-        <v>47600</v>
+        <v>215700</v>
       </c>
       <c r="J33" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K33" s="3">
         <v>103000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>112700</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1946000</v>
+        <v>2053000</v>
       </c>
       <c r="E35" s="3">
-        <v>4100</v>
+        <v>1820600</v>
       </c>
       <c r="F35" s="3">
-        <v>-165900</v>
+        <v>3900</v>
       </c>
       <c r="G35" s="3">
-        <v>-294600</v>
+        <v>-155300</v>
       </c>
       <c r="H35" s="3">
-        <v>230600</v>
+        <v>-275600</v>
       </c>
       <c r="I35" s="3">
-        <v>47600</v>
+        <v>215700</v>
       </c>
       <c r="J35" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K35" s="3">
         <v>103000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>112700</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2011100</v>
+        <v>1881400</v>
       </c>
       <c r="E41" s="3">
-        <v>1343700</v>
+        <v>1257100</v>
       </c>
       <c r="F41" s="3">
-        <v>373000</v>
+        <v>349000</v>
       </c>
       <c r="G41" s="3">
-        <v>168800</v>
+        <v>157900</v>
       </c>
       <c r="H41" s="3">
-        <v>136500</v>
+        <v>127700</v>
       </c>
       <c r="I41" s="3">
-        <v>59200</v>
+        <v>55400</v>
       </c>
       <c r="J41" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K41" s="3">
         <v>47600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>81700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,219 +1708,243 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>609400</v>
+        <v>549300</v>
       </c>
       <c r="E43" s="3">
-        <v>443600</v>
+        <v>415000</v>
       </c>
       <c r="F43" s="3">
-        <v>305300</v>
+        <v>285600</v>
       </c>
       <c r="G43" s="3">
-        <v>468300</v>
+        <v>438200</v>
       </c>
       <c r="H43" s="3">
-        <v>409700</v>
+        <v>383300</v>
       </c>
       <c r="I43" s="3">
-        <v>382400</v>
+        <v>357800</v>
       </c>
       <c r="J43" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K43" s="3">
         <v>99800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>63300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1665100</v>
+        <v>1557700</v>
       </c>
       <c r="E44" s="3">
-        <v>1656600</v>
+        <v>1549800</v>
       </c>
       <c r="F44" s="3">
-        <v>1029300</v>
+        <v>962900</v>
       </c>
       <c r="G44" s="3">
-        <v>351500</v>
+        <v>328900</v>
       </c>
       <c r="H44" s="3">
-        <v>234100</v>
+        <v>219000</v>
       </c>
       <c r="I44" s="3">
-        <v>44900</v>
+        <v>42000</v>
       </c>
       <c r="J44" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K44" s="3">
         <v>26900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13700</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18600</v>
+        <v>38200</v>
       </c>
       <c r="E45" s="3">
-        <v>24500</v>
+        <v>22900</v>
       </c>
       <c r="F45" s="3">
-        <v>29400</v>
+        <v>27500</v>
       </c>
       <c r="G45" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="H45" s="3">
-        <v>16700</v>
+        <v>15600</v>
       </c>
       <c r="I45" s="3">
-        <v>24900</v>
+        <v>23300</v>
       </c>
       <c r="J45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K45" s="3">
         <v>8200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38500</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4304100</v>
+        <v>4026700</v>
       </c>
       <c r="E46" s="3">
-        <v>3468400</v>
+        <v>3244800</v>
       </c>
       <c r="F46" s="3">
-        <v>1737000</v>
+        <v>1625000</v>
       </c>
       <c r="G46" s="3">
-        <v>1008800</v>
+        <v>943800</v>
       </c>
       <c r="H46" s="3">
-        <v>797000</v>
+        <v>745600</v>
       </c>
       <c r="I46" s="3">
-        <v>511400</v>
+        <v>478400</v>
       </c>
       <c r="J46" s="3">
+        <v>170800</v>
+      </c>
+      <c r="K46" s="3">
         <v>182600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>180100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>547400</v>
+        <v>512100</v>
       </c>
       <c r="E47" s="3">
-        <v>427700</v>
+        <v>400100</v>
       </c>
       <c r="F47" s="3">
-        <v>313500</v>
+        <v>293300</v>
       </c>
       <c r="G47" s="3">
-        <v>268800</v>
+        <v>251400</v>
       </c>
       <c r="H47" s="3">
-        <v>167800</v>
+        <v>157000</v>
       </c>
       <c r="I47" s="3">
-        <v>166800</v>
+        <v>156100</v>
       </c>
       <c r="J47" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K47" s="3">
         <v>11200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4163700</v>
+        <v>3895300</v>
       </c>
       <c r="E48" s="3">
-        <v>4042900</v>
+        <v>3782200</v>
       </c>
       <c r="F48" s="3">
-        <v>3840100</v>
+        <v>3592500</v>
       </c>
       <c r="G48" s="3">
-        <v>3622100</v>
+        <v>3388600</v>
       </c>
       <c r="H48" s="3">
-        <v>3415400</v>
+        <v>3195200</v>
       </c>
       <c r="I48" s="3">
-        <v>1808500</v>
+        <v>1691900</v>
       </c>
       <c r="J48" s="3">
+        <v>1374600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1469400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1106300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>513000</v>
+        <v>479900</v>
       </c>
       <c r="E49" s="3">
-        <v>475700</v>
+        <v>445000</v>
       </c>
       <c r="F49" s="3">
-        <v>455100</v>
+        <v>425800</v>
       </c>
       <c r="G49" s="3">
-        <v>457400</v>
+        <v>427900</v>
       </c>
       <c r="H49" s="3">
-        <v>424600</v>
+        <v>397300</v>
       </c>
       <c r="I49" s="3">
-        <v>62100</v>
+        <v>58100</v>
       </c>
       <c r="J49" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K49" s="3">
         <v>48900</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>629000</v>
+        <v>588500</v>
       </c>
       <c r="E52" s="3">
-        <v>488500</v>
+        <v>457000</v>
       </c>
       <c r="F52" s="3">
-        <v>364500</v>
+        <v>341000</v>
       </c>
       <c r="G52" s="3">
-        <v>280900</v>
+        <v>262800</v>
       </c>
       <c r="H52" s="3">
-        <v>245600</v>
+        <v>229700</v>
       </c>
       <c r="I52" s="3">
-        <v>221000</v>
+        <v>206700</v>
       </c>
       <c r="J52" s="3">
+        <v>153900</v>
+      </c>
+      <c r="K52" s="3">
         <v>164500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>124000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10157300</v>
+        <v>9502500</v>
       </c>
       <c r="E54" s="3">
-        <v>8903100</v>
+        <v>8329100</v>
       </c>
       <c r="F54" s="3">
-        <v>6710200</v>
+        <v>6277600</v>
       </c>
       <c r="G54" s="3">
-        <v>5638000</v>
+        <v>5274600</v>
       </c>
       <c r="H54" s="3">
-        <v>5050400</v>
+        <v>4724800</v>
       </c>
       <c r="I54" s="3">
-        <v>2769900</v>
+        <v>2591300</v>
       </c>
       <c r="J54" s="3">
+        <v>1755600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1876600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1331300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1006600</v>
+        <v>550400</v>
       </c>
       <c r="E57" s="3">
-        <v>563700</v>
+        <v>527400</v>
       </c>
       <c r="F57" s="3">
-        <v>425100</v>
+        <v>397700</v>
       </c>
       <c r="G57" s="3">
-        <v>342100</v>
+        <v>320000</v>
       </c>
       <c r="H57" s="3">
-        <v>272800</v>
+        <v>255200</v>
       </c>
       <c r="I57" s="3">
-        <v>205300</v>
+        <v>192100</v>
       </c>
       <c r="J57" s="3">
+        <v>85800</v>
+      </c>
+      <c r="K57" s="3">
         <v>91800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>97200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14000</v>
+        <v>13100</v>
       </c>
       <c r="E58" s="3">
-        <v>65700</v>
+        <v>61400</v>
       </c>
       <c r="F58" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="G58" s="3">
-        <v>410800</v>
+        <v>384300</v>
       </c>
       <c r="H58" s="3">
-        <v>110000</v>
+        <v>102900</v>
       </c>
       <c r="I58" s="3">
-        <v>49900</v>
+        <v>46700</v>
       </c>
       <c r="J58" s="3">
+        <v>123900</v>
+      </c>
+      <c r="K58" s="3">
         <v>132500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>343100</v>
+        <v>712300</v>
       </c>
       <c r="E59" s="3">
-        <v>531600</v>
+        <v>497300</v>
       </c>
       <c r="F59" s="3">
-        <v>516200</v>
+        <v>482900</v>
       </c>
       <c r="G59" s="3">
-        <v>218500</v>
+        <v>204400</v>
       </c>
       <c r="H59" s="3">
-        <v>177400</v>
+        <v>165900</v>
       </c>
       <c r="I59" s="3">
-        <v>160100</v>
+        <v>149800</v>
       </c>
       <c r="J59" s="3">
+        <v>122400</v>
+      </c>
+      <c r="K59" s="3">
         <v>130800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>122000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1363700</v>
+        <v>1275800</v>
       </c>
       <c r="E60" s="3">
-        <v>1161000</v>
+        <v>1086100</v>
       </c>
       <c r="F60" s="3">
-        <v>951200</v>
+        <v>889800</v>
       </c>
       <c r="G60" s="3">
-        <v>971500</v>
+        <v>908800</v>
       </c>
       <c r="H60" s="3">
-        <v>560200</v>
+        <v>524100</v>
       </c>
       <c r="I60" s="3">
-        <v>415400</v>
+        <v>388600</v>
       </c>
       <c r="J60" s="3">
+        <v>332100</v>
+      </c>
+      <c r="K60" s="3">
         <v>355000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>239100</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1352200</v>
+        <v>1265100</v>
       </c>
       <c r="E61" s="3">
-        <v>1176400</v>
+        <v>1100600</v>
       </c>
       <c r="F61" s="3">
-        <v>1591400</v>
+        <v>1488800</v>
       </c>
       <c r="G61" s="3">
-        <v>1216000</v>
+        <v>1137600</v>
       </c>
       <c r="H61" s="3">
-        <v>1592800</v>
+        <v>1490100</v>
       </c>
       <c r="I61" s="3">
-        <v>545800</v>
+        <v>510600</v>
       </c>
       <c r="J61" s="3">
+        <v>112300</v>
+      </c>
+      <c r="K61" s="3">
         <v>120100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>99300</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2040800</v>
+        <v>1909300</v>
       </c>
       <c r="E62" s="3">
-        <v>1870900</v>
+        <v>1750200</v>
       </c>
       <c r="F62" s="3">
-        <v>2100300</v>
+        <v>1964900</v>
       </c>
       <c r="G62" s="3">
-        <v>1809100</v>
+        <v>1692500</v>
       </c>
       <c r="H62" s="3">
-        <v>1304200</v>
+        <v>1220100</v>
       </c>
       <c r="I62" s="3">
-        <v>715300</v>
+        <v>669200</v>
       </c>
       <c r="J62" s="3">
+        <v>380400</v>
+      </c>
+      <c r="K62" s="3">
         <v>406700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>365900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4850300</v>
+        <v>4537600</v>
       </c>
       <c r="E66" s="3">
-        <v>4356700</v>
+        <v>4075800</v>
       </c>
       <c r="F66" s="3">
-        <v>4740300</v>
+        <v>4434700</v>
       </c>
       <c r="G66" s="3">
-        <v>4058700</v>
+        <v>3797100</v>
       </c>
       <c r="H66" s="3">
-        <v>3458500</v>
+        <v>3235500</v>
       </c>
       <c r="I66" s="3">
-        <v>1677700</v>
+        <v>1569500</v>
       </c>
       <c r="J66" s="3">
+        <v>831700</v>
+      </c>
+      <c r="K66" s="3">
         <v>889000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>704000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3869900</v>
+        <v>3424100</v>
       </c>
       <c r="E72" s="3">
-        <v>2643200</v>
+        <v>2472800</v>
       </c>
       <c r="F72" s="3">
-        <v>-765700</v>
+        <v>-716400</v>
       </c>
       <c r="G72" s="3">
-        <v>-789100</v>
+        <v>-738300</v>
       </c>
       <c r="H72" s="3">
-        <v>-659300</v>
+        <v>-616800</v>
       </c>
       <c r="I72" s="3">
-        <v>-342000</v>
+        <v>-320000</v>
       </c>
       <c r="J72" s="3">
+        <v>-426000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-455400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-521000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5307000</v>
+        <v>4964900</v>
       </c>
       <c r="E76" s="3">
-        <v>4546400</v>
+        <v>4253300</v>
       </c>
       <c r="F76" s="3">
-        <v>1969800</v>
+        <v>1842800</v>
       </c>
       <c r="G76" s="3">
-        <v>1579300</v>
+        <v>1477500</v>
       </c>
       <c r="H76" s="3">
-        <v>1591900</v>
+        <v>1489300</v>
       </c>
       <c r="I76" s="3">
-        <v>1092200</v>
+        <v>1021800</v>
       </c>
       <c r="J76" s="3">
+        <v>923900</v>
+      </c>
+      <c r="K76" s="3">
         <v>987600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>627300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1946000</v>
+        <v>2053000</v>
       </c>
       <c r="E81" s="3">
-        <v>4100</v>
+        <v>1820600</v>
       </c>
       <c r="F81" s="3">
-        <v>-165900</v>
+        <v>3900</v>
       </c>
       <c r="G81" s="3">
-        <v>-294600</v>
+        <v>-155300</v>
       </c>
       <c r="H81" s="3">
-        <v>230600</v>
+        <v>-275600</v>
       </c>
       <c r="I81" s="3">
-        <v>47600</v>
+        <v>215700</v>
       </c>
       <c r="J81" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K81" s="3">
         <v>103000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>112700</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>504100</v>
+        <v>515100</v>
       </c>
       <c r="E83" s="3">
-        <v>478900</v>
+        <v>471600</v>
       </c>
       <c r="F83" s="3">
-        <v>439100</v>
+        <v>448100</v>
       </c>
       <c r="G83" s="3">
-        <v>378400</v>
+        <v>410800</v>
       </c>
       <c r="H83" s="3">
-        <v>268300</v>
+        <v>354000</v>
       </c>
       <c r="I83" s="3">
-        <v>241400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>251000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>225900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1802400</v>
+        <v>2003400</v>
       </c>
       <c r="E89" s="3">
-        <v>628300</v>
+        <v>1686200</v>
       </c>
       <c r="F89" s="3">
-        <v>809800</v>
+        <v>587800</v>
       </c>
       <c r="G89" s="3">
-        <v>182000</v>
+        <v>757600</v>
       </c>
       <c r="H89" s="3">
-        <v>292500</v>
+        <v>170200</v>
       </c>
       <c r="I89" s="3">
-        <v>233400</v>
+        <v>273600</v>
       </c>
       <c r="J89" s="3">
+        <v>218300</v>
+      </c>
+      <c r="K89" s="3">
         <v>269100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>423500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-638400</v>
+        <v>-791300</v>
       </c>
       <c r="E91" s="3">
-        <v>-511600</v>
+        <v>-597200</v>
       </c>
       <c r="F91" s="3">
-        <v>-470100</v>
+        <v>-478600</v>
       </c>
       <c r="G91" s="3">
-        <v>-404900</v>
+        <v>-439800</v>
       </c>
       <c r="H91" s="3">
-        <v>-275600</v>
+        <v>-378800</v>
       </c>
       <c r="I91" s="3">
-        <v>-222100</v>
+        <v>-257800</v>
       </c>
       <c r="J91" s="3">
+        <v>-207700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-215800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-193200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-659700</v>
+        <v>-904800</v>
       </c>
       <c r="E94" s="3">
-        <v>-323000</v>
+        <v>-617200</v>
       </c>
       <c r="F94" s="3">
-        <v>-514100</v>
+        <v>-302200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1868500</v>
+        <v>-480900</v>
       </c>
       <c r="H94" s="3">
-        <v>-627000</v>
+        <v>-1748000</v>
       </c>
       <c r="I94" s="3">
-        <v>-221700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-586600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-207400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,59 +3420,65 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-149000</v>
+        <v>-518200</v>
       </c>
       <c r="E100" s="3">
-        <v>-97600</v>
+        <v>-139400</v>
       </c>
       <c r="F100" s="3">
-        <v>-272300</v>
+        <v>-91300</v>
       </c>
       <c r="G100" s="3">
-        <v>1779700</v>
+        <v>-254700</v>
       </c>
       <c r="H100" s="3">
-        <v>361500</v>
+        <v>1665000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>338200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-23100</v>
+        <v>44000</v>
       </c>
       <c r="E101" s="3">
-        <v>-3900</v>
+        <v>-21600</v>
       </c>
       <c r="F101" s="3">
-        <v>8900</v>
+        <v>-3700</v>
       </c>
       <c r="G101" s="3">
-        <v>-20500</v>
+        <v>8300</v>
       </c>
       <c r="H101" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+        <v>-19200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-9800</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3238,37 +3486,43 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>970700</v>
+        <v>624300</v>
       </c>
       <c r="E102" s="3">
-        <v>203800</v>
+        <v>908100</v>
       </c>
       <c r="F102" s="3">
-        <v>32300</v>
+        <v>190700</v>
       </c>
       <c r="G102" s="3">
-        <v>72700</v>
+        <v>30200</v>
       </c>
       <c r="H102" s="3">
-        <v>16600</v>
+        <v>68000</v>
       </c>
       <c r="I102" s="3">
-        <v>10300</v>
+        <v>15600</v>
       </c>
       <c r="J102" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-61700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>79900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10695000</v>
+        <v>10274800</v>
       </c>
       <c r="E8" s="3">
-        <v>7912300</v>
+        <v>7601500</v>
       </c>
       <c r="F8" s="3">
-        <v>4529400</v>
+        <v>4351500</v>
       </c>
       <c r="G8" s="3">
-        <v>3146300</v>
+        <v>3022700</v>
       </c>
       <c r="H8" s="3">
-        <v>2851600</v>
+        <v>2739500</v>
       </c>
       <c r="I8" s="3">
-        <v>1940400</v>
+        <v>1864100</v>
       </c>
       <c r="J8" s="3">
-        <v>1411000</v>
+        <v>1355500</v>
       </c>
       <c r="K8" s="3">
         <v>1446000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6957600</v>
+        <v>6684200</v>
       </c>
       <c r="E9" s="3">
-        <v>5287700</v>
+        <v>5079900</v>
       </c>
       <c r="F9" s="3">
-        <v>3959200</v>
+        <v>3803700</v>
       </c>
       <c r="G9" s="3">
-        <v>3002500</v>
+        <v>2884500</v>
       </c>
       <c r="H9" s="3">
-        <v>2644700</v>
+        <v>2540800</v>
       </c>
       <c r="I9" s="3">
-        <v>2858700</v>
+        <v>2746400</v>
       </c>
       <c r="J9" s="3">
-        <v>1268100</v>
+        <v>1218300</v>
       </c>
       <c r="K9" s="3">
         <v>1194800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3737400</v>
+        <v>3590600</v>
       </c>
       <c r="E10" s="3">
-        <v>2624700</v>
+        <v>2521600</v>
       </c>
       <c r="F10" s="3">
-        <v>570200</v>
+        <v>547800</v>
       </c>
       <c r="G10" s="3">
-        <v>143800</v>
+        <v>138100</v>
       </c>
       <c r="H10" s="3">
-        <v>206900</v>
+        <v>198700</v>
       </c>
       <c r="I10" s="3">
-        <v>-918400</v>
+        <v>-882300</v>
       </c>
       <c r="J10" s="3">
-        <v>142800</v>
+        <v>137200</v>
       </c>
       <c r="K10" s="3">
         <v>251200</v>
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K12" s="3">
         <v>1000</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>335300</v>
+        <v>322100</v>
       </c>
       <c r="E14" s="3">
-        <v>127800</v>
+        <v>122700</v>
       </c>
       <c r="F14" s="3">
-        <v>42400</v>
+        <v>40800</v>
       </c>
       <c r="G14" s="3">
-        <v>222800</v>
+        <v>214000</v>
       </c>
       <c r="H14" s="3">
-        <v>353600</v>
+        <v>339700</v>
       </c>
       <c r="I14" s="3">
-        <v>-28100</v>
+        <v>-27000</v>
       </c>
       <c r="J14" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="K14" s="3">
         <v>4800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7316600</v>
+        <v>7029200</v>
       </c>
       <c r="E17" s="3">
-        <v>5447300</v>
+        <v>5233300</v>
       </c>
       <c r="F17" s="3">
-        <v>4024200</v>
+        <v>3866100</v>
       </c>
       <c r="G17" s="3">
-        <v>3243900</v>
+        <v>3116400</v>
       </c>
       <c r="H17" s="3">
-        <v>3012700</v>
+        <v>2894300</v>
       </c>
       <c r="I17" s="3">
-        <v>1575200</v>
+        <v>1513300</v>
       </c>
       <c r="J17" s="3">
-        <v>1294800</v>
+        <v>1243900</v>
       </c>
       <c r="K17" s="3">
         <v>1228400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3378300</v>
+        <v>3245600</v>
       </c>
       <c r="E18" s="3">
-        <v>2465100</v>
+        <v>2368200</v>
       </c>
       <c r="F18" s="3">
-        <v>505200</v>
+        <v>485300</v>
       </c>
       <c r="G18" s="3">
-        <v>-97600</v>
+        <v>-93800</v>
       </c>
       <c r="H18" s="3">
-        <v>-161100</v>
+        <v>-154800</v>
       </c>
       <c r="I18" s="3">
-        <v>365200</v>
+        <v>350800</v>
       </c>
       <c r="J18" s="3">
-        <v>116200</v>
+        <v>111700</v>
       </c>
       <c r="K18" s="3">
         <v>217600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-354300</v>
+        <v>-340400</v>
       </c>
       <c r="E20" s="3">
-        <v>-154800</v>
+        <v>-148700</v>
       </c>
       <c r="F20" s="3">
-        <v>-470800</v>
+        <v>-452300</v>
       </c>
       <c r="G20" s="3">
-        <v>139400</v>
+        <v>134000</v>
       </c>
       <c r="H20" s="3">
-        <v>-151700</v>
+        <v>-145700</v>
       </c>
       <c r="I20" s="3">
-        <v>-66200</v>
+        <v>-63600</v>
       </c>
       <c r="J20" s="3">
-        <v>-37600</v>
+        <v>-36100</v>
       </c>
       <c r="K20" s="3">
         <v>-47300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3539600</v>
+        <v>3395100</v>
       </c>
       <c r="E21" s="3">
-        <v>2782300</v>
+        <v>2668000</v>
       </c>
       <c r="F21" s="3">
-        <v>482800</v>
+        <v>459100</v>
       </c>
       <c r="G21" s="3">
-        <v>453000</v>
+        <v>430900</v>
       </c>
       <c r="H21" s="3">
-        <v>41600</v>
+        <v>36200</v>
       </c>
       <c r="I21" s="3">
-        <v>550300</v>
+        <v>526000</v>
       </c>
       <c r="J21" s="3">
-        <v>304700</v>
+        <v>290300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>70300</v>
+        <v>67500</v>
       </c>
       <c r="E22" s="3">
-        <v>106600</v>
+        <v>102500</v>
       </c>
       <c r="F22" s="3">
-        <v>115100</v>
+        <v>110600</v>
       </c>
       <c r="G22" s="3">
-        <v>131100</v>
+        <v>126000</v>
       </c>
       <c r="H22" s="3">
-        <v>145600</v>
+        <v>139800</v>
       </c>
       <c r="I22" s="3">
-        <v>35300</v>
+        <v>33900</v>
       </c>
       <c r="J22" s="3">
-        <v>21800</v>
+        <v>20900</v>
       </c>
       <c r="K22" s="3">
         <v>15300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2953800</v>
+        <v>2837700</v>
       </c>
       <c r="E23" s="3">
-        <v>2203700</v>
+        <v>2117100</v>
       </c>
       <c r="F23" s="3">
-        <v>-80800</v>
+        <v>-77600</v>
       </c>
       <c r="G23" s="3">
-        <v>-89200</v>
+        <v>-85700</v>
       </c>
       <c r="H23" s="3">
-        <v>-458400</v>
+        <v>-440300</v>
       </c>
       <c r="I23" s="3">
-        <v>263600</v>
+        <v>253300</v>
       </c>
       <c r="J23" s="3">
-        <v>56900</v>
+        <v>54600</v>
       </c>
       <c r="K23" s="3">
         <v>155000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>854700</v>
+        <v>821100</v>
       </c>
       <c r="E24" s="3">
-        <v>301700</v>
+        <v>289900</v>
       </c>
       <c r="F24" s="3">
-        <v>-107600</v>
+        <v>-103400</v>
       </c>
       <c r="G24" s="3">
-        <v>67300</v>
+        <v>64700</v>
       </c>
       <c r="H24" s="3">
-        <v>-183000</v>
+        <v>-175800</v>
       </c>
       <c r="I24" s="3">
-        <v>74700</v>
+        <v>71700</v>
       </c>
       <c r="J24" s="3">
-        <v>23400</v>
+        <v>22500</v>
       </c>
       <c r="K24" s="3">
         <v>55000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2099100</v>
+        <v>2016600</v>
       </c>
       <c r="E26" s="3">
-        <v>1901900</v>
+        <v>1827200</v>
       </c>
       <c r="F26" s="3">
-        <v>26900</v>
+        <v>25800</v>
       </c>
       <c r="G26" s="3">
-        <v>-156600</v>
+        <v>-150400</v>
       </c>
       <c r="H26" s="3">
-        <v>-275300</v>
+        <v>-264500</v>
       </c>
       <c r="I26" s="3">
-        <v>189000</v>
+        <v>181600</v>
       </c>
       <c r="J26" s="3">
-        <v>33400</v>
+        <v>32100</v>
       </c>
       <c r="K26" s="3">
         <v>100000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2053000</v>
+        <v>1972300</v>
       </c>
       <c r="E27" s="3">
-        <v>1820600</v>
+        <v>1749000</v>
       </c>
       <c r="F27" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="G27" s="3">
-        <v>-155300</v>
+        <v>-149200</v>
       </c>
       <c r="H27" s="3">
-        <v>-275600</v>
+        <v>-264800</v>
       </c>
       <c r="I27" s="3">
-        <v>215700</v>
+        <v>207300</v>
       </c>
       <c r="J27" s="3">
-        <v>44500</v>
+        <v>42800</v>
       </c>
       <c r="K27" s="3">
         <v>103000</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>354300</v>
+        <v>340400</v>
       </c>
       <c r="E32" s="3">
-        <v>154800</v>
+        <v>148700</v>
       </c>
       <c r="F32" s="3">
-        <v>470800</v>
+        <v>452300</v>
       </c>
       <c r="G32" s="3">
-        <v>-139400</v>
+        <v>-134000</v>
       </c>
       <c r="H32" s="3">
-        <v>151700</v>
+        <v>145700</v>
       </c>
       <c r="I32" s="3">
-        <v>66200</v>
+        <v>63600</v>
       </c>
       <c r="J32" s="3">
-        <v>37600</v>
+        <v>36100</v>
       </c>
       <c r="K32" s="3">
         <v>47300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2053000</v>
+        <v>1972300</v>
       </c>
       <c r="E33" s="3">
-        <v>1820600</v>
+        <v>1749000</v>
       </c>
       <c r="F33" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="G33" s="3">
-        <v>-155300</v>
+        <v>-149200</v>
       </c>
       <c r="H33" s="3">
-        <v>-275600</v>
+        <v>-264800</v>
       </c>
       <c r="I33" s="3">
-        <v>215700</v>
+        <v>207300</v>
       </c>
       <c r="J33" s="3">
-        <v>44500</v>
+        <v>42800</v>
       </c>
       <c r="K33" s="3">
         <v>103000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2053000</v>
+        <v>1972300</v>
       </c>
       <c r="E35" s="3">
-        <v>1820600</v>
+        <v>1749000</v>
       </c>
       <c r="F35" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="G35" s="3">
-        <v>-155300</v>
+        <v>-149200</v>
       </c>
       <c r="H35" s="3">
-        <v>-275600</v>
+        <v>-264800</v>
       </c>
       <c r="I35" s="3">
-        <v>215700</v>
+        <v>207300</v>
       </c>
       <c r="J35" s="3">
-        <v>44500</v>
+        <v>42800</v>
       </c>
       <c r="K35" s="3">
         <v>103000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1881400</v>
+        <v>1807500</v>
       </c>
       <c r="E41" s="3">
-        <v>1257100</v>
+        <v>1207700</v>
       </c>
       <c r="F41" s="3">
-        <v>349000</v>
+        <v>335300</v>
       </c>
       <c r="G41" s="3">
-        <v>157900</v>
+        <v>151700</v>
       </c>
       <c r="H41" s="3">
-        <v>127700</v>
+        <v>122700</v>
       </c>
       <c r="I41" s="3">
-        <v>55400</v>
+        <v>53200</v>
       </c>
       <c r="J41" s="3">
-        <v>44600</v>
+        <v>42800</v>
       </c>
       <c r="K41" s="3">
         <v>47600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>549300</v>
+        <v>527700</v>
       </c>
       <c r="E43" s="3">
-        <v>415000</v>
+        <v>398700</v>
       </c>
       <c r="F43" s="3">
-        <v>285600</v>
+        <v>274400</v>
       </c>
       <c r="G43" s="3">
-        <v>438200</v>
+        <v>420900</v>
       </c>
       <c r="H43" s="3">
-        <v>383300</v>
+        <v>368200</v>
       </c>
       <c r="I43" s="3">
-        <v>357800</v>
+        <v>343700</v>
       </c>
       <c r="J43" s="3">
-        <v>93400</v>
+        <v>89700</v>
       </c>
       <c r="K43" s="3">
         <v>99800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1557700</v>
+        <v>1496500</v>
       </c>
       <c r="E44" s="3">
-        <v>1549800</v>
+        <v>1488900</v>
       </c>
       <c r="F44" s="3">
-        <v>962900</v>
+        <v>925100</v>
       </c>
       <c r="G44" s="3">
-        <v>328900</v>
+        <v>315900</v>
       </c>
       <c r="H44" s="3">
-        <v>219000</v>
+        <v>210400</v>
       </c>
       <c r="I44" s="3">
-        <v>42000</v>
+        <v>40400</v>
       </c>
       <c r="J44" s="3">
-        <v>25200</v>
+        <v>24200</v>
       </c>
       <c r="K44" s="3">
         <v>26900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38200</v>
+        <v>36700</v>
       </c>
       <c r="E45" s="3">
-        <v>22900</v>
+        <v>22000</v>
       </c>
       <c r="F45" s="3">
-        <v>27500</v>
+        <v>26400</v>
       </c>
       <c r="G45" s="3">
-        <v>18800</v>
+        <v>18100</v>
       </c>
       <c r="H45" s="3">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="I45" s="3">
-        <v>23300</v>
+        <v>22400</v>
       </c>
       <c r="J45" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="K45" s="3">
         <v>8200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4026700</v>
+        <v>3868500</v>
       </c>
       <c r="E46" s="3">
-        <v>3244800</v>
+        <v>3117300</v>
       </c>
       <c r="F46" s="3">
-        <v>1625000</v>
+        <v>1561200</v>
       </c>
       <c r="G46" s="3">
-        <v>943800</v>
+        <v>906700</v>
       </c>
       <c r="H46" s="3">
-        <v>745600</v>
+        <v>716300</v>
       </c>
       <c r="I46" s="3">
-        <v>478400</v>
+        <v>459600</v>
       </c>
       <c r="J46" s="3">
-        <v>170800</v>
+        <v>164100</v>
       </c>
       <c r="K46" s="3">
         <v>182600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>512100</v>
+        <v>492000</v>
       </c>
       <c r="E47" s="3">
-        <v>400100</v>
+        <v>384400</v>
       </c>
       <c r="F47" s="3">
-        <v>293300</v>
+        <v>281800</v>
       </c>
       <c r="G47" s="3">
-        <v>251400</v>
+        <v>241600</v>
       </c>
       <c r="H47" s="3">
-        <v>157000</v>
+        <v>150900</v>
       </c>
       <c r="I47" s="3">
-        <v>156100</v>
+        <v>149900</v>
       </c>
       <c r="J47" s="3">
-        <v>10500</v>
+        <v>10100</v>
       </c>
       <c r="K47" s="3">
         <v>11200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3895300</v>
+        <v>3742300</v>
       </c>
       <c r="E48" s="3">
-        <v>3782200</v>
+        <v>3633600</v>
       </c>
       <c r="F48" s="3">
-        <v>3592500</v>
+        <v>3451400</v>
       </c>
       <c r="G48" s="3">
-        <v>3388600</v>
+        <v>3255500</v>
       </c>
       <c r="H48" s="3">
-        <v>3195200</v>
+        <v>3069700</v>
       </c>
       <c r="I48" s="3">
-        <v>1691900</v>
+        <v>1625500</v>
       </c>
       <c r="J48" s="3">
-        <v>1374600</v>
+        <v>1320600</v>
       </c>
       <c r="K48" s="3">
         <v>1469400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>479900</v>
+        <v>461100</v>
       </c>
       <c r="E49" s="3">
-        <v>445000</v>
+        <v>427500</v>
       </c>
       <c r="F49" s="3">
-        <v>425800</v>
+        <v>409000</v>
       </c>
       <c r="G49" s="3">
-        <v>427900</v>
+        <v>411100</v>
       </c>
       <c r="H49" s="3">
-        <v>397300</v>
+        <v>381600</v>
       </c>
       <c r="I49" s="3">
-        <v>58100</v>
+        <v>55900</v>
       </c>
       <c r="J49" s="3">
-        <v>45800</v>
+        <v>44000</v>
       </c>
       <c r="K49" s="3">
         <v>48900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>588500</v>
+        <v>565400</v>
       </c>
       <c r="E52" s="3">
-        <v>457000</v>
+        <v>439000</v>
       </c>
       <c r="F52" s="3">
-        <v>341000</v>
+        <v>327600</v>
       </c>
       <c r="G52" s="3">
-        <v>262800</v>
+        <v>252500</v>
       </c>
       <c r="H52" s="3">
-        <v>229700</v>
+        <v>220700</v>
       </c>
       <c r="I52" s="3">
-        <v>206700</v>
+        <v>198600</v>
       </c>
       <c r="J52" s="3">
-        <v>153900</v>
+        <v>147800</v>
       </c>
       <c r="K52" s="3">
         <v>164500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9502500</v>
+        <v>9129200</v>
       </c>
       <c r="E54" s="3">
-        <v>8329100</v>
+        <v>8001900</v>
       </c>
       <c r="F54" s="3">
-        <v>6277600</v>
+        <v>6031000</v>
       </c>
       <c r="G54" s="3">
-        <v>5274600</v>
+        <v>5067400</v>
       </c>
       <c r="H54" s="3">
-        <v>4724800</v>
+        <v>4539200</v>
       </c>
       <c r="I54" s="3">
-        <v>2591300</v>
+        <v>2489500</v>
       </c>
       <c r="J54" s="3">
-        <v>1755600</v>
+        <v>1686600</v>
       </c>
       <c r="K54" s="3">
         <v>1876600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>550400</v>
+        <v>528800</v>
       </c>
       <c r="E57" s="3">
-        <v>527400</v>
+        <v>506700</v>
       </c>
       <c r="F57" s="3">
-        <v>397700</v>
+        <v>382100</v>
       </c>
       <c r="G57" s="3">
-        <v>320000</v>
+        <v>307500</v>
       </c>
       <c r="H57" s="3">
-        <v>255200</v>
+        <v>245200</v>
       </c>
       <c r="I57" s="3">
-        <v>192100</v>
+        <v>184500</v>
       </c>
       <c r="J57" s="3">
-        <v>85800</v>
+        <v>82500</v>
       </c>
       <c r="K57" s="3">
         <v>91800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13100</v>
+        <v>12600</v>
       </c>
       <c r="E58" s="3">
-        <v>61400</v>
+        <v>59000</v>
       </c>
       <c r="F58" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="G58" s="3">
-        <v>384300</v>
+        <v>369200</v>
       </c>
       <c r="H58" s="3">
-        <v>102900</v>
+        <v>98900</v>
       </c>
       <c r="I58" s="3">
-        <v>46700</v>
+        <v>44900</v>
       </c>
       <c r="J58" s="3">
-        <v>123900</v>
+        <v>119100</v>
       </c>
       <c r="K58" s="3">
         <v>132500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>712300</v>
+        <v>684300</v>
       </c>
       <c r="E59" s="3">
-        <v>497300</v>
+        <v>477800</v>
       </c>
       <c r="F59" s="3">
-        <v>482900</v>
+        <v>463900</v>
       </c>
       <c r="G59" s="3">
-        <v>204400</v>
+        <v>196400</v>
       </c>
       <c r="H59" s="3">
-        <v>165900</v>
+        <v>159400</v>
       </c>
       <c r="I59" s="3">
-        <v>149800</v>
+        <v>143900</v>
       </c>
       <c r="J59" s="3">
-        <v>122400</v>
+        <v>117500</v>
       </c>
       <c r="K59" s="3">
         <v>130800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1275800</v>
+        <v>1225700</v>
       </c>
       <c r="E60" s="3">
-        <v>1086100</v>
+        <v>1043500</v>
       </c>
       <c r="F60" s="3">
-        <v>889800</v>
+        <v>854900</v>
       </c>
       <c r="G60" s="3">
-        <v>908800</v>
+        <v>873100</v>
       </c>
       <c r="H60" s="3">
-        <v>524100</v>
+        <v>503500</v>
       </c>
       <c r="I60" s="3">
-        <v>388600</v>
+        <v>373300</v>
       </c>
       <c r="J60" s="3">
-        <v>332100</v>
+        <v>319100</v>
       </c>
       <c r="K60" s="3">
         <v>355000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1265100</v>
+        <v>1215400</v>
       </c>
       <c r="E61" s="3">
-        <v>1100600</v>
+        <v>1057400</v>
       </c>
       <c r="F61" s="3">
-        <v>1488800</v>
+        <v>1430300</v>
       </c>
       <c r="G61" s="3">
-        <v>1137600</v>
+        <v>1092900</v>
       </c>
       <c r="H61" s="3">
-        <v>1490100</v>
+        <v>1431600</v>
       </c>
       <c r="I61" s="3">
-        <v>510600</v>
+        <v>490600</v>
       </c>
       <c r="J61" s="3">
-        <v>112300</v>
+        <v>107900</v>
       </c>
       <c r="K61" s="3">
         <v>120100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1909300</v>
+        <v>1834300</v>
       </c>
       <c r="E62" s="3">
-        <v>1750200</v>
+        <v>1681500</v>
       </c>
       <c r="F62" s="3">
-        <v>1964900</v>
+        <v>1887700</v>
       </c>
       <c r="G62" s="3">
-        <v>1692500</v>
+        <v>1626000</v>
       </c>
       <c r="H62" s="3">
-        <v>1220100</v>
+        <v>1172100</v>
       </c>
       <c r="I62" s="3">
-        <v>669200</v>
+        <v>642900</v>
       </c>
       <c r="J62" s="3">
-        <v>380400</v>
+        <v>365500</v>
       </c>
       <c r="K62" s="3">
         <v>406700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4537600</v>
+        <v>4359300</v>
       </c>
       <c r="E66" s="3">
-        <v>4075800</v>
+        <v>3915700</v>
       </c>
       <c r="F66" s="3">
-        <v>4434700</v>
+        <v>4260500</v>
       </c>
       <c r="G66" s="3">
-        <v>3797100</v>
+        <v>3647900</v>
       </c>
       <c r="H66" s="3">
-        <v>3235500</v>
+        <v>3108400</v>
       </c>
       <c r="I66" s="3">
-        <v>1569500</v>
+        <v>1507900</v>
       </c>
       <c r="J66" s="3">
-        <v>831700</v>
+        <v>799000</v>
       </c>
       <c r="K66" s="3">
         <v>889000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3424100</v>
+        <v>3289500</v>
       </c>
       <c r="E72" s="3">
-        <v>2472800</v>
+        <v>2375600</v>
       </c>
       <c r="F72" s="3">
-        <v>-716400</v>
+        <v>-688200</v>
       </c>
       <c r="G72" s="3">
-        <v>-738300</v>
+        <v>-709300</v>
       </c>
       <c r="H72" s="3">
-        <v>-616800</v>
+        <v>-592500</v>
       </c>
       <c r="I72" s="3">
-        <v>-320000</v>
+        <v>-307400</v>
       </c>
       <c r="J72" s="3">
-        <v>-426000</v>
+        <v>-409300</v>
       </c>
       <c r="K72" s="3">
         <v>-455400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4964900</v>
+        <v>4769800</v>
       </c>
       <c r="E76" s="3">
-        <v>4253300</v>
+        <v>4086200</v>
       </c>
       <c r="F76" s="3">
-        <v>1842800</v>
+        <v>1770400</v>
       </c>
       <c r="G76" s="3">
-        <v>1477500</v>
+        <v>1419500</v>
       </c>
       <c r="H76" s="3">
-        <v>1489300</v>
+        <v>1430800</v>
       </c>
       <c r="I76" s="3">
-        <v>1021800</v>
+        <v>981700</v>
       </c>
       <c r="J76" s="3">
-        <v>923900</v>
+        <v>887600</v>
       </c>
       <c r="K76" s="3">
         <v>987600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2053000</v>
+        <v>1972300</v>
       </c>
       <c r="E81" s="3">
-        <v>1820600</v>
+        <v>1749000</v>
       </c>
       <c r="F81" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="G81" s="3">
-        <v>-155300</v>
+        <v>-149200</v>
       </c>
       <c r="H81" s="3">
-        <v>-275600</v>
+        <v>-264800</v>
       </c>
       <c r="I81" s="3">
-        <v>215700</v>
+        <v>207300</v>
       </c>
       <c r="J81" s="3">
-        <v>44500</v>
+        <v>42800</v>
       </c>
       <c r="K81" s="3">
         <v>103000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>515100</v>
+        <v>494800</v>
       </c>
       <c r="E83" s="3">
-        <v>471600</v>
+        <v>453000</v>
       </c>
       <c r="F83" s="3">
-        <v>448100</v>
+        <v>430500</v>
       </c>
       <c r="G83" s="3">
-        <v>410800</v>
+        <v>394600</v>
       </c>
       <c r="H83" s="3">
-        <v>354000</v>
+        <v>340100</v>
       </c>
       <c r="I83" s="3">
-        <v>251000</v>
+        <v>241200</v>
       </c>
       <c r="J83" s="3">
-        <v>225900</v>
+        <v>217000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2003400</v>
+        <v>1924700</v>
       </c>
       <c r="E89" s="3">
-        <v>1686200</v>
+        <v>1620000</v>
       </c>
       <c r="F89" s="3">
-        <v>587800</v>
+        <v>564700</v>
       </c>
       <c r="G89" s="3">
-        <v>757600</v>
+        <v>727800</v>
       </c>
       <c r="H89" s="3">
-        <v>170200</v>
+        <v>163500</v>
       </c>
       <c r="I89" s="3">
-        <v>273600</v>
+        <v>262900</v>
       </c>
       <c r="J89" s="3">
-        <v>218300</v>
+        <v>209800</v>
       </c>
       <c r="K89" s="3">
         <v>269100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-791300</v>
+        <v>-760200</v>
       </c>
       <c r="E91" s="3">
-        <v>-597200</v>
+        <v>-573800</v>
       </c>
       <c r="F91" s="3">
-        <v>-478600</v>
+        <v>-459800</v>
       </c>
       <c r="G91" s="3">
-        <v>-439800</v>
+        <v>-422500</v>
       </c>
       <c r="H91" s="3">
-        <v>-378800</v>
+        <v>-363900</v>
       </c>
       <c r="I91" s="3">
-        <v>-257800</v>
+        <v>-247700</v>
       </c>
       <c r="J91" s="3">
-        <v>-207700</v>
+        <v>-199600</v>
       </c>
       <c r="K91" s="3">
         <v>-215800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-904800</v>
+        <v>-869300</v>
       </c>
       <c r="E94" s="3">
-        <v>-617200</v>
+        <v>-592900</v>
       </c>
       <c r="F94" s="3">
-        <v>-302200</v>
+        <v>-290300</v>
       </c>
       <c r="G94" s="3">
-        <v>-480900</v>
+        <v>-462100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1748000</v>
+        <v>-1679400</v>
       </c>
       <c r="I94" s="3">
-        <v>-586600</v>
+        <v>-563500</v>
       </c>
       <c r="J94" s="3">
-        <v>-207400</v>
+        <v>-199300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-518200</v>
+        <v>-497900</v>
       </c>
       <c r="E100" s="3">
-        <v>-139400</v>
+        <v>-133900</v>
       </c>
       <c r="F100" s="3">
-        <v>-91300</v>
+        <v>-87700</v>
       </c>
       <c r="G100" s="3">
-        <v>-254700</v>
+        <v>-244700</v>
       </c>
       <c r="H100" s="3">
-        <v>1665000</v>
+        <v>1599600</v>
       </c>
       <c r="I100" s="3">
-        <v>338200</v>
+        <v>325000</v>
       </c>
       <c r="J100" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>44000</v>
+        <v>42200</v>
       </c>
       <c r="E101" s="3">
-        <v>-21600</v>
+        <v>-20800</v>
       </c>
       <c r="F101" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="G101" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="H101" s="3">
-        <v>-19200</v>
+        <v>-18400</v>
       </c>
       <c r="I101" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>624300</v>
+        <v>599800</v>
       </c>
       <c r="E102" s="3">
-        <v>908100</v>
+        <v>872400</v>
       </c>
       <c r="F102" s="3">
-        <v>190700</v>
+        <v>183200</v>
       </c>
       <c r="G102" s="3">
-        <v>30200</v>
+        <v>29000</v>
       </c>
       <c r="H102" s="3">
-        <v>68000</v>
+        <v>65300</v>
       </c>
       <c r="I102" s="3">
-        <v>15600</v>
+        <v>14900</v>
       </c>
       <c r="J102" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="K102" s="3">
         <v>-61700</v>

--- a/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10274800</v>
+        <v>9913200</v>
       </c>
       <c r="E8" s="3">
-        <v>7601500</v>
+        <v>7334000</v>
       </c>
       <c r="F8" s="3">
-        <v>4351500</v>
+        <v>4198300</v>
       </c>
       <c r="G8" s="3">
-        <v>3022700</v>
+        <v>2916300</v>
       </c>
       <c r="H8" s="3">
-        <v>2739500</v>
+        <v>2643100</v>
       </c>
       <c r="I8" s="3">
-        <v>1864100</v>
+        <v>1798500</v>
       </c>
       <c r="J8" s="3">
-        <v>1355500</v>
+        <v>1307800</v>
       </c>
       <c r="K8" s="3">
         <v>1446000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6684200</v>
+        <v>6449000</v>
       </c>
       <c r="E9" s="3">
-        <v>5079900</v>
+        <v>4901200</v>
       </c>
       <c r="F9" s="3">
-        <v>3803700</v>
+        <v>3669800</v>
       </c>
       <c r="G9" s="3">
-        <v>2884500</v>
+        <v>2783000</v>
       </c>
       <c r="H9" s="3">
-        <v>2540800</v>
+        <v>2451400</v>
       </c>
       <c r="I9" s="3">
-        <v>2746400</v>
+        <v>2649800</v>
       </c>
       <c r="J9" s="3">
-        <v>1218300</v>
+        <v>1175400</v>
       </c>
       <c r="K9" s="3">
         <v>1194800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3590600</v>
+        <v>3464200</v>
       </c>
       <c r="E10" s="3">
-        <v>2521600</v>
+        <v>2432800</v>
       </c>
       <c r="F10" s="3">
-        <v>547800</v>
+        <v>528500</v>
       </c>
       <c r="G10" s="3">
-        <v>138100</v>
+        <v>133300</v>
       </c>
       <c r="H10" s="3">
-        <v>198700</v>
+        <v>191700</v>
       </c>
       <c r="I10" s="3">
-        <v>-882300</v>
+        <v>-851200</v>
       </c>
       <c r="J10" s="3">
-        <v>137200</v>
+        <v>132400</v>
       </c>
       <c r="K10" s="3">
         <v>251200</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>322100</v>
+        <v>310800</v>
       </c>
       <c r="E14" s="3">
-        <v>122700</v>
+        <v>118400</v>
       </c>
       <c r="F14" s="3">
-        <v>40800</v>
+        <v>39300</v>
       </c>
       <c r="G14" s="3">
-        <v>214000</v>
+        <v>206500</v>
       </c>
       <c r="H14" s="3">
-        <v>339700</v>
+        <v>327700</v>
       </c>
       <c r="I14" s="3">
-        <v>-27000</v>
+        <v>-26100</v>
       </c>
       <c r="J14" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="K14" s="3">
         <v>4800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7029200</v>
+        <v>6781800</v>
       </c>
       <c r="E17" s="3">
-        <v>5233300</v>
+        <v>5049100</v>
       </c>
       <c r="F17" s="3">
-        <v>3866100</v>
+        <v>3730100</v>
       </c>
       <c r="G17" s="3">
-        <v>3116400</v>
+        <v>3006700</v>
       </c>
       <c r="H17" s="3">
-        <v>2894300</v>
+        <v>2792500</v>
       </c>
       <c r="I17" s="3">
-        <v>1513300</v>
+        <v>1460000</v>
       </c>
       <c r="J17" s="3">
-        <v>1243900</v>
+        <v>1200100</v>
       </c>
       <c r="K17" s="3">
         <v>1228400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3245600</v>
+        <v>3131400</v>
       </c>
       <c r="E18" s="3">
-        <v>2368200</v>
+        <v>2284900</v>
       </c>
       <c r="F18" s="3">
-        <v>485300</v>
+        <v>468200</v>
       </c>
       <c r="G18" s="3">
-        <v>-93800</v>
+        <v>-90500</v>
       </c>
       <c r="H18" s="3">
-        <v>-154800</v>
+        <v>-149300</v>
       </c>
       <c r="I18" s="3">
-        <v>350800</v>
+        <v>338500</v>
       </c>
       <c r="J18" s="3">
-        <v>111700</v>
+        <v>107700</v>
       </c>
       <c r="K18" s="3">
         <v>217600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-340400</v>
+        <v>-328400</v>
       </c>
       <c r="E20" s="3">
-        <v>-148700</v>
+        <v>-143500</v>
       </c>
       <c r="F20" s="3">
-        <v>-452300</v>
+        <v>-436400</v>
       </c>
       <c r="G20" s="3">
-        <v>134000</v>
+        <v>129300</v>
       </c>
       <c r="H20" s="3">
-        <v>-145700</v>
+        <v>-140600</v>
       </c>
       <c r="I20" s="3">
-        <v>-63600</v>
+        <v>-61400</v>
       </c>
       <c r="J20" s="3">
-        <v>-36100</v>
+        <v>-34900</v>
       </c>
       <c r="K20" s="3">
         <v>-47300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3395100</v>
+        <v>3270300</v>
       </c>
       <c r="E21" s="3">
-        <v>2668000</v>
+        <v>2569200</v>
       </c>
       <c r="F21" s="3">
-        <v>459100</v>
+        <v>438300</v>
       </c>
       <c r="G21" s="3">
-        <v>430900</v>
+        <v>411400</v>
       </c>
       <c r="H21" s="3">
-        <v>36200</v>
+        <v>31200</v>
       </c>
       <c r="I21" s="3">
-        <v>526000</v>
+        <v>504800</v>
       </c>
       <c r="J21" s="3">
-        <v>290300</v>
+        <v>277700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>67500</v>
+        <v>65200</v>
       </c>
       <c r="E22" s="3">
-        <v>102500</v>
+        <v>98800</v>
       </c>
       <c r="F22" s="3">
-        <v>110600</v>
+        <v>106700</v>
       </c>
       <c r="G22" s="3">
-        <v>126000</v>
+        <v>121500</v>
       </c>
       <c r="H22" s="3">
-        <v>139800</v>
+        <v>134900</v>
       </c>
       <c r="I22" s="3">
-        <v>33900</v>
+        <v>32800</v>
       </c>
       <c r="J22" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="K22" s="3">
         <v>15300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2837700</v>
+        <v>2737900</v>
       </c>
       <c r="E23" s="3">
-        <v>2117100</v>
+        <v>2042600</v>
       </c>
       <c r="F23" s="3">
-        <v>-77600</v>
+        <v>-74900</v>
       </c>
       <c r="G23" s="3">
-        <v>-85700</v>
+        <v>-82700</v>
       </c>
       <c r="H23" s="3">
-        <v>-440300</v>
+        <v>-424800</v>
       </c>
       <c r="I23" s="3">
-        <v>253300</v>
+        <v>244400</v>
       </c>
       <c r="J23" s="3">
-        <v>54600</v>
+        <v>52700</v>
       </c>
       <c r="K23" s="3">
         <v>155000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>821100</v>
+        <v>792200</v>
       </c>
       <c r="E24" s="3">
-        <v>289900</v>
+        <v>279700</v>
       </c>
       <c r="F24" s="3">
-        <v>-103400</v>
+        <v>-99800</v>
       </c>
       <c r="G24" s="3">
-        <v>64700</v>
+        <v>62400</v>
       </c>
       <c r="H24" s="3">
-        <v>-175800</v>
+        <v>-169600</v>
       </c>
       <c r="I24" s="3">
-        <v>71700</v>
+        <v>69200</v>
       </c>
       <c r="J24" s="3">
-        <v>22500</v>
+        <v>21700</v>
       </c>
       <c r="K24" s="3">
         <v>55000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2016600</v>
+        <v>1945600</v>
       </c>
       <c r="E26" s="3">
-        <v>1827200</v>
+        <v>1762900</v>
       </c>
       <c r="F26" s="3">
-        <v>25800</v>
+        <v>24900</v>
       </c>
       <c r="G26" s="3">
-        <v>-150400</v>
+        <v>-145100</v>
       </c>
       <c r="H26" s="3">
-        <v>-264500</v>
+        <v>-255200</v>
       </c>
       <c r="I26" s="3">
-        <v>181600</v>
+        <v>175200</v>
       </c>
       <c r="J26" s="3">
-        <v>32100</v>
+        <v>31000</v>
       </c>
       <c r="K26" s="3">
         <v>100000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1972300</v>
+        <v>1902900</v>
       </c>
       <c r="E27" s="3">
-        <v>1749000</v>
+        <v>1687500</v>
       </c>
       <c r="F27" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G27" s="3">
-        <v>-149200</v>
+        <v>-143900</v>
       </c>
       <c r="H27" s="3">
-        <v>-264800</v>
+        <v>-255500</v>
       </c>
       <c r="I27" s="3">
-        <v>207300</v>
+        <v>200000</v>
       </c>
       <c r="J27" s="3">
-        <v>42800</v>
+        <v>41300</v>
       </c>
       <c r="K27" s="3">
         <v>103000</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>340400</v>
+        <v>328400</v>
       </c>
       <c r="E32" s="3">
-        <v>148700</v>
+        <v>143500</v>
       </c>
       <c r="F32" s="3">
-        <v>452300</v>
+        <v>436400</v>
       </c>
       <c r="G32" s="3">
-        <v>-134000</v>
+        <v>-129300</v>
       </c>
       <c r="H32" s="3">
-        <v>145700</v>
+        <v>140600</v>
       </c>
       <c r="I32" s="3">
-        <v>63600</v>
+        <v>61400</v>
       </c>
       <c r="J32" s="3">
-        <v>36100</v>
+        <v>34900</v>
       </c>
       <c r="K32" s="3">
         <v>47300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1972300</v>
+        <v>1902900</v>
       </c>
       <c r="E33" s="3">
-        <v>1749000</v>
+        <v>1687500</v>
       </c>
       <c r="F33" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G33" s="3">
-        <v>-149200</v>
+        <v>-143900</v>
       </c>
       <c r="H33" s="3">
-        <v>-264800</v>
+        <v>-255500</v>
       </c>
       <c r="I33" s="3">
-        <v>207300</v>
+        <v>200000</v>
       </c>
       <c r="J33" s="3">
-        <v>42800</v>
+        <v>41300</v>
       </c>
       <c r="K33" s="3">
         <v>103000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1972300</v>
+        <v>1902900</v>
       </c>
       <c r="E35" s="3">
-        <v>1749000</v>
+        <v>1687500</v>
       </c>
       <c r="F35" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G35" s="3">
-        <v>-149200</v>
+        <v>-143900</v>
       </c>
       <c r="H35" s="3">
-        <v>-264800</v>
+        <v>-255500</v>
       </c>
       <c r="I35" s="3">
-        <v>207300</v>
+        <v>200000</v>
       </c>
       <c r="J35" s="3">
-        <v>42800</v>
+        <v>41300</v>
       </c>
       <c r="K35" s="3">
         <v>103000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1807500</v>
+        <v>1743900</v>
       </c>
       <c r="E41" s="3">
-        <v>1207700</v>
+        <v>1165200</v>
       </c>
       <c r="F41" s="3">
-        <v>335300</v>
+        <v>323500</v>
       </c>
       <c r="G41" s="3">
-        <v>151700</v>
+        <v>146400</v>
       </c>
       <c r="H41" s="3">
-        <v>122700</v>
+        <v>118400</v>
       </c>
       <c r="I41" s="3">
-        <v>53200</v>
+        <v>51300</v>
       </c>
       <c r="J41" s="3">
-        <v>42800</v>
+        <v>41300</v>
       </c>
       <c r="K41" s="3">
         <v>47600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>527700</v>
+        <v>509100</v>
       </c>
       <c r="E43" s="3">
-        <v>398700</v>
+        <v>384700</v>
       </c>
       <c r="F43" s="3">
-        <v>274400</v>
+        <v>264700</v>
       </c>
       <c r="G43" s="3">
-        <v>420900</v>
+        <v>406100</v>
       </c>
       <c r="H43" s="3">
-        <v>368200</v>
+        <v>355200</v>
       </c>
       <c r="I43" s="3">
-        <v>343700</v>
+        <v>331600</v>
       </c>
       <c r="J43" s="3">
-        <v>89700</v>
+        <v>86600</v>
       </c>
       <c r="K43" s="3">
         <v>99800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1496500</v>
+        <v>1443900</v>
       </c>
       <c r="E44" s="3">
-        <v>1488900</v>
+        <v>1436500</v>
       </c>
       <c r="F44" s="3">
-        <v>925100</v>
+        <v>892500</v>
       </c>
       <c r="G44" s="3">
-        <v>315900</v>
+        <v>304800</v>
       </c>
       <c r="H44" s="3">
-        <v>210400</v>
+        <v>203000</v>
       </c>
       <c r="I44" s="3">
-        <v>40400</v>
+        <v>39000</v>
       </c>
       <c r="J44" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="K44" s="3">
         <v>26900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36700</v>
+        <v>35400</v>
       </c>
       <c r="E45" s="3">
-        <v>22000</v>
+        <v>21200</v>
       </c>
       <c r="F45" s="3">
-        <v>26400</v>
+        <v>25500</v>
       </c>
       <c r="G45" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="H45" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="I45" s="3">
-        <v>22400</v>
+        <v>21600</v>
       </c>
       <c r="J45" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="K45" s="3">
         <v>8200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3868500</v>
+        <v>3732300</v>
       </c>
       <c r="E46" s="3">
-        <v>3117300</v>
+        <v>3007600</v>
       </c>
       <c r="F46" s="3">
-        <v>1561200</v>
+        <v>1506200</v>
       </c>
       <c r="G46" s="3">
-        <v>906700</v>
+        <v>874800</v>
       </c>
       <c r="H46" s="3">
-        <v>716300</v>
+        <v>691100</v>
       </c>
       <c r="I46" s="3">
-        <v>459600</v>
+        <v>443500</v>
       </c>
       <c r="J46" s="3">
-        <v>164100</v>
+        <v>158400</v>
       </c>
       <c r="K46" s="3">
         <v>182600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>492000</v>
+        <v>474700</v>
       </c>
       <c r="E47" s="3">
-        <v>384400</v>
+        <v>370900</v>
       </c>
       <c r="F47" s="3">
-        <v>281800</v>
+        <v>271900</v>
       </c>
       <c r="G47" s="3">
-        <v>241600</v>
+        <v>233100</v>
       </c>
       <c r="H47" s="3">
-        <v>150900</v>
+        <v>145500</v>
       </c>
       <c r="I47" s="3">
-        <v>149900</v>
+        <v>144700</v>
       </c>
       <c r="J47" s="3">
-        <v>10100</v>
+        <v>9700</v>
       </c>
       <c r="K47" s="3">
         <v>11200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3742300</v>
+        <v>3610600</v>
       </c>
       <c r="E48" s="3">
-        <v>3633600</v>
+        <v>3505800</v>
       </c>
       <c r="F48" s="3">
-        <v>3451400</v>
+        <v>3329900</v>
       </c>
       <c r="G48" s="3">
-        <v>3255500</v>
+        <v>3140900</v>
       </c>
       <c r="H48" s="3">
-        <v>3069700</v>
+        <v>2961700</v>
       </c>
       <c r="I48" s="3">
-        <v>1625500</v>
+        <v>1568200</v>
       </c>
       <c r="J48" s="3">
-        <v>1320600</v>
+        <v>1274200</v>
       </c>
       <c r="K48" s="3">
         <v>1469400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>461100</v>
+        <v>444800</v>
       </c>
       <c r="E49" s="3">
-        <v>427500</v>
+        <v>412500</v>
       </c>
       <c r="F49" s="3">
-        <v>409000</v>
+        <v>394600</v>
       </c>
       <c r="G49" s="3">
-        <v>411100</v>
+        <v>396600</v>
       </c>
       <c r="H49" s="3">
-        <v>381600</v>
+        <v>368200</v>
       </c>
       <c r="I49" s="3">
-        <v>55900</v>
+        <v>53900</v>
       </c>
       <c r="J49" s="3">
-        <v>44000</v>
+        <v>42400</v>
       </c>
       <c r="K49" s="3">
         <v>48900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>565400</v>
+        <v>545500</v>
       </c>
       <c r="E52" s="3">
-        <v>439000</v>
+        <v>423600</v>
       </c>
       <c r="F52" s="3">
-        <v>327600</v>
+        <v>316000</v>
       </c>
       <c r="G52" s="3">
-        <v>252500</v>
+        <v>243600</v>
       </c>
       <c r="H52" s="3">
-        <v>220700</v>
+        <v>212900</v>
       </c>
       <c r="I52" s="3">
-        <v>198600</v>
+        <v>191600</v>
       </c>
       <c r="J52" s="3">
-        <v>147800</v>
+        <v>142600</v>
       </c>
       <c r="K52" s="3">
         <v>164500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9129200</v>
+        <v>8807900</v>
       </c>
       <c r="E54" s="3">
-        <v>8001900</v>
+        <v>7720300</v>
       </c>
       <c r="F54" s="3">
-        <v>6031000</v>
+        <v>5818700</v>
       </c>
       <c r="G54" s="3">
-        <v>5067400</v>
+        <v>4889000</v>
       </c>
       <c r="H54" s="3">
-        <v>4539200</v>
+        <v>4379500</v>
       </c>
       <c r="I54" s="3">
-        <v>2489500</v>
+        <v>2401900</v>
       </c>
       <c r="J54" s="3">
-        <v>1686600</v>
+        <v>1627300</v>
       </c>
       <c r="K54" s="3">
         <v>1876600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>528800</v>
+        <v>510200</v>
       </c>
       <c r="E57" s="3">
-        <v>506700</v>
+        <v>488800</v>
       </c>
       <c r="F57" s="3">
-        <v>382100</v>
+        <v>368700</v>
       </c>
       <c r="G57" s="3">
-        <v>307500</v>
+        <v>296600</v>
       </c>
       <c r="H57" s="3">
-        <v>245200</v>
+        <v>236500</v>
       </c>
       <c r="I57" s="3">
-        <v>184500</v>
+        <v>178000</v>
       </c>
       <c r="J57" s="3">
-        <v>82500</v>
+        <v>79600</v>
       </c>
       <c r="K57" s="3">
         <v>91800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12600</v>
+        <v>12100</v>
       </c>
       <c r="E58" s="3">
-        <v>59000</v>
+        <v>56900</v>
       </c>
       <c r="F58" s="3">
-        <v>8800</v>
+        <v>8500</v>
       </c>
       <c r="G58" s="3">
-        <v>369200</v>
+        <v>356300</v>
       </c>
       <c r="H58" s="3">
-        <v>98900</v>
+        <v>95400</v>
       </c>
       <c r="I58" s="3">
-        <v>44900</v>
+        <v>43300</v>
       </c>
       <c r="J58" s="3">
-        <v>119100</v>
+        <v>114900</v>
       </c>
       <c r="K58" s="3">
         <v>132500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>684300</v>
+        <v>660200</v>
       </c>
       <c r="E59" s="3">
-        <v>477800</v>
+        <v>460900</v>
       </c>
       <c r="F59" s="3">
-        <v>463900</v>
+        <v>447600</v>
       </c>
       <c r="G59" s="3">
-        <v>196400</v>
+        <v>189500</v>
       </c>
       <c r="H59" s="3">
-        <v>159400</v>
+        <v>153800</v>
       </c>
       <c r="I59" s="3">
-        <v>143900</v>
+        <v>138800</v>
       </c>
       <c r="J59" s="3">
-        <v>117500</v>
+        <v>113400</v>
       </c>
       <c r="K59" s="3">
         <v>130800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1225700</v>
+        <v>1182500</v>
       </c>
       <c r="E60" s="3">
-        <v>1043500</v>
+        <v>1006700</v>
       </c>
       <c r="F60" s="3">
-        <v>854900</v>
+        <v>824800</v>
       </c>
       <c r="G60" s="3">
-        <v>873100</v>
+        <v>842400</v>
       </c>
       <c r="H60" s="3">
-        <v>503500</v>
+        <v>485800</v>
       </c>
       <c r="I60" s="3">
-        <v>373300</v>
+        <v>360200</v>
       </c>
       <c r="J60" s="3">
-        <v>319100</v>
+        <v>307800</v>
       </c>
       <c r="K60" s="3">
         <v>355000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1215400</v>
+        <v>1172600</v>
       </c>
       <c r="E61" s="3">
-        <v>1057400</v>
+        <v>1020200</v>
       </c>
       <c r="F61" s="3">
-        <v>1430300</v>
+        <v>1380000</v>
       </c>
       <c r="G61" s="3">
-        <v>1092900</v>
+        <v>1054500</v>
       </c>
       <c r="H61" s="3">
-        <v>1431600</v>
+        <v>1381200</v>
       </c>
       <c r="I61" s="3">
-        <v>490600</v>
+        <v>473300</v>
       </c>
       <c r="J61" s="3">
-        <v>107900</v>
+        <v>104100</v>
       </c>
       <c r="K61" s="3">
         <v>120100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1834300</v>
+        <v>1769700</v>
       </c>
       <c r="E62" s="3">
-        <v>1681500</v>
+        <v>1622300</v>
       </c>
       <c r="F62" s="3">
-        <v>1887700</v>
+        <v>1821300</v>
       </c>
       <c r="G62" s="3">
-        <v>1626000</v>
+        <v>1568800</v>
       </c>
       <c r="H62" s="3">
-        <v>1172100</v>
+        <v>1130900</v>
       </c>
       <c r="I62" s="3">
-        <v>642900</v>
+        <v>620300</v>
       </c>
       <c r="J62" s="3">
-        <v>365500</v>
+        <v>352600</v>
       </c>
       <c r="K62" s="3">
         <v>406700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4359300</v>
+        <v>4205900</v>
       </c>
       <c r="E66" s="3">
-        <v>3915700</v>
+        <v>3777900</v>
       </c>
       <c r="F66" s="3">
-        <v>4260500</v>
+        <v>4110600</v>
       </c>
       <c r="G66" s="3">
-        <v>3647900</v>
+        <v>3519500</v>
       </c>
       <c r="H66" s="3">
-        <v>3108400</v>
+        <v>2999000</v>
       </c>
       <c r="I66" s="3">
-        <v>1507900</v>
+        <v>1454800</v>
       </c>
       <c r="J66" s="3">
-        <v>799000</v>
+        <v>770900</v>
       </c>
       <c r="K66" s="3">
         <v>889000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3289500</v>
+        <v>3173800</v>
       </c>
       <c r="E72" s="3">
-        <v>2375600</v>
+        <v>2292000</v>
       </c>
       <c r="F72" s="3">
-        <v>-688200</v>
+        <v>-664000</v>
       </c>
       <c r="G72" s="3">
-        <v>-709300</v>
+        <v>-684300</v>
       </c>
       <c r="H72" s="3">
-        <v>-592500</v>
+        <v>-571700</v>
       </c>
       <c r="I72" s="3">
-        <v>-307400</v>
+        <v>-296600</v>
       </c>
       <c r="J72" s="3">
-        <v>-409300</v>
+        <v>-394900</v>
       </c>
       <c r="K72" s="3">
         <v>-455400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4769800</v>
+        <v>4602000</v>
       </c>
       <c r="E76" s="3">
-        <v>4086200</v>
+        <v>3942400</v>
       </c>
       <c r="F76" s="3">
-        <v>1770400</v>
+        <v>1708100</v>
       </c>
       <c r="G76" s="3">
-        <v>1419500</v>
+        <v>1369500</v>
       </c>
       <c r="H76" s="3">
-        <v>1430800</v>
+        <v>1380400</v>
       </c>
       <c r="I76" s="3">
-        <v>981700</v>
+        <v>947100</v>
       </c>
       <c r="J76" s="3">
-        <v>887600</v>
+        <v>856400</v>
       </c>
       <c r="K76" s="3">
         <v>987600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1972300</v>
+        <v>1902900</v>
       </c>
       <c r="E81" s="3">
-        <v>1749000</v>
+        <v>1687500</v>
       </c>
       <c r="F81" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G81" s="3">
-        <v>-149200</v>
+        <v>-143900</v>
       </c>
       <c r="H81" s="3">
-        <v>-264800</v>
+        <v>-255500</v>
       </c>
       <c r="I81" s="3">
-        <v>207300</v>
+        <v>200000</v>
       </c>
       <c r="J81" s="3">
-        <v>42800</v>
+        <v>41300</v>
       </c>
       <c r="K81" s="3">
         <v>103000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>494800</v>
+        <v>477400</v>
       </c>
       <c r="E83" s="3">
-        <v>453000</v>
+        <v>437100</v>
       </c>
       <c r="F83" s="3">
-        <v>430500</v>
+        <v>415300</v>
       </c>
       <c r="G83" s="3">
-        <v>394600</v>
+        <v>380800</v>
       </c>
       <c r="H83" s="3">
-        <v>340100</v>
+        <v>328100</v>
       </c>
       <c r="I83" s="3">
-        <v>241200</v>
+        <v>232700</v>
       </c>
       <c r="J83" s="3">
-        <v>217000</v>
+        <v>209400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1924700</v>
+        <v>1857000</v>
       </c>
       <c r="E89" s="3">
-        <v>1620000</v>
+        <v>1563000</v>
       </c>
       <c r="F89" s="3">
-        <v>564700</v>
+        <v>544800</v>
       </c>
       <c r="G89" s="3">
-        <v>727800</v>
+        <v>702200</v>
       </c>
       <c r="H89" s="3">
-        <v>163500</v>
+        <v>157800</v>
       </c>
       <c r="I89" s="3">
-        <v>262900</v>
+        <v>253600</v>
       </c>
       <c r="J89" s="3">
-        <v>209800</v>
+        <v>202400</v>
       </c>
       <c r="K89" s="3">
         <v>269100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-760200</v>
+        <v>-733400</v>
       </c>
       <c r="E91" s="3">
-        <v>-573800</v>
+        <v>-553600</v>
       </c>
       <c r="F91" s="3">
-        <v>-459800</v>
+        <v>-443600</v>
       </c>
       <c r="G91" s="3">
-        <v>-422500</v>
+        <v>-407600</v>
       </c>
       <c r="H91" s="3">
-        <v>-363900</v>
+        <v>-351100</v>
       </c>
       <c r="I91" s="3">
-        <v>-247700</v>
+        <v>-239000</v>
       </c>
       <c r="J91" s="3">
-        <v>-199600</v>
+        <v>-192600</v>
       </c>
       <c r="K91" s="3">
         <v>-215800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-869300</v>
+        <v>-838700</v>
       </c>
       <c r="E94" s="3">
-        <v>-592900</v>
+        <v>-572100</v>
       </c>
       <c r="F94" s="3">
-        <v>-290300</v>
+        <v>-280100</v>
       </c>
       <c r="G94" s="3">
-        <v>-462100</v>
+        <v>-445800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1679400</v>
+        <v>-1620300</v>
       </c>
       <c r="I94" s="3">
-        <v>-563500</v>
+        <v>-543700</v>
       </c>
       <c r="J94" s="3">
-        <v>-199300</v>
+        <v>-192300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3430,22 +3430,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-497900</v>
+        <v>-480400</v>
       </c>
       <c r="E100" s="3">
-        <v>-133900</v>
+        <v>-129200</v>
       </c>
       <c r="F100" s="3">
-        <v>-87700</v>
+        <v>-84600</v>
       </c>
       <c r="G100" s="3">
-        <v>-244700</v>
+        <v>-236100</v>
       </c>
       <c r="H100" s="3">
-        <v>1599600</v>
+        <v>1543300</v>
       </c>
       <c r="I100" s="3">
-        <v>325000</v>
+        <v>313500</v>
       </c>
       <c r="J100" s="3">
         <v>-1200</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>42200</v>
+        <v>40800</v>
       </c>
       <c r="E101" s="3">
-        <v>-20800</v>
+        <v>-20000</v>
       </c>
       <c r="F101" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="G101" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="H101" s="3">
-        <v>-18400</v>
+        <v>-17800</v>
       </c>
       <c r="I101" s="3">
-        <v>-9400</v>
+        <v>-9000</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>599800</v>
+        <v>578700</v>
       </c>
       <c r="E102" s="3">
-        <v>872400</v>
+        <v>841700</v>
       </c>
       <c r="F102" s="3">
-        <v>183200</v>
+        <v>176700</v>
       </c>
       <c r="G102" s="3">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="H102" s="3">
-        <v>65300</v>
+        <v>63000</v>
       </c>
       <c r="I102" s="3">
-        <v>14900</v>
+        <v>14400</v>
       </c>
       <c r="J102" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="K102" s="3">
         <v>-61700</v>

--- a/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SBSW</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9913200</v>
+        <v>9276100</v>
       </c>
       <c r="E8" s="3">
-        <v>7334000</v>
+        <v>6862600</v>
       </c>
       <c r="F8" s="3">
-        <v>4198300</v>
+        <v>3928500</v>
       </c>
       <c r="G8" s="3">
-        <v>2916300</v>
+        <v>2728900</v>
       </c>
       <c r="H8" s="3">
-        <v>2643100</v>
+        <v>2473300</v>
       </c>
       <c r="I8" s="3">
-        <v>1798500</v>
+        <v>1682900</v>
       </c>
       <c r="J8" s="3">
-        <v>1307800</v>
+        <v>1223800</v>
       </c>
       <c r="K8" s="3">
         <v>1446000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6449000</v>
+        <v>6034500</v>
       </c>
       <c r="E9" s="3">
-        <v>4901200</v>
+        <v>4586200</v>
       </c>
       <c r="F9" s="3">
-        <v>3669800</v>
+        <v>3434000</v>
       </c>
       <c r="G9" s="3">
-        <v>2783000</v>
+        <v>2604200</v>
       </c>
       <c r="H9" s="3">
-        <v>2451400</v>
+        <v>2293800</v>
       </c>
       <c r="I9" s="3">
-        <v>2649800</v>
+        <v>2479500</v>
       </c>
       <c r="J9" s="3">
-        <v>1175400</v>
+        <v>1099900</v>
       </c>
       <c r="K9" s="3">
         <v>1194800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3464200</v>
+        <v>3241600</v>
       </c>
       <c r="E10" s="3">
-        <v>2432800</v>
+        <v>2276500</v>
       </c>
       <c r="F10" s="3">
-        <v>528500</v>
+        <v>494500</v>
       </c>
       <c r="G10" s="3">
-        <v>133300</v>
+        <v>124700</v>
       </c>
       <c r="H10" s="3">
-        <v>191700</v>
+        <v>179400</v>
       </c>
       <c r="I10" s="3">
-        <v>-851200</v>
+        <v>-796500</v>
       </c>
       <c r="J10" s="3">
-        <v>132400</v>
+        <v>123900</v>
       </c>
       <c r="K10" s="3">
         <v>251200</v>
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K12" s="3">
         <v>1000</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>310800</v>
+        <v>290800</v>
       </c>
       <c r="E14" s="3">
-        <v>118400</v>
+        <v>110800</v>
       </c>
       <c r="F14" s="3">
-        <v>39300</v>
+        <v>36800</v>
       </c>
       <c r="G14" s="3">
-        <v>206500</v>
+        <v>193200</v>
       </c>
       <c r="H14" s="3">
-        <v>327700</v>
+        <v>306700</v>
       </c>
       <c r="I14" s="3">
-        <v>-26100</v>
+        <v>-24400</v>
       </c>
       <c r="J14" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="K14" s="3">
         <v>4800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6781800</v>
+        <v>6345900</v>
       </c>
       <c r="E17" s="3">
-        <v>5049100</v>
+        <v>4724600</v>
       </c>
       <c r="F17" s="3">
-        <v>3730100</v>
+        <v>3490300</v>
       </c>
       <c r="G17" s="3">
-        <v>3006700</v>
+        <v>2813500</v>
       </c>
       <c r="H17" s="3">
-        <v>2792500</v>
+        <v>2613000</v>
       </c>
       <c r="I17" s="3">
-        <v>1460000</v>
+        <v>1366200</v>
       </c>
       <c r="J17" s="3">
-        <v>1200100</v>
+        <v>1123000</v>
       </c>
       <c r="K17" s="3">
         <v>1228400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3131400</v>
+        <v>2930200</v>
       </c>
       <c r="E18" s="3">
-        <v>2284900</v>
+        <v>2138100</v>
       </c>
       <c r="F18" s="3">
-        <v>468200</v>
+        <v>438100</v>
       </c>
       <c r="G18" s="3">
-        <v>-90500</v>
+        <v>-84600</v>
       </c>
       <c r="H18" s="3">
-        <v>-149300</v>
+        <v>-139700</v>
       </c>
       <c r="I18" s="3">
-        <v>338500</v>
+        <v>316700</v>
       </c>
       <c r="J18" s="3">
-        <v>107700</v>
+        <v>100800</v>
       </c>
       <c r="K18" s="3">
         <v>217600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-328400</v>
+        <v>-307300</v>
       </c>
       <c r="E20" s="3">
-        <v>-143500</v>
+        <v>-134300</v>
       </c>
       <c r="F20" s="3">
-        <v>-436400</v>
+        <v>-408400</v>
       </c>
       <c r="G20" s="3">
-        <v>129300</v>
+        <v>120900</v>
       </c>
       <c r="H20" s="3">
-        <v>-140600</v>
+        <v>-131500</v>
       </c>
       <c r="I20" s="3">
-        <v>-61400</v>
+        <v>-57400</v>
       </c>
       <c r="J20" s="3">
-        <v>-34900</v>
+        <v>-32600</v>
       </c>
       <c r="K20" s="3">
         <v>-47300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3270300</v>
+        <v>3031000</v>
       </c>
       <c r="E21" s="3">
-        <v>2569200</v>
+        <v>2391500</v>
       </c>
       <c r="F21" s="3">
-        <v>438300</v>
+        <v>385300</v>
       </c>
       <c r="G21" s="3">
-        <v>411400</v>
+        <v>342700</v>
       </c>
       <c r="H21" s="3">
-        <v>31200</v>
+        <v>-54000</v>
       </c>
       <c r="I21" s="3">
-        <v>504800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>277700</v>
+        <v>454800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65200</v>
+        <v>61000</v>
       </c>
       <c r="E22" s="3">
-        <v>98800</v>
+        <v>92500</v>
       </c>
       <c r="F22" s="3">
-        <v>106700</v>
+        <v>99800</v>
       </c>
       <c r="G22" s="3">
-        <v>121500</v>
+        <v>113700</v>
       </c>
       <c r="H22" s="3">
-        <v>134900</v>
+        <v>126300</v>
       </c>
       <c r="I22" s="3">
-        <v>32800</v>
+        <v>30600</v>
       </c>
       <c r="J22" s="3">
-        <v>20200</v>
+        <v>18900</v>
       </c>
       <c r="K22" s="3">
         <v>15300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2737900</v>
+        <v>2561900</v>
       </c>
       <c r="E23" s="3">
-        <v>2042600</v>
+        <v>1911300</v>
       </c>
       <c r="F23" s="3">
-        <v>-74900</v>
+        <v>-70000</v>
       </c>
       <c r="G23" s="3">
-        <v>-82700</v>
+        <v>-77400</v>
       </c>
       <c r="H23" s="3">
-        <v>-424800</v>
+        <v>-397500</v>
       </c>
       <c r="I23" s="3">
-        <v>244400</v>
+        <v>228700</v>
       </c>
       <c r="J23" s="3">
-        <v>52700</v>
+        <v>49300</v>
       </c>
       <c r="K23" s="3">
         <v>155000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>792200</v>
+        <v>741300</v>
       </c>
       <c r="E24" s="3">
-        <v>279700</v>
+        <v>261700</v>
       </c>
       <c r="F24" s="3">
-        <v>-99800</v>
+        <v>-93400</v>
       </c>
       <c r="G24" s="3">
-        <v>62400</v>
+        <v>58400</v>
       </c>
       <c r="H24" s="3">
-        <v>-169600</v>
+        <v>-158700</v>
       </c>
       <c r="I24" s="3">
-        <v>69200</v>
+        <v>64800</v>
       </c>
       <c r="J24" s="3">
-        <v>21700</v>
+        <v>20300</v>
       </c>
       <c r="K24" s="3">
         <v>55000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1945600</v>
+        <v>1820600</v>
       </c>
       <c r="E26" s="3">
-        <v>1762900</v>
+        <v>1649600</v>
       </c>
       <c r="F26" s="3">
-        <v>24900</v>
+        <v>23300</v>
       </c>
       <c r="G26" s="3">
-        <v>-145100</v>
+        <v>-135800</v>
       </c>
       <c r="H26" s="3">
-        <v>-255200</v>
+        <v>-238800</v>
       </c>
       <c r="I26" s="3">
-        <v>175200</v>
+        <v>163900</v>
       </c>
       <c r="J26" s="3">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="K26" s="3">
         <v>100000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1902900</v>
+        <v>1780600</v>
       </c>
       <c r="E27" s="3">
-        <v>1687500</v>
+        <v>1579000</v>
       </c>
       <c r="F27" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="G27" s="3">
-        <v>-143900</v>
+        <v>-134700</v>
       </c>
       <c r="H27" s="3">
-        <v>-255500</v>
+        <v>-239000</v>
       </c>
       <c r="I27" s="3">
-        <v>200000</v>
+        <v>187100</v>
       </c>
       <c r="J27" s="3">
-        <v>41300</v>
+        <v>38600</v>
       </c>
       <c r="K27" s="3">
         <v>103000</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>328400</v>
+        <v>307300</v>
       </c>
       <c r="E32" s="3">
-        <v>143500</v>
+        <v>134300</v>
       </c>
       <c r="F32" s="3">
-        <v>436400</v>
+        <v>408400</v>
       </c>
       <c r="G32" s="3">
-        <v>-129300</v>
+        <v>-120900</v>
       </c>
       <c r="H32" s="3">
-        <v>140600</v>
+        <v>131500</v>
       </c>
       <c r="I32" s="3">
-        <v>61400</v>
+        <v>57400</v>
       </c>
       <c r="J32" s="3">
-        <v>34900</v>
+        <v>32600</v>
       </c>
       <c r="K32" s="3">
         <v>47300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1902900</v>
+        <v>1780600</v>
       </c>
       <c r="E33" s="3">
-        <v>1687500</v>
+        <v>1579000</v>
       </c>
       <c r="F33" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="G33" s="3">
-        <v>-143900</v>
+        <v>-134700</v>
       </c>
       <c r="H33" s="3">
-        <v>-255500</v>
+        <v>-239000</v>
       </c>
       <c r="I33" s="3">
-        <v>200000</v>
+        <v>187100</v>
       </c>
       <c r="J33" s="3">
-        <v>41300</v>
+        <v>38600</v>
       </c>
       <c r="K33" s="3">
         <v>103000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1902900</v>
+        <v>1780600</v>
       </c>
       <c r="E35" s="3">
-        <v>1687500</v>
+        <v>1579000</v>
       </c>
       <c r="F35" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="G35" s="3">
-        <v>-143900</v>
+        <v>-134700</v>
       </c>
       <c r="H35" s="3">
-        <v>-255500</v>
+        <v>-239000</v>
       </c>
       <c r="I35" s="3">
-        <v>200000</v>
+        <v>187100</v>
       </c>
       <c r="J35" s="3">
-        <v>41300</v>
+        <v>38600</v>
       </c>
       <c r="K35" s="3">
         <v>103000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1743900</v>
+        <v>1631800</v>
       </c>
       <c r="E41" s="3">
-        <v>1165200</v>
+        <v>1090300</v>
       </c>
       <c r="F41" s="3">
-        <v>323500</v>
+        <v>302700</v>
       </c>
       <c r="G41" s="3">
-        <v>146400</v>
+        <v>137000</v>
       </c>
       <c r="H41" s="3">
-        <v>118400</v>
+        <v>110800</v>
       </c>
       <c r="I41" s="3">
-        <v>51300</v>
+        <v>48000</v>
       </c>
       <c r="J41" s="3">
-        <v>41300</v>
+        <v>38600</v>
       </c>
       <c r="K41" s="3">
         <v>47600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>509100</v>
+        <v>476400</v>
       </c>
       <c r="E43" s="3">
-        <v>384700</v>
+        <v>359900</v>
       </c>
       <c r="F43" s="3">
-        <v>264700</v>
+        <v>247700</v>
       </c>
       <c r="G43" s="3">
-        <v>406100</v>
+        <v>380000</v>
       </c>
       <c r="H43" s="3">
-        <v>355200</v>
+        <v>332400</v>
       </c>
       <c r="I43" s="3">
-        <v>331600</v>
+        <v>310300</v>
       </c>
       <c r="J43" s="3">
-        <v>86600</v>
+        <v>81000</v>
       </c>
       <c r="K43" s="3">
         <v>99800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1443900</v>
+        <v>1351100</v>
       </c>
       <c r="E44" s="3">
-        <v>1436500</v>
+        <v>1344200</v>
       </c>
       <c r="F44" s="3">
-        <v>892500</v>
+        <v>835200</v>
       </c>
       <c r="G44" s="3">
-        <v>304800</v>
+        <v>285200</v>
       </c>
       <c r="H44" s="3">
-        <v>203000</v>
+        <v>190000</v>
       </c>
       <c r="I44" s="3">
-        <v>39000</v>
+        <v>36500</v>
       </c>
       <c r="J44" s="3">
-        <v>23400</v>
+        <v>21900</v>
       </c>
       <c r="K44" s="3">
         <v>26900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35400</v>
+        <v>33100</v>
       </c>
       <c r="E45" s="3">
-        <v>21200</v>
+        <v>19900</v>
       </c>
       <c r="F45" s="3">
-        <v>25500</v>
+        <v>23900</v>
       </c>
       <c r="G45" s="3">
-        <v>17500</v>
+        <v>16300</v>
       </c>
       <c r="H45" s="3">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="I45" s="3">
-        <v>21600</v>
+        <v>20200</v>
       </c>
       <c r="J45" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="K45" s="3">
         <v>8200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3732300</v>
+        <v>3492400</v>
       </c>
       <c r="E46" s="3">
-        <v>3007600</v>
+        <v>2814300</v>
       </c>
       <c r="F46" s="3">
-        <v>1506200</v>
+        <v>1409400</v>
       </c>
       <c r="G46" s="3">
-        <v>874800</v>
+        <v>818600</v>
       </c>
       <c r="H46" s="3">
-        <v>691100</v>
+        <v>646700</v>
       </c>
       <c r="I46" s="3">
-        <v>443500</v>
+        <v>415000</v>
       </c>
       <c r="J46" s="3">
-        <v>158400</v>
+        <v>148200</v>
       </c>
       <c r="K46" s="3">
         <v>182600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>474700</v>
+        <v>444200</v>
       </c>
       <c r="E47" s="3">
-        <v>370900</v>
+        <v>347000</v>
       </c>
       <c r="F47" s="3">
-        <v>271900</v>
+        <v>254400</v>
       </c>
       <c r="G47" s="3">
-        <v>233100</v>
+        <v>218100</v>
       </c>
       <c r="H47" s="3">
-        <v>145500</v>
+        <v>136200</v>
       </c>
       <c r="I47" s="3">
-        <v>144700</v>
+        <v>135400</v>
       </c>
       <c r="J47" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="K47" s="3">
         <v>11200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3610600</v>
+        <v>3378500</v>
       </c>
       <c r="E48" s="3">
-        <v>3505800</v>
+        <v>3280400</v>
       </c>
       <c r="F48" s="3">
-        <v>3329900</v>
+        <v>3115900</v>
       </c>
       <c r="G48" s="3">
-        <v>3140900</v>
+        <v>2939100</v>
       </c>
       <c r="H48" s="3">
-        <v>2961700</v>
+        <v>2771300</v>
       </c>
       <c r="I48" s="3">
-        <v>1568200</v>
+        <v>1467500</v>
       </c>
       <c r="J48" s="3">
-        <v>1274200</v>
+        <v>1192300</v>
       </c>
       <c r="K48" s="3">
         <v>1469400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>444800</v>
+        <v>416300</v>
       </c>
       <c r="E49" s="3">
-        <v>412500</v>
+        <v>386000</v>
       </c>
       <c r="F49" s="3">
-        <v>394600</v>
+        <v>369300</v>
       </c>
       <c r="G49" s="3">
-        <v>396600</v>
+        <v>371100</v>
       </c>
       <c r="H49" s="3">
-        <v>368200</v>
+        <v>344600</v>
       </c>
       <c r="I49" s="3">
-        <v>53900</v>
+        <v>50400</v>
       </c>
       <c r="J49" s="3">
-        <v>42400</v>
+        <v>39700</v>
       </c>
       <c r="K49" s="3">
         <v>48900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>545500</v>
+        <v>510400</v>
       </c>
       <c r="E52" s="3">
-        <v>423600</v>
+        <v>396300</v>
       </c>
       <c r="F52" s="3">
-        <v>316000</v>
+        <v>295700</v>
       </c>
       <c r="G52" s="3">
-        <v>243600</v>
+        <v>228000</v>
       </c>
       <c r="H52" s="3">
-        <v>212900</v>
+        <v>199200</v>
       </c>
       <c r="I52" s="3">
-        <v>191600</v>
+        <v>179300</v>
       </c>
       <c r="J52" s="3">
-        <v>142600</v>
+        <v>133400</v>
       </c>
       <c r="K52" s="3">
         <v>164500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8807900</v>
+        <v>8241800</v>
       </c>
       <c r="E54" s="3">
-        <v>7720300</v>
+        <v>7224100</v>
       </c>
       <c r="F54" s="3">
-        <v>5818700</v>
+        <v>5444700</v>
       </c>
       <c r="G54" s="3">
-        <v>4889000</v>
+        <v>4574800</v>
       </c>
       <c r="H54" s="3">
-        <v>4379500</v>
+        <v>4098000</v>
       </c>
       <c r="I54" s="3">
-        <v>2401900</v>
+        <v>2247500</v>
       </c>
       <c r="J54" s="3">
-        <v>1627300</v>
+        <v>1522700</v>
       </c>
       <c r="K54" s="3">
         <v>1876600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>510200</v>
+        <v>477400</v>
       </c>
       <c r="E57" s="3">
-        <v>488800</v>
+        <v>457400</v>
       </c>
       <c r="F57" s="3">
-        <v>368700</v>
+        <v>345000</v>
       </c>
       <c r="G57" s="3">
-        <v>296600</v>
+        <v>277600</v>
       </c>
       <c r="H57" s="3">
-        <v>236500</v>
+        <v>221300</v>
       </c>
       <c r="I57" s="3">
-        <v>178000</v>
+        <v>166600</v>
       </c>
       <c r="J57" s="3">
-        <v>79600</v>
+        <v>74400</v>
       </c>
       <c r="K57" s="3">
         <v>91800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12100</v>
+        <v>11400</v>
       </c>
       <c r="E58" s="3">
-        <v>56900</v>
+        <v>53300</v>
       </c>
       <c r="F58" s="3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="G58" s="3">
-        <v>356300</v>
+        <v>333400</v>
       </c>
       <c r="H58" s="3">
-        <v>95400</v>
+        <v>89300</v>
       </c>
       <c r="I58" s="3">
-        <v>43300</v>
+        <v>40500</v>
       </c>
       <c r="J58" s="3">
-        <v>114900</v>
+        <v>107500</v>
       </c>
       <c r="K58" s="3">
         <v>132500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>660200</v>
+        <v>617800</v>
       </c>
       <c r="E59" s="3">
-        <v>460900</v>
+        <v>431300</v>
       </c>
       <c r="F59" s="3">
-        <v>447600</v>
+        <v>418800</v>
       </c>
       <c r="G59" s="3">
-        <v>189500</v>
+        <v>177300</v>
       </c>
       <c r="H59" s="3">
-        <v>153800</v>
+        <v>143900</v>
       </c>
       <c r="I59" s="3">
-        <v>138800</v>
+        <v>129900</v>
       </c>
       <c r="J59" s="3">
-        <v>113400</v>
+        <v>106100</v>
       </c>
       <c r="K59" s="3">
         <v>130800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1182500</v>
+        <v>1106500</v>
       </c>
       <c r="E60" s="3">
-        <v>1006700</v>
+        <v>942000</v>
       </c>
       <c r="F60" s="3">
-        <v>824800</v>
+        <v>771800</v>
       </c>
       <c r="G60" s="3">
-        <v>842400</v>
+        <v>788300</v>
       </c>
       <c r="H60" s="3">
-        <v>485800</v>
+        <v>454500</v>
       </c>
       <c r="I60" s="3">
-        <v>360200</v>
+        <v>337000</v>
       </c>
       <c r="J60" s="3">
-        <v>307800</v>
+        <v>288100</v>
       </c>
       <c r="K60" s="3">
         <v>355000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1172600</v>
+        <v>1097200</v>
       </c>
       <c r="E61" s="3">
-        <v>1020200</v>
+        <v>954600</v>
       </c>
       <c r="F61" s="3">
-        <v>1380000</v>
+        <v>1291300</v>
       </c>
       <c r="G61" s="3">
-        <v>1054500</v>
+        <v>986700</v>
       </c>
       <c r="H61" s="3">
-        <v>1381200</v>
+        <v>1292400</v>
       </c>
       <c r="I61" s="3">
-        <v>473300</v>
+        <v>442900</v>
       </c>
       <c r="J61" s="3">
-        <v>104100</v>
+        <v>97400</v>
       </c>
       <c r="K61" s="3">
         <v>120100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1769700</v>
+        <v>1656000</v>
       </c>
       <c r="E62" s="3">
-        <v>1622300</v>
+        <v>1518000</v>
       </c>
       <c r="F62" s="3">
-        <v>1821300</v>
+        <v>1704200</v>
       </c>
       <c r="G62" s="3">
-        <v>1568800</v>
+        <v>1467900</v>
       </c>
       <c r="H62" s="3">
-        <v>1130900</v>
+        <v>1058200</v>
       </c>
       <c r="I62" s="3">
-        <v>620300</v>
+        <v>580400</v>
       </c>
       <c r="J62" s="3">
-        <v>352600</v>
+        <v>330000</v>
       </c>
       <c r="K62" s="3">
         <v>406700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4205900</v>
+        <v>3935600</v>
       </c>
       <c r="E66" s="3">
-        <v>3777900</v>
+        <v>3535100</v>
       </c>
       <c r="F66" s="3">
-        <v>4110600</v>
+        <v>3846400</v>
       </c>
       <c r="G66" s="3">
-        <v>3519500</v>
+        <v>3293300</v>
       </c>
       <c r="H66" s="3">
-        <v>2999000</v>
+        <v>2806300</v>
       </c>
       <c r="I66" s="3">
-        <v>1454800</v>
+        <v>1361300</v>
       </c>
       <c r="J66" s="3">
-        <v>770900</v>
+        <v>721400</v>
       </c>
       <c r="K66" s="3">
         <v>889000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3173800</v>
+        <v>2969800</v>
       </c>
       <c r="E72" s="3">
-        <v>2292000</v>
+        <v>2144700</v>
       </c>
       <c r="F72" s="3">
-        <v>-664000</v>
+        <v>-621300</v>
       </c>
       <c r="G72" s="3">
-        <v>-684300</v>
+        <v>-640300</v>
       </c>
       <c r="H72" s="3">
-        <v>-571700</v>
+        <v>-534900</v>
       </c>
       <c r="I72" s="3">
-        <v>-296600</v>
+        <v>-277500</v>
       </c>
       <c r="J72" s="3">
-        <v>-394900</v>
+        <v>-369500</v>
       </c>
       <c r="K72" s="3">
         <v>-455400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4602000</v>
+        <v>4306200</v>
       </c>
       <c r="E76" s="3">
-        <v>3942400</v>
+        <v>3689000</v>
       </c>
       <c r="F76" s="3">
-        <v>1708100</v>
+        <v>1598400</v>
       </c>
       <c r="G76" s="3">
-        <v>1369500</v>
+        <v>1281500</v>
       </c>
       <c r="H76" s="3">
-        <v>1380400</v>
+        <v>1291700</v>
       </c>
       <c r="I76" s="3">
-        <v>947100</v>
+        <v>886200</v>
       </c>
       <c r="J76" s="3">
-        <v>856400</v>
+        <v>801300</v>
       </c>
       <c r="K76" s="3">
         <v>987600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1902900</v>
+        <v>1780600</v>
       </c>
       <c r="E81" s="3">
-        <v>1687500</v>
+        <v>1579000</v>
       </c>
       <c r="F81" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="G81" s="3">
-        <v>-143900</v>
+        <v>-134700</v>
       </c>
       <c r="H81" s="3">
-        <v>-255500</v>
+        <v>-239000</v>
       </c>
       <c r="I81" s="3">
-        <v>200000</v>
+        <v>187100</v>
       </c>
       <c r="J81" s="3">
-        <v>41300</v>
+        <v>38600</v>
       </c>
       <c r="K81" s="3">
         <v>103000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>477400</v>
+        <v>409000</v>
       </c>
       <c r="E83" s="3">
-        <v>437100</v>
+        <v>388600</v>
       </c>
       <c r="F83" s="3">
-        <v>415300</v>
+        <v>356300</v>
       </c>
       <c r="G83" s="3">
-        <v>380800</v>
+        <v>307000</v>
       </c>
       <c r="H83" s="3">
-        <v>328100</v>
+        <v>217700</v>
       </c>
       <c r="I83" s="3">
-        <v>232700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>209400</v>
+        <v>195900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1857000</v>
+        <v>1462500</v>
       </c>
       <c r="E89" s="3">
-        <v>1563000</v>
+        <v>509800</v>
       </c>
       <c r="F89" s="3">
-        <v>544800</v>
+        <v>657100</v>
       </c>
       <c r="G89" s="3">
-        <v>702200</v>
+        <v>147600</v>
       </c>
       <c r="H89" s="3">
-        <v>157800</v>
+        <v>237300</v>
       </c>
       <c r="I89" s="3">
-        <v>253600</v>
+        <v>189400</v>
       </c>
       <c r="J89" s="3">
-        <v>202400</v>
+        <v>218300</v>
       </c>
       <c r="K89" s="3">
         <v>269100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-733400</v>
+        <v>-518000</v>
       </c>
       <c r="E91" s="3">
-        <v>-553600</v>
+        <v>-415100</v>
       </c>
       <c r="F91" s="3">
-        <v>-443600</v>
+        <v>-381400</v>
       </c>
       <c r="G91" s="3">
-        <v>-407600</v>
+        <v>-328500</v>
       </c>
       <c r="H91" s="3">
-        <v>-351100</v>
+        <v>-223600</v>
       </c>
       <c r="I91" s="3">
-        <v>-239000</v>
+        <v>-180200</v>
       </c>
       <c r="J91" s="3">
-        <v>-192600</v>
+        <v>-175100</v>
       </c>
       <c r="K91" s="3">
         <v>-215800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-838700</v>
+        <v>-535300</v>
       </c>
       <c r="E94" s="3">
-        <v>-572100</v>
+        <v>-262100</v>
       </c>
       <c r="F94" s="3">
-        <v>-280100</v>
+        <v>-417100</v>
       </c>
       <c r="G94" s="3">
-        <v>-445800</v>
+        <v>-1516100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1620300</v>
+        <v>-508700</v>
       </c>
       <c r="I94" s="3">
-        <v>-543700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-192300</v>
+        <v>-179900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-480400</v>
+        <v>-120900</v>
       </c>
       <c r="E100" s="3">
-        <v>-129200</v>
+        <v>-79200</v>
       </c>
       <c r="F100" s="3">
-        <v>-84600</v>
+        <v>-220900</v>
       </c>
       <c r="G100" s="3">
-        <v>-236100</v>
+        <v>1444100</v>
       </c>
       <c r="H100" s="3">
-        <v>1543300</v>
+        <v>293400</v>
       </c>
       <c r="I100" s="3">
-        <v>313500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40800</v>
+        <v>-18700</v>
       </c>
       <c r="E101" s="3">
-        <v>-20000</v>
+        <v>-3200</v>
       </c>
       <c r="F101" s="3">
-        <v>-3400</v>
+        <v>7200</v>
       </c>
       <c r="G101" s="3">
-        <v>7700</v>
+        <v>-16600</v>
       </c>
       <c r="H101" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-9000</v>
+        <v>-8500</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>578700</v>
+        <v>787600</v>
       </c>
       <c r="E102" s="3">
-        <v>841700</v>
+        <v>165400</v>
       </c>
       <c r="F102" s="3">
-        <v>176700</v>
+        <v>26200</v>
       </c>
       <c r="G102" s="3">
-        <v>28000</v>
+        <v>59000</v>
       </c>
       <c r="H102" s="3">
-        <v>63000</v>
+        <v>13500</v>
       </c>
       <c r="I102" s="3">
-        <v>14400</v>
+        <v>8300</v>
       </c>
       <c r="J102" s="3">
-        <v>8900</v>
+        <v>-50100</v>
       </c>
       <c r="K102" s="3">
         <v>-61700</v>

--- a/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9276100</v>
+        <v>7152300</v>
       </c>
       <c r="E8" s="3">
-        <v>6862600</v>
+        <v>8905900</v>
       </c>
       <c r="F8" s="3">
-        <v>3928500</v>
+        <v>6588700</v>
       </c>
       <c r="G8" s="3">
-        <v>2728900</v>
+        <v>3771700</v>
       </c>
       <c r="H8" s="3">
-        <v>2473300</v>
+        <v>2619900</v>
       </c>
       <c r="I8" s="3">
-        <v>1682900</v>
+        <v>2374500</v>
       </c>
       <c r="J8" s="3">
+        <v>1615800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1223800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1446000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1287100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6034500</v>
+        <v>5350800</v>
       </c>
       <c r="E9" s="3">
-        <v>4586200</v>
+        <v>5793700</v>
       </c>
       <c r="F9" s="3">
-        <v>3434000</v>
+        <v>4403100</v>
       </c>
       <c r="G9" s="3">
-        <v>2604200</v>
+        <v>3296900</v>
       </c>
       <c r="H9" s="3">
-        <v>2293800</v>
+        <v>2500200</v>
       </c>
       <c r="I9" s="3">
-        <v>2479500</v>
+        <v>2202300</v>
       </c>
       <c r="J9" s="3">
+        <v>2380500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1099900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1194800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1136000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3241600</v>
+        <v>1801400</v>
       </c>
       <c r="E10" s="3">
-        <v>2276500</v>
+        <v>3112200</v>
       </c>
       <c r="F10" s="3">
-        <v>494500</v>
+        <v>2185600</v>
       </c>
       <c r="G10" s="3">
-        <v>124700</v>
+        <v>474800</v>
       </c>
       <c r="H10" s="3">
-        <v>179400</v>
+        <v>119700</v>
       </c>
       <c r="I10" s="3">
-        <v>-796500</v>
+        <v>172300</v>
       </c>
       <c r="J10" s="3">
+        <v>-764700</v>
+      </c>
+      <c r="K10" s="3">
         <v>123900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>251200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>151100</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -848,18 +861,21 @@
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>290800</v>
+        <v>42300</v>
       </c>
       <c r="E14" s="3">
-        <v>110800</v>
+        <v>279200</v>
       </c>
       <c r="F14" s="3">
-        <v>36800</v>
+        <v>106400</v>
       </c>
       <c r="G14" s="3">
-        <v>193200</v>
+        <v>35300</v>
       </c>
       <c r="H14" s="3">
-        <v>306700</v>
+        <v>185500</v>
       </c>
       <c r="I14" s="3">
-        <v>-24400</v>
+        <v>294400</v>
       </c>
       <c r="J14" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="K14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>86300</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6345900</v>
+        <v>5404400</v>
       </c>
       <c r="E17" s="3">
-        <v>4724600</v>
+        <v>6092700</v>
       </c>
       <c r="F17" s="3">
-        <v>3490300</v>
+        <v>4536000</v>
       </c>
       <c r="G17" s="3">
-        <v>2813500</v>
+        <v>3351000</v>
       </c>
       <c r="H17" s="3">
-        <v>2613000</v>
+        <v>2701200</v>
       </c>
       <c r="I17" s="3">
-        <v>1366200</v>
+        <v>2508700</v>
       </c>
       <c r="J17" s="3">
+        <v>1311700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1123000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1228400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1138400</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2930200</v>
+        <v>1747800</v>
       </c>
       <c r="E18" s="3">
-        <v>2138100</v>
+        <v>2813200</v>
       </c>
       <c r="F18" s="3">
-        <v>438100</v>
+        <v>2052700</v>
       </c>
       <c r="G18" s="3">
-        <v>-84600</v>
+        <v>420700</v>
       </c>
       <c r="H18" s="3">
-        <v>-139700</v>
+        <v>-81300</v>
       </c>
       <c r="I18" s="3">
-        <v>316700</v>
+        <v>-134200</v>
       </c>
       <c r="J18" s="3">
+        <v>304100</v>
+      </c>
+      <c r="K18" s="3">
         <v>100800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>217600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>148700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,64 +1082,68 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-307300</v>
+        <v>-237800</v>
       </c>
       <c r="E20" s="3">
-        <v>-134300</v>
+        <v>-295000</v>
       </c>
       <c r="F20" s="3">
-        <v>-408400</v>
+        <v>-128900</v>
       </c>
       <c r="G20" s="3">
-        <v>120900</v>
+        <v>-392100</v>
       </c>
       <c r="H20" s="3">
-        <v>-131500</v>
+        <v>116100</v>
       </c>
       <c r="I20" s="3">
-        <v>-57400</v>
+        <v>-126300</v>
       </c>
       <c r="J20" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-32600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-47300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3031000</v>
+        <v>1878400</v>
       </c>
       <c r="E21" s="3">
-        <v>2391500</v>
+        <v>2949200</v>
       </c>
       <c r="F21" s="3">
-        <v>385300</v>
+        <v>2318400</v>
       </c>
       <c r="G21" s="3">
-        <v>342700</v>
+        <v>403500</v>
       </c>
       <c r="H21" s="3">
-        <v>-54000</v>
+        <v>378600</v>
       </c>
       <c r="I21" s="3">
-        <v>454800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>35800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>459000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1115,108 +1151,120 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>61000</v>
+        <v>66900</v>
       </c>
       <c r="E22" s="3">
-        <v>92500</v>
+        <v>58500</v>
       </c>
       <c r="F22" s="3">
-        <v>99800</v>
+        <v>88800</v>
       </c>
       <c r="G22" s="3">
-        <v>113700</v>
+        <v>95800</v>
       </c>
       <c r="H22" s="3">
-        <v>126300</v>
+        <v>109200</v>
       </c>
       <c r="I22" s="3">
-        <v>30600</v>
+        <v>121200</v>
       </c>
       <c r="J22" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K22" s="3">
         <v>18900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21300</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2561900</v>
+        <v>1443200</v>
       </c>
       <c r="E23" s="3">
-        <v>1911300</v>
+        <v>2459600</v>
       </c>
       <c r="F23" s="3">
-        <v>-70000</v>
+        <v>1835000</v>
       </c>
       <c r="G23" s="3">
-        <v>-77400</v>
+        <v>-67200</v>
       </c>
       <c r="H23" s="3">
-        <v>-397500</v>
+        <v>-74300</v>
       </c>
       <c r="I23" s="3">
-        <v>228700</v>
+        <v>-381700</v>
       </c>
       <c r="J23" s="3">
+        <v>219500</v>
+      </c>
+      <c r="K23" s="3">
         <v>49300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>155000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>130100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>741300</v>
+        <v>461500</v>
       </c>
       <c r="E24" s="3">
-        <v>261700</v>
+        <v>711700</v>
       </c>
       <c r="F24" s="3">
-        <v>-93400</v>
+        <v>251300</v>
       </c>
       <c r="G24" s="3">
-        <v>58400</v>
+        <v>-89600</v>
       </c>
       <c r="H24" s="3">
-        <v>-158700</v>
+        <v>56100</v>
       </c>
       <c r="I24" s="3">
-        <v>64800</v>
+        <v>-152400</v>
       </c>
       <c r="J24" s="3">
+        <v>62200</v>
+      </c>
+      <c r="K24" s="3">
         <v>20300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1820600</v>
+        <v>981600</v>
       </c>
       <c r="E26" s="3">
-        <v>1649600</v>
+        <v>1747900</v>
       </c>
       <c r="F26" s="3">
-        <v>23300</v>
+        <v>1583700</v>
       </c>
       <c r="G26" s="3">
-        <v>-135800</v>
+        <v>22400</v>
       </c>
       <c r="H26" s="3">
-        <v>-238800</v>
+        <v>-130400</v>
       </c>
       <c r="I26" s="3">
-        <v>163900</v>
+        <v>-229300</v>
       </c>
       <c r="J26" s="3">
+        <v>157400</v>
+      </c>
+      <c r="K26" s="3">
         <v>29000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>113100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1780600</v>
+        <v>951400</v>
       </c>
       <c r="E27" s="3">
-        <v>1579000</v>
+        <v>1709600</v>
       </c>
       <c r="F27" s="3">
-        <v>3300</v>
+        <v>1516000</v>
       </c>
       <c r="G27" s="3">
-        <v>-134700</v>
+        <v>3200</v>
       </c>
       <c r="H27" s="3">
-        <v>-239000</v>
+        <v>-129300</v>
       </c>
       <c r="I27" s="3">
-        <v>187100</v>
+        <v>-229500</v>
       </c>
       <c r="J27" s="3">
+        <v>179600</v>
+      </c>
+      <c r="K27" s="3">
         <v>38600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>103000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>112700</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>307300</v>
+        <v>237800</v>
       </c>
       <c r="E32" s="3">
-        <v>134300</v>
+        <v>295000</v>
       </c>
       <c r="F32" s="3">
-        <v>408400</v>
+        <v>128900</v>
       </c>
       <c r="G32" s="3">
-        <v>-120900</v>
+        <v>392100</v>
       </c>
       <c r="H32" s="3">
-        <v>131500</v>
+        <v>-116100</v>
       </c>
       <c r="I32" s="3">
-        <v>57400</v>
+        <v>126300</v>
       </c>
       <c r="J32" s="3">
+        <v>55100</v>
+      </c>
+      <c r="K32" s="3">
         <v>32600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>47300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1780600</v>
+        <v>951400</v>
       </c>
       <c r="E33" s="3">
-        <v>1579000</v>
+        <v>1709600</v>
       </c>
       <c r="F33" s="3">
-        <v>3300</v>
+        <v>1516000</v>
       </c>
       <c r="G33" s="3">
-        <v>-134700</v>
+        <v>3200</v>
       </c>
       <c r="H33" s="3">
-        <v>-239000</v>
+        <v>-129300</v>
       </c>
       <c r="I33" s="3">
-        <v>187100</v>
+        <v>-229500</v>
       </c>
       <c r="J33" s="3">
+        <v>179600</v>
+      </c>
+      <c r="K33" s="3">
         <v>38600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>103000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>112700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1780600</v>
+        <v>951400</v>
       </c>
       <c r="E35" s="3">
-        <v>1579000</v>
+        <v>1709600</v>
       </c>
       <c r="F35" s="3">
-        <v>3300</v>
+        <v>1516000</v>
       </c>
       <c r="G35" s="3">
-        <v>-134700</v>
+        <v>3200</v>
       </c>
       <c r="H35" s="3">
-        <v>-239000</v>
+        <v>-129300</v>
       </c>
       <c r="I35" s="3">
-        <v>187100</v>
+        <v>-229500</v>
       </c>
       <c r="J35" s="3">
+        <v>179600</v>
+      </c>
+      <c r="K35" s="3">
         <v>38600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>103000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>112700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1631800</v>
+        <v>1348700</v>
       </c>
       <c r="E41" s="3">
-        <v>1090300</v>
+        <v>1566700</v>
       </c>
       <c r="F41" s="3">
-        <v>302700</v>
+        <v>1046800</v>
       </c>
       <c r="G41" s="3">
-        <v>137000</v>
+        <v>290600</v>
       </c>
       <c r="H41" s="3">
-        <v>110800</v>
+        <v>131500</v>
       </c>
       <c r="I41" s="3">
-        <v>48000</v>
+        <v>106300</v>
       </c>
       <c r="J41" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K41" s="3">
         <v>38600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>81700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,240 +1800,264 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>476400</v>
+        <v>400100</v>
       </c>
       <c r="E43" s="3">
-        <v>359900</v>
+        <v>457400</v>
       </c>
       <c r="F43" s="3">
-        <v>247700</v>
+        <v>345600</v>
       </c>
       <c r="G43" s="3">
-        <v>380000</v>
+        <v>237800</v>
       </c>
       <c r="H43" s="3">
-        <v>332400</v>
+        <v>364900</v>
       </c>
       <c r="I43" s="3">
-        <v>310300</v>
+        <v>319100</v>
       </c>
       <c r="J43" s="3">
+        <v>297900</v>
+      </c>
+      <c r="K43" s="3">
         <v>81000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>99800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>63300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1351100</v>
+        <v>1371600</v>
       </c>
       <c r="E44" s="3">
-        <v>1344200</v>
+        <v>1983500</v>
       </c>
       <c r="F44" s="3">
-        <v>835200</v>
+        <v>1290500</v>
       </c>
       <c r="G44" s="3">
-        <v>285200</v>
+        <v>801800</v>
       </c>
       <c r="H44" s="3">
-        <v>190000</v>
+        <v>273800</v>
       </c>
       <c r="I44" s="3">
-        <v>36500</v>
+        <v>182400</v>
       </c>
       <c r="J44" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K44" s="3">
         <v>21900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>26900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13700</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33100</v>
+        <v>22400</v>
       </c>
       <c r="E45" s="3">
-        <v>19900</v>
+        <v>31800</v>
       </c>
       <c r="F45" s="3">
-        <v>23900</v>
+        <v>19100</v>
       </c>
       <c r="G45" s="3">
-        <v>16300</v>
+        <v>22900</v>
       </c>
       <c r="H45" s="3">
-        <v>13500</v>
+        <v>15700</v>
       </c>
       <c r="I45" s="3">
-        <v>20200</v>
+        <v>13000</v>
       </c>
       <c r="J45" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K45" s="3">
         <v>6700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38500</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3492400</v>
+        <v>3142700</v>
       </c>
       <c r="E46" s="3">
-        <v>2814300</v>
+        <v>3353100</v>
       </c>
       <c r="F46" s="3">
-        <v>1409400</v>
+        <v>2702000</v>
       </c>
       <c r="G46" s="3">
-        <v>818600</v>
+        <v>1353200</v>
       </c>
       <c r="H46" s="3">
-        <v>646700</v>
+        <v>785900</v>
       </c>
       <c r="I46" s="3">
-        <v>415000</v>
+        <v>620900</v>
       </c>
       <c r="J46" s="3">
+        <v>398400</v>
+      </c>
+      <c r="K46" s="3">
         <v>148200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>182600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>180100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>444200</v>
+        <v>479400</v>
       </c>
       <c r="E47" s="3">
-        <v>347000</v>
+        <v>426400</v>
       </c>
       <c r="F47" s="3">
-        <v>254400</v>
+        <v>333200</v>
       </c>
       <c r="G47" s="3">
-        <v>218100</v>
+        <v>244200</v>
       </c>
       <c r="H47" s="3">
-        <v>136200</v>
+        <v>209400</v>
       </c>
       <c r="I47" s="3">
-        <v>135400</v>
+        <v>130800</v>
       </c>
       <c r="J47" s="3">
+        <v>130000</v>
+      </c>
+      <c r="K47" s="3">
         <v>9100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3378500</v>
+        <v>3992200</v>
       </c>
       <c r="E48" s="3">
-        <v>3280400</v>
+        <v>3243700</v>
       </c>
       <c r="F48" s="3">
-        <v>3115900</v>
+        <v>3149500</v>
       </c>
       <c r="G48" s="3">
-        <v>2939100</v>
+        <v>2991500</v>
       </c>
       <c r="H48" s="3">
-        <v>2771300</v>
+        <v>2821800</v>
       </c>
       <c r="I48" s="3">
-        <v>1467500</v>
+        <v>2660700</v>
       </c>
       <c r="J48" s="3">
+        <v>1408900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1192300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1469400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1106300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>416300</v>
+        <v>430400</v>
       </c>
       <c r="E49" s="3">
-        <v>386000</v>
+        <v>399600</v>
       </c>
       <c r="F49" s="3">
-        <v>369300</v>
+        <v>370600</v>
       </c>
       <c r="G49" s="3">
-        <v>371100</v>
+        <v>354500</v>
       </c>
       <c r="H49" s="3">
-        <v>344600</v>
+        <v>356300</v>
       </c>
       <c r="I49" s="3">
-        <v>50400</v>
+        <v>330800</v>
       </c>
       <c r="J49" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K49" s="3">
         <v>39700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>48900</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>510400</v>
+        <v>573500</v>
       </c>
       <c r="E52" s="3">
-        <v>396300</v>
+        <v>490000</v>
       </c>
       <c r="F52" s="3">
-        <v>295700</v>
+        <v>380500</v>
       </c>
       <c r="G52" s="3">
-        <v>228000</v>
+        <v>283900</v>
       </c>
       <c r="H52" s="3">
-        <v>199200</v>
+        <v>218900</v>
       </c>
       <c r="I52" s="3">
-        <v>179300</v>
+        <v>191300</v>
       </c>
       <c r="J52" s="3">
+        <v>172200</v>
+      </c>
+      <c r="K52" s="3">
         <v>133400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>164500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>124000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8241800</v>
+        <v>8618200</v>
       </c>
       <c r="E54" s="3">
-        <v>7224100</v>
+        <v>7912800</v>
       </c>
       <c r="F54" s="3">
-        <v>5444700</v>
+        <v>6935800</v>
       </c>
       <c r="G54" s="3">
-        <v>4574800</v>
+        <v>5227400</v>
       </c>
       <c r="H54" s="3">
-        <v>4098000</v>
+        <v>4392200</v>
       </c>
       <c r="I54" s="3">
-        <v>2247500</v>
+        <v>3934400</v>
       </c>
       <c r="J54" s="3">
+        <v>2157800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1522700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1876600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1331300</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>477400</v>
+        <v>497400</v>
       </c>
       <c r="E57" s="3">
-        <v>457400</v>
+        <v>458300</v>
       </c>
       <c r="F57" s="3">
-        <v>345000</v>
+        <v>439200</v>
       </c>
       <c r="G57" s="3">
-        <v>277600</v>
+        <v>331200</v>
       </c>
       <c r="H57" s="3">
-        <v>221300</v>
+        <v>266500</v>
       </c>
       <c r="I57" s="3">
-        <v>166600</v>
+        <v>212500</v>
       </c>
       <c r="J57" s="3">
+        <v>160000</v>
+      </c>
+      <c r="K57" s="3">
         <v>74400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>91800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>97200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11400</v>
+        <v>12100</v>
       </c>
       <c r="E58" s="3">
-        <v>53300</v>
+        <v>10900</v>
       </c>
       <c r="F58" s="3">
-        <v>8000</v>
+        <v>51200</v>
       </c>
       <c r="G58" s="3">
-        <v>333400</v>
+        <v>7700</v>
       </c>
       <c r="H58" s="3">
-        <v>89300</v>
+        <v>320100</v>
       </c>
       <c r="I58" s="3">
-        <v>40500</v>
+        <v>85700</v>
       </c>
       <c r="J58" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K58" s="3">
         <v>107500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>132500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33300</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>617800</v>
+        <v>536300</v>
       </c>
       <c r="E59" s="3">
-        <v>431300</v>
+        <v>593100</v>
       </c>
       <c r="F59" s="3">
-        <v>418800</v>
+        <v>414100</v>
       </c>
       <c r="G59" s="3">
-        <v>177300</v>
+        <v>402100</v>
       </c>
       <c r="H59" s="3">
-        <v>143900</v>
+        <v>170200</v>
       </c>
       <c r="I59" s="3">
-        <v>129900</v>
+        <v>138200</v>
       </c>
       <c r="J59" s="3">
+        <v>124700</v>
+      </c>
+      <c r="K59" s="3">
         <v>106100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>130800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>122000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1106500</v>
+        <v>1045700</v>
       </c>
       <c r="E60" s="3">
-        <v>942000</v>
+        <v>1062400</v>
       </c>
       <c r="F60" s="3">
-        <v>771800</v>
+        <v>904400</v>
       </c>
       <c r="G60" s="3">
-        <v>788300</v>
+        <v>741000</v>
       </c>
       <c r="H60" s="3">
-        <v>454500</v>
+        <v>756800</v>
       </c>
       <c r="I60" s="3">
-        <v>337000</v>
+        <v>436400</v>
       </c>
       <c r="J60" s="3">
+        <v>323600</v>
+      </c>
+      <c r="K60" s="3">
         <v>288100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>355000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>239100</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1097200</v>
+        <v>1179900</v>
       </c>
       <c r="E61" s="3">
-        <v>954600</v>
+        <v>1053400</v>
       </c>
       <c r="F61" s="3">
-        <v>1291300</v>
+        <v>916500</v>
       </c>
       <c r="G61" s="3">
-        <v>986700</v>
+        <v>1239800</v>
       </c>
       <c r="H61" s="3">
-        <v>1292400</v>
+        <v>947300</v>
       </c>
       <c r="I61" s="3">
-        <v>442900</v>
+        <v>1240900</v>
       </c>
       <c r="J61" s="3">
+        <v>425200</v>
+      </c>
+      <c r="K61" s="3">
         <v>97400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>120100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>99300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1656000</v>
+        <v>1685800</v>
       </c>
       <c r="E62" s="3">
-        <v>1518000</v>
+        <v>1589900</v>
       </c>
       <c r="F62" s="3">
-        <v>1704200</v>
+        <v>1457500</v>
       </c>
       <c r="G62" s="3">
-        <v>1467900</v>
+        <v>1636200</v>
       </c>
       <c r="H62" s="3">
-        <v>1058200</v>
+        <v>1409300</v>
       </c>
       <c r="I62" s="3">
-        <v>580400</v>
+        <v>1016000</v>
       </c>
       <c r="J62" s="3">
+        <v>557200</v>
+      </c>
+      <c r="K62" s="3">
         <v>330000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>406700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>365900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3935600</v>
+        <v>4061600</v>
       </c>
       <c r="E66" s="3">
-        <v>3535100</v>
+        <v>3806600</v>
       </c>
       <c r="F66" s="3">
-        <v>3846400</v>
+        <v>3394000</v>
       </c>
       <c r="G66" s="3">
-        <v>3293300</v>
+        <v>3692900</v>
       </c>
       <c r="H66" s="3">
-        <v>2806300</v>
+        <v>3161900</v>
       </c>
       <c r="I66" s="3">
-        <v>1361300</v>
+        <v>2694300</v>
       </c>
       <c r="J66" s="3">
+        <v>1307000</v>
+      </c>
+      <c r="K66" s="3">
         <v>721400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>889000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>704000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2969800</v>
+        <v>3153200</v>
       </c>
       <c r="E72" s="3">
-        <v>2144700</v>
+        <v>2823100</v>
       </c>
       <c r="F72" s="3">
-        <v>-621300</v>
+        <v>2059100</v>
       </c>
       <c r="G72" s="3">
-        <v>-640300</v>
+        <v>-596500</v>
       </c>
       <c r="H72" s="3">
-        <v>-534900</v>
+        <v>-614800</v>
       </c>
       <c r="I72" s="3">
-        <v>-277500</v>
+        <v>-513600</v>
       </c>
       <c r="J72" s="3">
+        <v>-266500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-369500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-455400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-521000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4306200</v>
+        <v>4556600</v>
       </c>
       <c r="E76" s="3">
-        <v>3689000</v>
+        <v>4106200</v>
       </c>
       <c r="F76" s="3">
-        <v>1598400</v>
+        <v>3541800</v>
       </c>
       <c r="G76" s="3">
-        <v>1281500</v>
+        <v>1534600</v>
       </c>
       <c r="H76" s="3">
-        <v>1291700</v>
+        <v>1230300</v>
       </c>
       <c r="I76" s="3">
-        <v>886200</v>
+        <v>1240200</v>
       </c>
       <c r="J76" s="3">
+        <v>850900</v>
+      </c>
+      <c r="K76" s="3">
         <v>801300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>987600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>627300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1780600</v>
+        <v>951400</v>
       </c>
       <c r="E81" s="3">
-        <v>1579000</v>
+        <v>1709600</v>
       </c>
       <c r="F81" s="3">
-        <v>3300</v>
+        <v>1516000</v>
       </c>
       <c r="G81" s="3">
-        <v>-134700</v>
+        <v>3200</v>
       </c>
       <c r="H81" s="3">
-        <v>-239000</v>
+        <v>-129300</v>
       </c>
       <c r="I81" s="3">
-        <v>187100</v>
+        <v>-229500</v>
       </c>
       <c r="J81" s="3">
+        <v>179600</v>
+      </c>
+      <c r="K81" s="3">
         <v>38600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>103000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>112700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,31 +3096,32 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>409000</v>
+        <v>366500</v>
       </c>
       <c r="E83" s="3">
-        <v>388600</v>
+        <v>428900</v>
       </c>
       <c r="F83" s="3">
-        <v>356300</v>
+        <v>392700</v>
       </c>
       <c r="G83" s="3">
-        <v>307000</v>
+        <v>373100</v>
       </c>
       <c r="H83" s="3">
-        <v>217700</v>
+        <v>342100</v>
       </c>
       <c r="I83" s="3">
-        <v>195900</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>294800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>209000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -2931,9 +3129,12 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1462500</v>
+        <v>803900</v>
       </c>
       <c r="E89" s="3">
-        <v>509800</v>
+        <v>1668300</v>
       </c>
       <c r="F89" s="3">
-        <v>657100</v>
+        <v>1404200</v>
       </c>
       <c r="G89" s="3">
-        <v>147600</v>
+        <v>489500</v>
       </c>
       <c r="H89" s="3">
-        <v>237300</v>
+        <v>630800</v>
       </c>
       <c r="I89" s="3">
-        <v>189400</v>
+        <v>141700</v>
       </c>
       <c r="J89" s="3">
+        <v>227900</v>
+      </c>
+      <c r="K89" s="3">
         <v>218300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>269100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>423500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-518000</v>
+        <v>-822300</v>
       </c>
       <c r="E91" s="3">
-        <v>-415100</v>
+        <v>-658900</v>
       </c>
       <c r="F91" s="3">
-        <v>-381400</v>
+        <v>-497300</v>
       </c>
       <c r="G91" s="3">
-        <v>-328500</v>
+        <v>-398500</v>
       </c>
       <c r="H91" s="3">
-        <v>-223600</v>
+        <v>-366200</v>
       </c>
       <c r="I91" s="3">
-        <v>-180200</v>
+        <v>-315400</v>
       </c>
       <c r="J91" s="3">
+        <v>-214700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-175100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-215800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-193200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,32 +3469,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-535300</v>
+        <v>-898600</v>
       </c>
       <c r="E94" s="3">
-        <v>-262100</v>
+        <v>-753500</v>
       </c>
       <c r="F94" s="3">
-        <v>-417100</v>
+        <v>-513900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1516100</v>
+        <v>-251600</v>
       </c>
       <c r="H94" s="3">
-        <v>-508700</v>
+        <v>-400500</v>
       </c>
       <c r="I94" s="3">
-        <v>-179900</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-1455600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-488400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3276,9 +3505,12 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,32 +3665,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-120900</v>
+        <v>-180900</v>
       </c>
       <c r="E100" s="3">
-        <v>-79200</v>
+        <v>-431600</v>
       </c>
       <c r="F100" s="3">
-        <v>-220900</v>
+        <v>-116000</v>
       </c>
       <c r="G100" s="3">
-        <v>1444100</v>
+        <v>-76000</v>
       </c>
       <c r="H100" s="3">
-        <v>293400</v>
+        <v>-212100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>1386400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>281700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3456,32 +3701,35 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18700</v>
+        <v>57500</v>
       </c>
       <c r="E101" s="3">
-        <v>-3200</v>
+        <v>36600</v>
       </c>
       <c r="F101" s="3">
-        <v>7200</v>
+        <v>-18000</v>
       </c>
       <c r="G101" s="3">
-        <v>-16600</v>
+        <v>-3100</v>
       </c>
       <c r="H101" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>6900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-8100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3489,40 +3737,46 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>787600</v>
+        <v>-218100</v>
       </c>
       <c r="E102" s="3">
-        <v>165400</v>
+        <v>519900</v>
       </c>
       <c r="F102" s="3">
-        <v>26200</v>
+        <v>756200</v>
       </c>
       <c r="G102" s="3">
-        <v>59000</v>
+        <v>158800</v>
       </c>
       <c r="H102" s="3">
-        <v>13500</v>
+        <v>25200</v>
       </c>
       <c r="I102" s="3">
-        <v>8300</v>
+        <v>56600</v>
       </c>
       <c r="J102" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-50100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-61700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>79900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7152300</v>
+        <v>7327900</v>
       </c>
       <c r="E8" s="3">
-        <v>8905900</v>
+        <v>9124600</v>
       </c>
       <c r="F8" s="3">
-        <v>6588700</v>
+        <v>6750500</v>
       </c>
       <c r="G8" s="3">
-        <v>3771700</v>
+        <v>3864300</v>
       </c>
       <c r="H8" s="3">
-        <v>2619900</v>
+        <v>2684300</v>
       </c>
       <c r="I8" s="3">
-        <v>2374500</v>
+        <v>2432900</v>
       </c>
       <c r="J8" s="3">
-        <v>1615800</v>
+        <v>1655400</v>
       </c>
       <c r="K8" s="3">
         <v>1223800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5350800</v>
+        <v>5482200</v>
       </c>
       <c r="E9" s="3">
-        <v>5793700</v>
+        <v>5935900</v>
       </c>
       <c r="F9" s="3">
-        <v>4403100</v>
+        <v>4511200</v>
       </c>
       <c r="G9" s="3">
-        <v>3296900</v>
+        <v>3377900</v>
       </c>
       <c r="H9" s="3">
-        <v>2500200</v>
+        <v>2561600</v>
       </c>
       <c r="I9" s="3">
-        <v>2202300</v>
+        <v>2256400</v>
       </c>
       <c r="J9" s="3">
-        <v>2380500</v>
+        <v>2439000</v>
       </c>
       <c r="K9" s="3">
         <v>1099900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1801400</v>
+        <v>1845600</v>
       </c>
       <c r="E10" s="3">
-        <v>3112200</v>
+        <v>3188600</v>
       </c>
       <c r="F10" s="3">
-        <v>2185600</v>
+        <v>2239300</v>
       </c>
       <c r="G10" s="3">
-        <v>474800</v>
+        <v>486400</v>
       </c>
       <c r="H10" s="3">
-        <v>119700</v>
+        <v>122700</v>
       </c>
       <c r="I10" s="3">
-        <v>172300</v>
+        <v>176500</v>
       </c>
       <c r="J10" s="3">
-        <v>-764700</v>
+        <v>-783500</v>
       </c>
       <c r="K10" s="3">
         <v>123900</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>42300</v>
+        <v>43300</v>
       </c>
       <c r="E14" s="3">
-        <v>279200</v>
+        <v>286000</v>
       </c>
       <c r="F14" s="3">
-        <v>106400</v>
+        <v>109000</v>
       </c>
       <c r="G14" s="3">
-        <v>35300</v>
+        <v>36200</v>
       </c>
       <c r="H14" s="3">
-        <v>185500</v>
+        <v>190100</v>
       </c>
       <c r="I14" s="3">
-        <v>294400</v>
+        <v>301700</v>
       </c>
       <c r="J14" s="3">
-        <v>-23400</v>
+        <v>-24000</v>
       </c>
       <c r="K14" s="3">
         <v>7000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5404400</v>
+        <v>5537100</v>
       </c>
       <c r="E17" s="3">
-        <v>6092700</v>
+        <v>6242300</v>
       </c>
       <c r="F17" s="3">
-        <v>4536000</v>
+        <v>4647400</v>
       </c>
       <c r="G17" s="3">
-        <v>3351000</v>
+        <v>3433300</v>
       </c>
       <c r="H17" s="3">
-        <v>2701200</v>
+        <v>2767500</v>
       </c>
       <c r="I17" s="3">
-        <v>2508700</v>
+        <v>2570300</v>
       </c>
       <c r="J17" s="3">
-        <v>1311700</v>
+        <v>1343900</v>
       </c>
       <c r="K17" s="3">
         <v>1123000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1747800</v>
+        <v>1790700</v>
       </c>
       <c r="E18" s="3">
-        <v>2813200</v>
+        <v>2882300</v>
       </c>
       <c r="F18" s="3">
-        <v>2052700</v>
+        <v>2103100</v>
       </c>
       <c r="G18" s="3">
-        <v>420700</v>
+        <v>431000</v>
       </c>
       <c r="H18" s="3">
-        <v>-81300</v>
+        <v>-83300</v>
       </c>
       <c r="I18" s="3">
-        <v>-134200</v>
+        <v>-137500</v>
       </c>
       <c r="J18" s="3">
-        <v>304100</v>
+        <v>311600</v>
       </c>
       <c r="K18" s="3">
         <v>100800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-237800</v>
+        <v>-243600</v>
       </c>
       <c r="E20" s="3">
-        <v>-295000</v>
+        <v>-302300</v>
       </c>
       <c r="F20" s="3">
-        <v>-128900</v>
+        <v>-132100</v>
       </c>
       <c r="G20" s="3">
-        <v>-392100</v>
+        <v>-401700</v>
       </c>
       <c r="H20" s="3">
-        <v>116100</v>
+        <v>119000</v>
       </c>
       <c r="I20" s="3">
-        <v>-126300</v>
+        <v>-129400</v>
       </c>
       <c r="J20" s="3">
-        <v>-55100</v>
+        <v>-56500</v>
       </c>
       <c r="K20" s="3">
         <v>-32600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1878400</v>
+        <v>1922700</v>
       </c>
       <c r="E21" s="3">
-        <v>2949200</v>
+        <v>3019500</v>
       </c>
       <c r="F21" s="3">
-        <v>2318400</v>
+        <v>2373400</v>
       </c>
       <c r="G21" s="3">
-        <v>403500</v>
+        <v>411600</v>
       </c>
       <c r="H21" s="3">
-        <v>378600</v>
+        <v>386200</v>
       </c>
       <c r="I21" s="3">
-        <v>35800</v>
+        <v>35200</v>
       </c>
       <c r="J21" s="3">
-        <v>459000</v>
+        <v>469300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66900</v>
+        <v>68500</v>
       </c>
       <c r="E22" s="3">
-        <v>58500</v>
+        <v>60000</v>
       </c>
       <c r="F22" s="3">
-        <v>88800</v>
+        <v>91000</v>
       </c>
       <c r="G22" s="3">
-        <v>95800</v>
+        <v>98200</v>
       </c>
       <c r="H22" s="3">
-        <v>109200</v>
+        <v>111900</v>
       </c>
       <c r="I22" s="3">
-        <v>121200</v>
+        <v>124200</v>
       </c>
       <c r="J22" s="3">
-        <v>29400</v>
+        <v>30100</v>
       </c>
       <c r="K22" s="3">
         <v>18900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1443200</v>
+        <v>1478600</v>
       </c>
       <c r="E23" s="3">
-        <v>2459600</v>
+        <v>2520000</v>
       </c>
       <c r="F23" s="3">
-        <v>1835000</v>
+        <v>1880100</v>
       </c>
       <c r="G23" s="3">
-        <v>-67200</v>
+        <v>-68900</v>
       </c>
       <c r="H23" s="3">
-        <v>-74300</v>
+        <v>-76100</v>
       </c>
       <c r="I23" s="3">
-        <v>-381700</v>
+        <v>-391100</v>
       </c>
       <c r="J23" s="3">
-        <v>219500</v>
+        <v>224900</v>
       </c>
       <c r="K23" s="3">
         <v>49300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>461500</v>
+        <v>472900</v>
       </c>
       <c r="E24" s="3">
-        <v>711700</v>
+        <v>729200</v>
       </c>
       <c r="F24" s="3">
-        <v>251300</v>
+        <v>257400</v>
       </c>
       <c r="G24" s="3">
-        <v>-89600</v>
+        <v>-91800</v>
       </c>
       <c r="H24" s="3">
-        <v>56100</v>
+        <v>57400</v>
       </c>
       <c r="I24" s="3">
-        <v>-152400</v>
+        <v>-156100</v>
       </c>
       <c r="J24" s="3">
-        <v>62200</v>
+        <v>63700</v>
       </c>
       <c r="K24" s="3">
         <v>20300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>981600</v>
+        <v>1005800</v>
       </c>
       <c r="E26" s="3">
-        <v>1747900</v>
+        <v>1790900</v>
       </c>
       <c r="F26" s="3">
-        <v>1583700</v>
+        <v>1622600</v>
       </c>
       <c r="G26" s="3">
-        <v>22400</v>
+        <v>22900</v>
       </c>
       <c r="H26" s="3">
-        <v>-130400</v>
+        <v>-133600</v>
       </c>
       <c r="I26" s="3">
-        <v>-229300</v>
+        <v>-234900</v>
       </c>
       <c r="J26" s="3">
-        <v>157400</v>
+        <v>161200</v>
       </c>
       <c r="K26" s="3">
         <v>29000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>951400</v>
+        <v>974800</v>
       </c>
       <c r="E27" s="3">
-        <v>1709600</v>
+        <v>1751500</v>
       </c>
       <c r="F27" s="3">
-        <v>1516000</v>
+        <v>1553200</v>
       </c>
       <c r="G27" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H27" s="3">
-        <v>-129300</v>
+        <v>-132500</v>
       </c>
       <c r="I27" s="3">
-        <v>-229500</v>
+        <v>-235100</v>
       </c>
       <c r="J27" s="3">
-        <v>179600</v>
+        <v>184100</v>
       </c>
       <c r="K27" s="3">
         <v>38600</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>237800</v>
+        <v>243600</v>
       </c>
       <c r="E32" s="3">
-        <v>295000</v>
+        <v>302300</v>
       </c>
       <c r="F32" s="3">
-        <v>128900</v>
+        <v>132100</v>
       </c>
       <c r="G32" s="3">
-        <v>392100</v>
+        <v>401700</v>
       </c>
       <c r="H32" s="3">
-        <v>-116100</v>
+        <v>-119000</v>
       </c>
       <c r="I32" s="3">
-        <v>126300</v>
+        <v>129400</v>
       </c>
       <c r="J32" s="3">
-        <v>55100</v>
+        <v>56500</v>
       </c>
       <c r="K32" s="3">
         <v>32600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>951400</v>
+        <v>974800</v>
       </c>
       <c r="E33" s="3">
-        <v>1709600</v>
+        <v>1751500</v>
       </c>
       <c r="F33" s="3">
-        <v>1516000</v>
+        <v>1553200</v>
       </c>
       <c r="G33" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H33" s="3">
-        <v>-129300</v>
+        <v>-132500</v>
       </c>
       <c r="I33" s="3">
-        <v>-229500</v>
+        <v>-235100</v>
       </c>
       <c r="J33" s="3">
-        <v>179600</v>
+        <v>184100</v>
       </c>
       <c r="K33" s="3">
         <v>38600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>951400</v>
+        <v>974800</v>
       </c>
       <c r="E35" s="3">
-        <v>1709600</v>
+        <v>1751500</v>
       </c>
       <c r="F35" s="3">
-        <v>1516000</v>
+        <v>1553200</v>
       </c>
       <c r="G35" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H35" s="3">
-        <v>-129300</v>
+        <v>-132500</v>
       </c>
       <c r="I35" s="3">
-        <v>-229500</v>
+        <v>-235100</v>
       </c>
       <c r="J35" s="3">
-        <v>179600</v>
+        <v>184100</v>
       </c>
       <c r="K35" s="3">
         <v>38600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1348700</v>
+        <v>1381800</v>
       </c>
       <c r="E41" s="3">
-        <v>1566700</v>
+        <v>1605200</v>
       </c>
       <c r="F41" s="3">
-        <v>1046800</v>
+        <v>1072500</v>
       </c>
       <c r="G41" s="3">
-        <v>290600</v>
+        <v>297800</v>
       </c>
       <c r="H41" s="3">
-        <v>131500</v>
+        <v>134700</v>
       </c>
       <c r="I41" s="3">
-        <v>106300</v>
+        <v>109000</v>
       </c>
       <c r="J41" s="3">
-        <v>46100</v>
+        <v>47200</v>
       </c>
       <c r="K41" s="3">
         <v>38600</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400100</v>
+        <v>409900</v>
       </c>
       <c r="E43" s="3">
-        <v>457400</v>
+        <v>468600</v>
       </c>
       <c r="F43" s="3">
-        <v>345600</v>
+        <v>354100</v>
       </c>
       <c r="G43" s="3">
-        <v>237800</v>
+        <v>243700</v>
       </c>
       <c r="H43" s="3">
-        <v>364900</v>
+        <v>373800</v>
       </c>
       <c r="I43" s="3">
-        <v>319100</v>
+        <v>327000</v>
       </c>
       <c r="J43" s="3">
-        <v>297900</v>
+        <v>305200</v>
       </c>
       <c r="K43" s="3">
         <v>81000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1371600</v>
+        <v>1405200</v>
       </c>
       <c r="E44" s="3">
-        <v>1983500</v>
+        <v>2032200</v>
       </c>
       <c r="F44" s="3">
-        <v>1290500</v>
+        <v>1322200</v>
       </c>
       <c r="G44" s="3">
-        <v>801800</v>
+        <v>821500</v>
       </c>
       <c r="H44" s="3">
-        <v>273800</v>
+        <v>280600</v>
       </c>
       <c r="I44" s="3">
-        <v>182400</v>
+        <v>186900</v>
       </c>
       <c r="J44" s="3">
-        <v>35000</v>
+        <v>35900</v>
       </c>
       <c r="K44" s="3">
         <v>21900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22400</v>
+        <v>22900</v>
       </c>
       <c r="E45" s="3">
-        <v>31800</v>
+        <v>32600</v>
       </c>
       <c r="F45" s="3">
-        <v>19100</v>
+        <v>19500</v>
       </c>
       <c r="G45" s="3">
-        <v>22900</v>
+        <v>23500</v>
       </c>
       <c r="H45" s="3">
-        <v>15700</v>
+        <v>16100</v>
       </c>
       <c r="I45" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="J45" s="3">
-        <v>19400</v>
+        <v>19900</v>
       </c>
       <c r="K45" s="3">
         <v>6700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3142700</v>
+        <v>3219900</v>
       </c>
       <c r="E46" s="3">
-        <v>3353100</v>
+        <v>3435400</v>
       </c>
       <c r="F46" s="3">
-        <v>2702000</v>
+        <v>2768300</v>
       </c>
       <c r="G46" s="3">
-        <v>1353200</v>
+        <v>1386400</v>
       </c>
       <c r="H46" s="3">
-        <v>785900</v>
+        <v>805200</v>
       </c>
       <c r="I46" s="3">
-        <v>620900</v>
+        <v>636100</v>
       </c>
       <c r="J46" s="3">
-        <v>398400</v>
+        <v>408200</v>
       </c>
       <c r="K46" s="3">
         <v>148200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>479400</v>
+        <v>491200</v>
       </c>
       <c r="E47" s="3">
-        <v>426400</v>
+        <v>436900</v>
       </c>
       <c r="F47" s="3">
-        <v>333200</v>
+        <v>341400</v>
       </c>
       <c r="G47" s="3">
-        <v>244200</v>
+        <v>250200</v>
       </c>
       <c r="H47" s="3">
-        <v>209400</v>
+        <v>214500</v>
       </c>
       <c r="I47" s="3">
-        <v>130800</v>
+        <v>134000</v>
       </c>
       <c r="J47" s="3">
-        <v>130000</v>
+        <v>133100</v>
       </c>
       <c r="K47" s="3">
         <v>9100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3992200</v>
+        <v>4090200</v>
       </c>
       <c r="E48" s="3">
-        <v>3243700</v>
+        <v>3323300</v>
       </c>
       <c r="F48" s="3">
-        <v>3149500</v>
+        <v>3226900</v>
       </c>
       <c r="G48" s="3">
-        <v>2991500</v>
+        <v>3065000</v>
       </c>
       <c r="H48" s="3">
-        <v>2821800</v>
+        <v>2891000</v>
       </c>
       <c r="I48" s="3">
-        <v>2660700</v>
+        <v>2726000</v>
       </c>
       <c r="J48" s="3">
-        <v>1408900</v>
+        <v>1443500</v>
       </c>
       <c r="K48" s="3">
         <v>1192300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>430400</v>
+        <v>441000</v>
       </c>
       <c r="E49" s="3">
-        <v>399600</v>
+        <v>409500</v>
       </c>
       <c r="F49" s="3">
-        <v>370600</v>
+        <v>379700</v>
       </c>
       <c r="G49" s="3">
-        <v>354500</v>
+        <v>363200</v>
       </c>
       <c r="H49" s="3">
-        <v>356300</v>
+        <v>365100</v>
       </c>
       <c r="I49" s="3">
-        <v>330800</v>
+        <v>338900</v>
       </c>
       <c r="J49" s="3">
-        <v>48400</v>
+        <v>49600</v>
       </c>
       <c r="K49" s="3">
         <v>39700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>573500</v>
+        <v>587600</v>
       </c>
       <c r="E52" s="3">
-        <v>490000</v>
+        <v>502100</v>
       </c>
       <c r="F52" s="3">
-        <v>380500</v>
+        <v>389900</v>
       </c>
       <c r="G52" s="3">
-        <v>283900</v>
+        <v>290900</v>
       </c>
       <c r="H52" s="3">
-        <v>218900</v>
+        <v>224200</v>
       </c>
       <c r="I52" s="3">
-        <v>191300</v>
+        <v>196000</v>
       </c>
       <c r="J52" s="3">
-        <v>172200</v>
+        <v>176400</v>
       </c>
       <c r="K52" s="3">
         <v>133400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8618200</v>
+        <v>8829800</v>
       </c>
       <c r="E54" s="3">
-        <v>7912800</v>
+        <v>8107200</v>
       </c>
       <c r="F54" s="3">
-        <v>6935800</v>
+        <v>7106100</v>
       </c>
       <c r="G54" s="3">
-        <v>5227400</v>
+        <v>5355800</v>
       </c>
       <c r="H54" s="3">
-        <v>4392200</v>
+        <v>4500100</v>
       </c>
       <c r="I54" s="3">
-        <v>3934400</v>
+        <v>4031000</v>
       </c>
       <c r="J54" s="3">
-        <v>2157800</v>
+        <v>2210800</v>
       </c>
       <c r="K54" s="3">
         <v>1522700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>497400</v>
+        <v>509600</v>
       </c>
       <c r="E57" s="3">
-        <v>458300</v>
+        <v>469600</v>
       </c>
       <c r="F57" s="3">
-        <v>439200</v>
+        <v>450000</v>
       </c>
       <c r="G57" s="3">
-        <v>331200</v>
+        <v>339300</v>
       </c>
       <c r="H57" s="3">
-        <v>266500</v>
+        <v>273000</v>
       </c>
       <c r="I57" s="3">
-        <v>212500</v>
+        <v>217700</v>
       </c>
       <c r="J57" s="3">
-        <v>160000</v>
+        <v>163900</v>
       </c>
       <c r="K57" s="3">
         <v>74400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="E58" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="F58" s="3">
-        <v>51200</v>
+        <v>52400</v>
       </c>
       <c r="G58" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="H58" s="3">
-        <v>320100</v>
+        <v>327900</v>
       </c>
       <c r="I58" s="3">
-        <v>85700</v>
+        <v>87800</v>
       </c>
       <c r="J58" s="3">
-        <v>38900</v>
+        <v>39900</v>
       </c>
       <c r="K58" s="3">
         <v>107500</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>536300</v>
+        <v>549500</v>
       </c>
       <c r="E59" s="3">
-        <v>593100</v>
+        <v>607700</v>
       </c>
       <c r="F59" s="3">
-        <v>414100</v>
+        <v>424300</v>
       </c>
       <c r="G59" s="3">
-        <v>402100</v>
+        <v>412000</v>
       </c>
       <c r="H59" s="3">
-        <v>170200</v>
+        <v>174400</v>
       </c>
       <c r="I59" s="3">
-        <v>138200</v>
+        <v>141600</v>
       </c>
       <c r="J59" s="3">
-        <v>124700</v>
+        <v>127800</v>
       </c>
       <c r="K59" s="3">
         <v>106100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1045700</v>
+        <v>1071400</v>
       </c>
       <c r="E60" s="3">
-        <v>1062400</v>
+        <v>1088500</v>
       </c>
       <c r="F60" s="3">
-        <v>904400</v>
+        <v>926600</v>
       </c>
       <c r="G60" s="3">
-        <v>741000</v>
+        <v>759200</v>
       </c>
       <c r="H60" s="3">
-        <v>756800</v>
+        <v>775400</v>
       </c>
       <c r="I60" s="3">
-        <v>436400</v>
+        <v>447100</v>
       </c>
       <c r="J60" s="3">
-        <v>323600</v>
+        <v>331500</v>
       </c>
       <c r="K60" s="3">
         <v>288100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1179900</v>
+        <v>1208900</v>
       </c>
       <c r="E61" s="3">
-        <v>1053400</v>
+        <v>1079300</v>
       </c>
       <c r="F61" s="3">
-        <v>916500</v>
+        <v>939000</v>
       </c>
       <c r="G61" s="3">
-        <v>1239800</v>
+        <v>1270200</v>
       </c>
       <c r="H61" s="3">
-        <v>947300</v>
+        <v>970600</v>
       </c>
       <c r="I61" s="3">
-        <v>1240900</v>
+        <v>1271300</v>
       </c>
       <c r="J61" s="3">
-        <v>425200</v>
+        <v>435700</v>
       </c>
       <c r="K61" s="3">
         <v>97400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1685800</v>
+        <v>1727200</v>
       </c>
       <c r="E62" s="3">
-        <v>1589900</v>
+        <v>1628900</v>
       </c>
       <c r="F62" s="3">
-        <v>1457500</v>
+        <v>1493200</v>
       </c>
       <c r="G62" s="3">
-        <v>1636200</v>
+        <v>1676400</v>
       </c>
       <c r="H62" s="3">
-        <v>1409300</v>
+        <v>1444000</v>
       </c>
       <c r="I62" s="3">
-        <v>1016000</v>
+        <v>1040900</v>
       </c>
       <c r="J62" s="3">
-        <v>557200</v>
+        <v>570900</v>
       </c>
       <c r="K62" s="3">
         <v>330000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4061600</v>
+        <v>4161300</v>
       </c>
       <c r="E66" s="3">
-        <v>3806600</v>
+        <v>3900100</v>
       </c>
       <c r="F66" s="3">
-        <v>3394000</v>
+        <v>3477400</v>
       </c>
       <c r="G66" s="3">
-        <v>3692900</v>
+        <v>3783500</v>
       </c>
       <c r="H66" s="3">
-        <v>3161900</v>
+        <v>3239500</v>
       </c>
       <c r="I66" s="3">
-        <v>2694300</v>
+        <v>2760400</v>
       </c>
       <c r="J66" s="3">
-        <v>1307000</v>
+        <v>1339100</v>
       </c>
       <c r="K66" s="3">
         <v>721400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3153200</v>
+        <v>3230600</v>
       </c>
       <c r="E72" s="3">
-        <v>2823100</v>
+        <v>2892500</v>
       </c>
       <c r="F72" s="3">
-        <v>2059100</v>
+        <v>2109700</v>
       </c>
       <c r="G72" s="3">
-        <v>-596500</v>
+        <v>-611200</v>
       </c>
       <c r="H72" s="3">
-        <v>-614800</v>
+        <v>-629900</v>
       </c>
       <c r="I72" s="3">
-        <v>-513600</v>
+        <v>-526200</v>
       </c>
       <c r="J72" s="3">
-        <v>-266500</v>
+        <v>-273000</v>
       </c>
       <c r="K72" s="3">
         <v>-369500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4556600</v>
+        <v>4668500</v>
       </c>
       <c r="E76" s="3">
-        <v>4106200</v>
+        <v>4207000</v>
       </c>
       <c r="F76" s="3">
-        <v>3541800</v>
+        <v>3628800</v>
       </c>
       <c r="G76" s="3">
-        <v>1534600</v>
+        <v>1572200</v>
       </c>
       <c r="H76" s="3">
-        <v>1230300</v>
+        <v>1260500</v>
       </c>
       <c r="I76" s="3">
-        <v>1240200</v>
+        <v>1270600</v>
       </c>
       <c r="J76" s="3">
-        <v>850900</v>
+        <v>871800</v>
       </c>
       <c r="K76" s="3">
         <v>801300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>951400</v>
+        <v>974800</v>
       </c>
       <c r="E81" s="3">
-        <v>1709600</v>
+        <v>1751500</v>
       </c>
       <c r="F81" s="3">
-        <v>1516000</v>
+        <v>1553200</v>
       </c>
       <c r="G81" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H81" s="3">
-        <v>-129300</v>
+        <v>-132500</v>
       </c>
       <c r="I81" s="3">
-        <v>-229500</v>
+        <v>-235100</v>
       </c>
       <c r="J81" s="3">
-        <v>179600</v>
+        <v>184100</v>
       </c>
       <c r="K81" s="3">
         <v>38600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>366500</v>
+        <v>375500</v>
       </c>
       <c r="E83" s="3">
-        <v>428900</v>
+        <v>439400</v>
       </c>
       <c r="F83" s="3">
-        <v>392700</v>
+        <v>402300</v>
       </c>
       <c r="G83" s="3">
-        <v>373100</v>
+        <v>382300</v>
       </c>
       <c r="H83" s="3">
-        <v>342100</v>
+        <v>350500</v>
       </c>
       <c r="I83" s="3">
-        <v>294800</v>
+        <v>302000</v>
       </c>
       <c r="J83" s="3">
-        <v>209000</v>
+        <v>214200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>803900</v>
+        <v>823600</v>
       </c>
       <c r="E89" s="3">
-        <v>1668300</v>
+        <v>1709200</v>
       </c>
       <c r="F89" s="3">
-        <v>1404200</v>
+        <v>1438600</v>
       </c>
       <c r="G89" s="3">
-        <v>489500</v>
+        <v>501500</v>
       </c>
       <c r="H89" s="3">
-        <v>630800</v>
+        <v>646300</v>
       </c>
       <c r="I89" s="3">
-        <v>141700</v>
+        <v>145200</v>
       </c>
       <c r="J89" s="3">
-        <v>227900</v>
+        <v>233400</v>
       </c>
       <c r="K89" s="3">
         <v>218300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-822300</v>
+        <v>-842500</v>
       </c>
       <c r="E91" s="3">
-        <v>-658900</v>
+        <v>-675100</v>
       </c>
       <c r="F91" s="3">
-        <v>-497300</v>
+        <v>-509500</v>
       </c>
       <c r="G91" s="3">
-        <v>-398500</v>
+        <v>-408300</v>
       </c>
       <c r="H91" s="3">
-        <v>-366200</v>
+        <v>-375200</v>
       </c>
       <c r="I91" s="3">
-        <v>-315400</v>
+        <v>-323200</v>
       </c>
       <c r="J91" s="3">
-        <v>-214700</v>
+        <v>-220000</v>
       </c>
       <c r="K91" s="3">
         <v>-175100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-898600</v>
+        <v>-920600</v>
       </c>
       <c r="E94" s="3">
-        <v>-753500</v>
+        <v>-772000</v>
       </c>
       <c r="F94" s="3">
-        <v>-513900</v>
+        <v>-526600</v>
       </c>
       <c r="G94" s="3">
-        <v>-251600</v>
+        <v>-257800</v>
       </c>
       <c r="H94" s="3">
-        <v>-400500</v>
+        <v>-410300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1455600</v>
+        <v>-1491400</v>
       </c>
       <c r="J94" s="3">
-        <v>-488400</v>
+        <v>-500400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-180900</v>
+        <v>-185300</v>
       </c>
       <c r="E100" s="3">
-        <v>-431600</v>
+        <v>-442100</v>
       </c>
       <c r="F100" s="3">
-        <v>-116000</v>
+        <v>-118900</v>
       </c>
       <c r="G100" s="3">
-        <v>-76000</v>
+        <v>-77900</v>
       </c>
       <c r="H100" s="3">
-        <v>-212100</v>
+        <v>-217300</v>
       </c>
       <c r="I100" s="3">
-        <v>1386400</v>
+        <v>1420500</v>
       </c>
       <c r="J100" s="3">
-        <v>281700</v>
+        <v>288600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>57500</v>
+        <v>58900</v>
       </c>
       <c r="E101" s="3">
-        <v>36600</v>
+        <v>37500</v>
       </c>
       <c r="F101" s="3">
-        <v>-18000</v>
+        <v>-18400</v>
       </c>
       <c r="G101" s="3">
         <v>-3100</v>
       </c>
       <c r="H101" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="I101" s="3">
-        <v>-16000</v>
+        <v>-16300</v>
       </c>
       <c r="J101" s="3">
-        <v>-8100</v>
+        <v>-8300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-218100</v>
+        <v>-223400</v>
       </c>
       <c r="E102" s="3">
-        <v>519900</v>
+        <v>532700</v>
       </c>
       <c r="F102" s="3">
-        <v>756200</v>
+        <v>774800</v>
       </c>
       <c r="G102" s="3">
-        <v>158800</v>
+        <v>162700</v>
       </c>
       <c r="H102" s="3">
-        <v>25200</v>
+        <v>25800</v>
       </c>
       <c r="I102" s="3">
-        <v>56600</v>
+        <v>58000</v>
       </c>
       <c r="J102" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="K102" s="3">
         <v>-50100</v>

--- a/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SBSW_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7327900</v>
+        <v>7533900</v>
       </c>
       <c r="E8" s="3">
-        <v>9124600</v>
+        <v>9381100</v>
       </c>
       <c r="F8" s="3">
-        <v>6750500</v>
+        <v>6940300</v>
       </c>
       <c r="G8" s="3">
-        <v>3864300</v>
+        <v>3973000</v>
       </c>
       <c r="H8" s="3">
-        <v>2684300</v>
+        <v>2759800</v>
       </c>
       <c r="I8" s="3">
-        <v>2432900</v>
+        <v>2501300</v>
       </c>
       <c r="J8" s="3">
-        <v>1655400</v>
+        <v>1702000</v>
       </c>
       <c r="K8" s="3">
         <v>1223800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5482200</v>
+        <v>5636400</v>
       </c>
       <c r="E9" s="3">
-        <v>5935900</v>
+        <v>6102800</v>
       </c>
       <c r="F9" s="3">
-        <v>4511200</v>
+        <v>4638100</v>
       </c>
       <c r="G9" s="3">
-        <v>3377900</v>
+        <v>3472900</v>
       </c>
       <c r="H9" s="3">
-        <v>2561600</v>
+        <v>2633700</v>
       </c>
       <c r="I9" s="3">
-        <v>2256400</v>
+        <v>2319800</v>
       </c>
       <c r="J9" s="3">
-        <v>2439000</v>
+        <v>2507500</v>
       </c>
       <c r="K9" s="3">
         <v>1099900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1845600</v>
+        <v>1897500</v>
       </c>
       <c r="E10" s="3">
-        <v>3188600</v>
+        <v>3278300</v>
       </c>
       <c r="F10" s="3">
-        <v>2239300</v>
+        <v>2302200</v>
       </c>
       <c r="G10" s="3">
-        <v>486400</v>
+        <v>500100</v>
       </c>
       <c r="H10" s="3">
-        <v>122700</v>
+        <v>126100</v>
       </c>
       <c r="I10" s="3">
-        <v>176500</v>
+        <v>181500</v>
       </c>
       <c r="J10" s="3">
-        <v>-783500</v>
+        <v>-805500</v>
       </c>
       <c r="K10" s="3">
         <v>123900</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>43300</v>
+        <v>44600</v>
       </c>
       <c r="E14" s="3">
-        <v>286000</v>
+        <v>294100</v>
       </c>
       <c r="F14" s="3">
-        <v>109000</v>
+        <v>112100</v>
       </c>
       <c r="G14" s="3">
-        <v>36200</v>
+        <v>37200</v>
       </c>
       <c r="H14" s="3">
-        <v>190100</v>
+        <v>195400</v>
       </c>
       <c r="I14" s="3">
-        <v>301700</v>
+        <v>310100</v>
       </c>
       <c r="J14" s="3">
-        <v>-24000</v>
+        <v>-24700</v>
       </c>
       <c r="K14" s="3">
         <v>7000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5537100</v>
+        <v>5692800</v>
       </c>
       <c r="E17" s="3">
-        <v>6242300</v>
+        <v>6417800</v>
       </c>
       <c r="F17" s="3">
-        <v>4647400</v>
+        <v>4778100</v>
       </c>
       <c r="G17" s="3">
-        <v>3433300</v>
+        <v>3529900</v>
       </c>
       <c r="H17" s="3">
-        <v>2767500</v>
+        <v>2845400</v>
       </c>
       <c r="I17" s="3">
-        <v>2570300</v>
+        <v>2642600</v>
       </c>
       <c r="J17" s="3">
-        <v>1343900</v>
+        <v>1381700</v>
       </c>
       <c r="K17" s="3">
         <v>1123000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1790700</v>
+        <v>1841100</v>
       </c>
       <c r="E18" s="3">
-        <v>2882300</v>
+        <v>2963300</v>
       </c>
       <c r="F18" s="3">
-        <v>2103100</v>
+        <v>2162300</v>
       </c>
       <c r="G18" s="3">
-        <v>431000</v>
+        <v>443100</v>
       </c>
       <c r="H18" s="3">
-        <v>-83300</v>
+        <v>-85600</v>
       </c>
       <c r="I18" s="3">
-        <v>-137500</v>
+        <v>-141300</v>
       </c>
       <c r="J18" s="3">
-        <v>311600</v>
+        <v>320300</v>
       </c>
       <c r="K18" s="3">
         <v>100800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-243600</v>
+        <v>-250400</v>
       </c>
       <c r="E20" s="3">
-        <v>-302300</v>
+        <v>-310800</v>
       </c>
       <c r="F20" s="3">
-        <v>-132100</v>
+        <v>-135800</v>
       </c>
       <c r="G20" s="3">
-        <v>-401700</v>
+        <v>-413000</v>
       </c>
       <c r="H20" s="3">
-        <v>119000</v>
+        <v>122300</v>
       </c>
       <c r="I20" s="3">
-        <v>-129400</v>
+        <v>-133000</v>
       </c>
       <c r="J20" s="3">
-        <v>-56500</v>
+        <v>-58100</v>
       </c>
       <c r="K20" s="3">
         <v>-32600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1922700</v>
+        <v>1980600</v>
       </c>
       <c r="E21" s="3">
-        <v>3019500</v>
+        <v>3108900</v>
       </c>
       <c r="F21" s="3">
-        <v>2373400</v>
+        <v>2444200</v>
       </c>
       <c r="G21" s="3">
-        <v>411600</v>
+        <v>427000</v>
       </c>
       <c r="H21" s="3">
-        <v>386200</v>
+        <v>400600</v>
       </c>
       <c r="I21" s="3">
-        <v>35200</v>
+        <v>39200</v>
       </c>
       <c r="J21" s="3">
-        <v>469300</v>
+        <v>484600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>68500</v>
+        <v>70400</v>
       </c>
       <c r="E22" s="3">
-        <v>60000</v>
+        <v>61700</v>
       </c>
       <c r="F22" s="3">
-        <v>91000</v>
+        <v>93500</v>
       </c>
       <c r="G22" s="3">
-        <v>98200</v>
+        <v>101000</v>
       </c>
       <c r="H22" s="3">
-        <v>111900</v>
+        <v>115000</v>
       </c>
       <c r="I22" s="3">
-        <v>124200</v>
+        <v>127700</v>
       </c>
       <c r="J22" s="3">
-        <v>30100</v>
+        <v>31000</v>
       </c>
       <c r="K22" s="3">
         <v>18900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1478600</v>
+        <v>1520200</v>
       </c>
       <c r="E23" s="3">
-        <v>2520000</v>
+        <v>2590900</v>
       </c>
       <c r="F23" s="3">
-        <v>1880100</v>
+        <v>1932900</v>
       </c>
       <c r="G23" s="3">
-        <v>-68900</v>
+        <v>-70800</v>
       </c>
       <c r="H23" s="3">
-        <v>-76100</v>
+        <v>-78300</v>
       </c>
       <c r="I23" s="3">
-        <v>-391100</v>
+        <v>-402000</v>
       </c>
       <c r="J23" s="3">
-        <v>224900</v>
+        <v>231300</v>
       </c>
       <c r="K23" s="3">
         <v>49300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>472900</v>
+        <v>486200</v>
       </c>
       <c r="E24" s="3">
-        <v>729200</v>
+        <v>749700</v>
       </c>
       <c r="F24" s="3">
-        <v>257400</v>
+        <v>264700</v>
       </c>
       <c r="G24" s="3">
-        <v>-91800</v>
+        <v>-94400</v>
       </c>
       <c r="H24" s="3">
-        <v>57400</v>
+        <v>59000</v>
       </c>
       <c r="I24" s="3">
-        <v>-156100</v>
+        <v>-160500</v>
       </c>
       <c r="J24" s="3">
-        <v>63700</v>
+        <v>65500</v>
       </c>
       <c r="K24" s="3">
         <v>20300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1005800</v>
+        <v>1034000</v>
       </c>
       <c r="E26" s="3">
-        <v>1790900</v>
+        <v>1841200</v>
       </c>
       <c r="F26" s="3">
-        <v>1622600</v>
+        <v>1668300</v>
       </c>
       <c r="G26" s="3">
-        <v>22900</v>
+        <v>23600</v>
       </c>
       <c r="H26" s="3">
-        <v>-133600</v>
+        <v>-137300</v>
       </c>
       <c r="I26" s="3">
-        <v>-234900</v>
+        <v>-241500</v>
       </c>
       <c r="J26" s="3">
-        <v>161200</v>
+        <v>165800</v>
       </c>
       <c r="K26" s="3">
         <v>29000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>974800</v>
+        <v>1002200</v>
       </c>
       <c r="E27" s="3">
-        <v>1751500</v>
+        <v>1800800</v>
       </c>
       <c r="F27" s="3">
-        <v>1553200</v>
+        <v>1596900</v>
       </c>
       <c r="G27" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H27" s="3">
-        <v>-132500</v>
+        <v>-136200</v>
       </c>
       <c r="I27" s="3">
-        <v>-235100</v>
+        <v>-241700</v>
       </c>
       <c r="J27" s="3">
-        <v>184100</v>
+        <v>189200</v>
       </c>
       <c r="K27" s="3">
         <v>38600</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>243600</v>
+        <v>250400</v>
       </c>
       <c r="E32" s="3">
-        <v>302300</v>
+        <v>310800</v>
       </c>
       <c r="F32" s="3">
-        <v>132100</v>
+        <v>135800</v>
       </c>
       <c r="G32" s="3">
-        <v>401700</v>
+        <v>413000</v>
       </c>
       <c r="H32" s="3">
-        <v>-119000</v>
+        <v>-122300</v>
       </c>
       <c r="I32" s="3">
-        <v>129400</v>
+        <v>133000</v>
       </c>
       <c r="J32" s="3">
-        <v>56500</v>
+        <v>58100</v>
       </c>
       <c r="K32" s="3">
         <v>32600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>974800</v>
+        <v>1002200</v>
       </c>
       <c r="E33" s="3">
-        <v>1751500</v>
+        <v>1800800</v>
       </c>
       <c r="F33" s="3">
-        <v>1553200</v>
+        <v>1596900</v>
       </c>
       <c r="G33" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H33" s="3">
-        <v>-132500</v>
+        <v>-136200</v>
       </c>
       <c r="I33" s="3">
-        <v>-235100</v>
+        <v>-241700</v>
       </c>
       <c r="J33" s="3">
-        <v>184100</v>
+        <v>189200</v>
       </c>
       <c r="K33" s="3">
         <v>38600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>974800</v>
+        <v>1002200</v>
       </c>
       <c r="E35" s="3">
-        <v>1751500</v>
+        <v>1800800</v>
       </c>
       <c r="F35" s="3">
-        <v>1553200</v>
+        <v>1596900</v>
       </c>
       <c r="G35" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H35" s="3">
-        <v>-132500</v>
+        <v>-136200</v>
       </c>
       <c r="I35" s="3">
-        <v>-235100</v>
+        <v>-241700</v>
       </c>
       <c r="J35" s="3">
-        <v>184100</v>
+        <v>189200</v>
       </c>
       <c r="K35" s="3">
         <v>38600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1381800</v>
+        <v>1420600</v>
       </c>
       <c r="E41" s="3">
-        <v>1605200</v>
+        <v>1650300</v>
       </c>
       <c r="F41" s="3">
-        <v>1072500</v>
+        <v>1102700</v>
       </c>
       <c r="G41" s="3">
-        <v>297800</v>
+        <v>306100</v>
       </c>
       <c r="H41" s="3">
-        <v>134700</v>
+        <v>138500</v>
       </c>
       <c r="I41" s="3">
-        <v>109000</v>
+        <v>112000</v>
       </c>
       <c r="J41" s="3">
-        <v>47200</v>
+        <v>48600</v>
       </c>
       <c r="K41" s="3">
         <v>38600</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>409900</v>
+        <v>421500</v>
       </c>
       <c r="E43" s="3">
-        <v>468600</v>
+        <v>481800</v>
       </c>
       <c r="F43" s="3">
-        <v>354100</v>
+        <v>364000</v>
       </c>
       <c r="G43" s="3">
-        <v>243700</v>
+        <v>250500</v>
       </c>
       <c r="H43" s="3">
-        <v>373800</v>
+        <v>384300</v>
       </c>
       <c r="I43" s="3">
-        <v>327000</v>
+        <v>336200</v>
       </c>
       <c r="J43" s="3">
-        <v>305200</v>
+        <v>313800</v>
       </c>
       <c r="K43" s="3">
         <v>81000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1405200</v>
+        <v>1444800</v>
       </c>
       <c r="E44" s="3">
-        <v>2032200</v>
+        <v>2089300</v>
       </c>
       <c r="F44" s="3">
-        <v>1322200</v>
+        <v>1359400</v>
       </c>
       <c r="G44" s="3">
-        <v>821500</v>
+        <v>844600</v>
       </c>
       <c r="H44" s="3">
-        <v>280600</v>
+        <v>288500</v>
       </c>
       <c r="I44" s="3">
-        <v>186900</v>
+        <v>192100</v>
       </c>
       <c r="J44" s="3">
-        <v>35900</v>
+        <v>36900</v>
       </c>
       <c r="K44" s="3">
         <v>21900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22900</v>
+        <v>23600</v>
       </c>
       <c r="E45" s="3">
-        <v>32600</v>
+        <v>33500</v>
       </c>
       <c r="F45" s="3">
-        <v>19500</v>
+        <v>20100</v>
       </c>
       <c r="G45" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="H45" s="3">
-        <v>16100</v>
+        <v>16500</v>
       </c>
       <c r="I45" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="J45" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="K45" s="3">
         <v>6700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3219900</v>
+        <v>3310400</v>
       </c>
       <c r="E46" s="3">
-        <v>3435400</v>
+        <v>3532000</v>
       </c>
       <c r="F46" s="3">
-        <v>2768300</v>
+        <v>2846200</v>
       </c>
       <c r="G46" s="3">
-        <v>1386400</v>
+        <v>1425400</v>
       </c>
       <c r="H46" s="3">
-        <v>805200</v>
+        <v>827800</v>
       </c>
       <c r="I46" s="3">
-        <v>636100</v>
+        <v>654000</v>
       </c>
       <c r="J46" s="3">
-        <v>408200</v>
+        <v>419700</v>
       </c>
       <c r="K46" s="3">
         <v>148200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>491200</v>
+        <v>505000</v>
       </c>
       <c r="E47" s="3">
-        <v>436900</v>
+        <v>449200</v>
       </c>
       <c r="F47" s="3">
-        <v>341400</v>
+        <v>351000</v>
       </c>
       <c r="G47" s="3">
-        <v>250200</v>
+        <v>257300</v>
       </c>
       <c r="H47" s="3">
-        <v>214500</v>
+        <v>220600</v>
       </c>
       <c r="I47" s="3">
-        <v>134000</v>
+        <v>137700</v>
       </c>
       <c r="J47" s="3">
-        <v>133100</v>
+        <v>136900</v>
       </c>
       <c r="K47" s="3">
         <v>9100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4090200</v>
+        <v>4205200</v>
       </c>
       <c r="E48" s="3">
-        <v>3323300</v>
+        <v>3416800</v>
       </c>
       <c r="F48" s="3">
-        <v>3226900</v>
+        <v>3317600</v>
       </c>
       <c r="G48" s="3">
-        <v>3065000</v>
+        <v>3151200</v>
       </c>
       <c r="H48" s="3">
-        <v>2891000</v>
+        <v>2972300</v>
       </c>
       <c r="I48" s="3">
-        <v>2726000</v>
+        <v>2802700</v>
       </c>
       <c r="J48" s="3">
-        <v>1443500</v>
+        <v>1484100</v>
       </c>
       <c r="K48" s="3">
         <v>1192300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>441000</v>
+        <v>453400</v>
       </c>
       <c r="E49" s="3">
-        <v>409500</v>
+        <v>421000</v>
       </c>
       <c r="F49" s="3">
-        <v>379700</v>
+        <v>390400</v>
       </c>
       <c r="G49" s="3">
-        <v>363200</v>
+        <v>373500</v>
       </c>
       <c r="H49" s="3">
-        <v>365100</v>
+        <v>375300</v>
       </c>
       <c r="I49" s="3">
-        <v>338900</v>
+        <v>348500</v>
       </c>
       <c r="J49" s="3">
-        <v>49600</v>
+        <v>51000</v>
       </c>
       <c r="K49" s="3">
         <v>39700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>587600</v>
+        <v>604100</v>
       </c>
       <c r="E52" s="3">
-        <v>502100</v>
+        <v>516200</v>
       </c>
       <c r="F52" s="3">
-        <v>389900</v>
+        <v>400800</v>
       </c>
       <c r="G52" s="3">
-        <v>290900</v>
+        <v>299100</v>
       </c>
       <c r="H52" s="3">
-        <v>224200</v>
+        <v>230500</v>
       </c>
       <c r="I52" s="3">
-        <v>196000</v>
+        <v>201500</v>
       </c>
       <c r="J52" s="3">
-        <v>176400</v>
+        <v>181300</v>
       </c>
       <c r="K52" s="3">
         <v>133400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8829800</v>
+        <v>9078100</v>
       </c>
       <c r="E54" s="3">
-        <v>8107200</v>
+        <v>8335100</v>
       </c>
       <c r="F54" s="3">
-        <v>7106100</v>
+        <v>7305900</v>
       </c>
       <c r="G54" s="3">
-        <v>5355800</v>
+        <v>5506400</v>
       </c>
       <c r="H54" s="3">
-        <v>4500100</v>
+        <v>4626600</v>
       </c>
       <c r="I54" s="3">
-        <v>4031000</v>
+        <v>4144400</v>
       </c>
       <c r="J54" s="3">
-        <v>2210800</v>
+        <v>2273000</v>
       </c>
       <c r="K54" s="3">
         <v>1522700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>509600</v>
+        <v>523900</v>
       </c>
       <c r="E57" s="3">
-        <v>469600</v>
+        <v>482800</v>
       </c>
       <c r="F57" s="3">
-        <v>450000</v>
+        <v>462600</v>
       </c>
       <c r="G57" s="3">
-        <v>339300</v>
+        <v>348900</v>
       </c>
       <c r="H57" s="3">
-        <v>273000</v>
+        <v>280700</v>
       </c>
       <c r="I57" s="3">
-        <v>217700</v>
+        <v>223800</v>
       </c>
       <c r="J57" s="3">
-        <v>163900</v>
+        <v>168500</v>
       </c>
       <c r="K57" s="3">
         <v>74400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="E58" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="F58" s="3">
-        <v>52400</v>
+        <v>53900</v>
       </c>
       <c r="G58" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="H58" s="3">
-        <v>327900</v>
+        <v>337100</v>
       </c>
       <c r="I58" s="3">
-        <v>87800</v>
+        <v>90300</v>
       </c>
       <c r="J58" s="3">
-        <v>39900</v>
+        <v>41000</v>
       </c>
       <c r="K58" s="3">
         <v>107500</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>549500</v>
+        <v>564900</v>
       </c>
       <c r="E59" s="3">
-        <v>607700</v>
+        <v>624800</v>
       </c>
       <c r="F59" s="3">
-        <v>424300</v>
+        <v>436200</v>
       </c>
       <c r="G59" s="3">
-        <v>412000</v>
+        <v>423600</v>
       </c>
       <c r="H59" s="3">
-        <v>174400</v>
+        <v>179300</v>
       </c>
       <c r="I59" s="3">
-        <v>141600</v>
+        <v>145500</v>
       </c>
       <c r="J59" s="3">
-        <v>127800</v>
+        <v>131400</v>
       </c>
       <c r="K59" s="3">
         <v>106100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1071400</v>
+        <v>1101500</v>
       </c>
       <c r="E60" s="3">
-        <v>1088500</v>
+        <v>1119100</v>
       </c>
       <c r="F60" s="3">
-        <v>926600</v>
+        <v>952700</v>
       </c>
       <c r="G60" s="3">
-        <v>759200</v>
+        <v>780500</v>
       </c>
       <c r="H60" s="3">
-        <v>775400</v>
+        <v>797200</v>
       </c>
       <c r="I60" s="3">
-        <v>447100</v>
+        <v>459700</v>
       </c>
       <c r="J60" s="3">
-        <v>331500</v>
+        <v>340900</v>
       </c>
       <c r="K60" s="3">
         <v>288100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1208900</v>
+        <v>1242900</v>
       </c>
       <c r="E61" s="3">
-        <v>1079300</v>
+        <v>1109600</v>
       </c>
       <c r="F61" s="3">
-        <v>939000</v>
+        <v>965400</v>
       </c>
       <c r="G61" s="3">
-        <v>1270200</v>
+        <v>1305900</v>
       </c>
       <c r="H61" s="3">
-        <v>970600</v>
+        <v>997900</v>
       </c>
       <c r="I61" s="3">
-        <v>1271300</v>
+        <v>1307100</v>
       </c>
       <c r="J61" s="3">
-        <v>435700</v>
+        <v>447900</v>
       </c>
       <c r="K61" s="3">
         <v>97400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1727200</v>
+        <v>1775700</v>
       </c>
       <c r="E62" s="3">
-        <v>1628900</v>
+        <v>1674700</v>
       </c>
       <c r="F62" s="3">
-        <v>1493200</v>
+        <v>1535200</v>
       </c>
       <c r="G62" s="3">
-        <v>1676400</v>
+        <v>1723500</v>
       </c>
       <c r="H62" s="3">
-        <v>1444000</v>
+        <v>1484600</v>
       </c>
       <c r="I62" s="3">
-        <v>1040900</v>
+        <v>1070200</v>
       </c>
       <c r="J62" s="3">
-        <v>570900</v>
+        <v>587000</v>
       </c>
       <c r="K62" s="3">
         <v>330000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4161300</v>
+        <v>4278300</v>
       </c>
       <c r="E66" s="3">
-        <v>3900100</v>
+        <v>4009800</v>
       </c>
       <c r="F66" s="3">
-        <v>3477400</v>
+        <v>3575100</v>
       </c>
       <c r="G66" s="3">
-        <v>3783500</v>
+        <v>3889900</v>
       </c>
       <c r="H66" s="3">
-        <v>3239500</v>
+        <v>3330600</v>
       </c>
       <c r="I66" s="3">
-        <v>2760400</v>
+        <v>2838000</v>
       </c>
       <c r="J66" s="3">
-        <v>1339100</v>
+        <v>1376700</v>
       </c>
       <c r="K66" s="3">
         <v>721400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3230600</v>
+        <v>3321400</v>
       </c>
       <c r="E72" s="3">
-        <v>2892500</v>
+        <v>2973800</v>
       </c>
       <c r="F72" s="3">
-        <v>2109700</v>
+        <v>2169000</v>
       </c>
       <c r="G72" s="3">
-        <v>-611200</v>
+        <v>-628400</v>
       </c>
       <c r="H72" s="3">
-        <v>-629900</v>
+        <v>-647600</v>
       </c>
       <c r="I72" s="3">
-        <v>-526200</v>
+        <v>-541000</v>
       </c>
       <c r="J72" s="3">
-        <v>-273000</v>
+        <v>-280700</v>
       </c>
       <c r="K72" s="3">
         <v>-369500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4668500</v>
+        <v>4799700</v>
       </c>
       <c r="E76" s="3">
-        <v>4207000</v>
+        <v>4325300</v>
       </c>
       <c r="F76" s="3">
-        <v>3628800</v>
+        <v>3730800</v>
       </c>
       <c r="G76" s="3">
-        <v>1572200</v>
+        <v>1616500</v>
       </c>
       <c r="H76" s="3">
-        <v>1260500</v>
+        <v>1296000</v>
       </c>
       <c r="I76" s="3">
-        <v>1270600</v>
+        <v>1306300</v>
       </c>
       <c r="J76" s="3">
-        <v>871800</v>
+        <v>896300</v>
       </c>
       <c r="K76" s="3">
         <v>801300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>974800</v>
+        <v>1002200</v>
       </c>
       <c r="E81" s="3">
-        <v>1751500</v>
+        <v>1800800</v>
       </c>
       <c r="F81" s="3">
-        <v>1553200</v>
+        <v>1596900</v>
       </c>
       <c r="G81" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H81" s="3">
-        <v>-132500</v>
+        <v>-136200</v>
       </c>
       <c r="I81" s="3">
-        <v>-235100</v>
+        <v>-241700</v>
       </c>
       <c r="J81" s="3">
-        <v>184100</v>
+        <v>189200</v>
       </c>
       <c r="K81" s="3">
         <v>38600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>375500</v>
+        <v>386100</v>
       </c>
       <c r="E83" s="3">
-        <v>439400</v>
+        <v>451800</v>
       </c>
       <c r="F83" s="3">
-        <v>402300</v>
+        <v>413600</v>
       </c>
       <c r="G83" s="3">
-        <v>382300</v>
+        <v>393000</v>
       </c>
       <c r="H83" s="3">
-        <v>350500</v>
+        <v>360300</v>
       </c>
       <c r="I83" s="3">
-        <v>302000</v>
+        <v>310500</v>
       </c>
       <c r="J83" s="3">
-        <v>214200</v>
+        <v>220200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>823600</v>
+        <v>846800</v>
       </c>
       <c r="E89" s="3">
-        <v>1709200</v>
+        <v>1757300</v>
       </c>
       <c r="F89" s="3">
-        <v>1438600</v>
+        <v>1479100</v>
       </c>
       <c r="G89" s="3">
-        <v>501500</v>
+        <v>515600</v>
       </c>
       <c r="H89" s="3">
-        <v>646300</v>
+        <v>664500</v>
       </c>
       <c r="I89" s="3">
-        <v>145200</v>
+        <v>149300</v>
       </c>
       <c r="J89" s="3">
-        <v>233400</v>
+        <v>240000</v>
       </c>
       <c r="K89" s="3">
         <v>218300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-842500</v>
+        <v>-866200</v>
       </c>
       <c r="E91" s="3">
-        <v>-675100</v>
+        <v>-694100</v>
       </c>
       <c r="F91" s="3">
-        <v>-509500</v>
+        <v>-523900</v>
       </c>
       <c r="G91" s="3">
-        <v>-408300</v>
+        <v>-419800</v>
       </c>
       <c r="H91" s="3">
-        <v>-375200</v>
+        <v>-385800</v>
       </c>
       <c r="I91" s="3">
-        <v>-323200</v>
+        <v>-332300</v>
       </c>
       <c r="J91" s="3">
-        <v>-220000</v>
+        <v>-226200</v>
       </c>
       <c r="K91" s="3">
         <v>-175100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-920600</v>
+        <v>-946500</v>
       </c>
       <c r="E94" s="3">
-        <v>-772000</v>
+        <v>-793700</v>
       </c>
       <c r="F94" s="3">
-        <v>-526600</v>
+        <v>-541400</v>
       </c>
       <c r="G94" s="3">
-        <v>-257800</v>
+        <v>-265000</v>
       </c>
       <c r="H94" s="3">
-        <v>-410300</v>
+        <v>-421900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1491400</v>
+        <v>-1533300</v>
       </c>
       <c r="J94" s="3">
-        <v>-500400</v>
+        <v>-514500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-185300</v>
+        <v>-190500</v>
       </c>
       <c r="E100" s="3">
-        <v>-442100</v>
+        <v>-454600</v>
       </c>
       <c r="F100" s="3">
-        <v>-118900</v>
+        <v>-122200</v>
       </c>
       <c r="G100" s="3">
-        <v>-77900</v>
+        <v>-80100</v>
       </c>
       <c r="H100" s="3">
-        <v>-217300</v>
+        <v>-223400</v>
       </c>
       <c r="I100" s="3">
-        <v>1420500</v>
+        <v>1460400</v>
       </c>
       <c r="J100" s="3">
-        <v>288600</v>
+        <v>296700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>58900</v>
+        <v>60600</v>
       </c>
       <c r="E101" s="3">
-        <v>37500</v>
+        <v>38600</v>
       </c>
       <c r="F101" s="3">
-        <v>-18400</v>
+        <v>-19000</v>
       </c>
       <c r="G101" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H101" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="I101" s="3">
-        <v>-16300</v>
+        <v>-16800</v>
       </c>
       <c r="J101" s="3">
-        <v>-8300</v>
+        <v>-8600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-223400</v>
+        <v>-229700</v>
       </c>
       <c r="E102" s="3">
-        <v>532700</v>
+        <v>547600</v>
       </c>
       <c r="F102" s="3">
-        <v>774800</v>
+        <v>796500</v>
       </c>
       <c r="G102" s="3">
-        <v>162700</v>
+        <v>167200</v>
       </c>
       <c r="H102" s="3">
-        <v>25800</v>
+        <v>26500</v>
       </c>
       <c r="I102" s="3">
-        <v>58000</v>
+        <v>59600</v>
       </c>
       <c r="J102" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="K102" s="3">
         <v>-50100</v>
